--- a/docs/Naginata_v14_Table.xlsx
+++ b/docs/Naginata_v14_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a8d76f6674d90f9/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2125" documentId="8_{86BAD8B4-4789-6D45-B836-11274EEA9691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EDBFDD4-AEDA-C243-B5D0-FD390F571A2D}"/>
+  <xr:revisionPtr revIDLastSave="2143" documentId="8_{86BAD8B4-4789-6D45-B836-11274EEA9691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF2F80F-04A5-104C-A466-5FC671FFC0D2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="26580" activeTab="1" xr2:uid="{9939B06F-E4C1-7E40-9667-0FC991A5FA91}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="751">
   <si>
     <t>↓ 同じ組み合わせがあると、色が変わる</t>
   </si>
@@ -2371,10 +2371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{"key_code":"e","modifiers":["control"]},{"key_code":"return_or_enter"},{"key_code":"3","modifiers":["option"]},{"key_code":"0","modifiers":["option"]},{"key_code":"0","modifiers":["option"]},{"key_code":"0","modifiers":["option"]},{"key_code":"lang1","modifiers":["shift"]},{"key_code":"lang1"}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>+{↑ 7}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2681,11 +2677,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{"key_code":"left_arrow","modifiers":["command"]},{"key_code":"down_arrow","modifiers":["command"]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"key_code":"return_or_enter"},{"key_code":"f","modifiers":["control"]}</t>
+    <t>{"select_input_source":{"input_source_id":"com.apple.keylayout.US"}}</t>
+  </si>
+  <si>
+    <t>{"select_input_source":{"input_source_id":"com.apple.keylayout.US"}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"key_code":"f","modifiers":["control"]},{"key_code":"lang1","modifiers":["shift"]},{"key_code":"lang1"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"key_code":"lang1"},{"key_code":"e","modifiers":["control"]},{"key_code":"return_or_enter"},{"key_code":"spacebar"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"key_code":"left_arrow","modifiers":["command"]},{"key_code":"down_arrow","modifiers":["command"]},{"key_code":"lang1","modifiers":["shift"]},{"key_code":"lang1"}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4145,6 +4152,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4154,18 +4177,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4185,15 +4196,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4234,6 +4237,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4704,722 +4711,722 @@
     </row>
     <row r="2" spans="1:41" ht="13" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:41" ht="13" customHeight="1">
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146" t="s">
+      <c r="C3" s="150"/>
+      <c r="D3" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="145" t="s">
+      <c r="E3" s="156"/>
+      <c r="F3" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="145" t="s">
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="145" t="s">
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="145" t="s">
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146" t="s">
+      <c r="S3" s="150"/>
+      <c r="T3" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="149"/>
-      <c r="V3" s="145" t="s">
+      <c r="U3" s="156"/>
+      <c r="V3" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146" t="s">
+      <c r="W3" s="150"/>
+      <c r="X3" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="145" t="s">
+      <c r="Y3" s="156"/>
+      <c r="Z3" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="145" t="s">
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="156"/>
+      <c r="AD3" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="149"/>
-      <c r="AH3" s="145" t="s">
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="156"/>
+      <c r="AH3" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="146"/>
-      <c r="AK3" s="149"/>
-      <c r="AL3" s="145" t="s">
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="156"/>
+      <c r="AL3" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="AM3" s="146"/>
-      <c r="AN3" s="146"/>
-      <c r="AO3" s="149"/>
+      <c r="AM3" s="150"/>
+      <c r="AN3" s="150"/>
+      <c r="AO3" s="156"/>
     </row>
     <row r="4" spans="1:41" ht="13" customHeight="1">
-      <c r="B4" s="147"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="148"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="147"/>
-      <c r="W4" s="148"/>
-      <c r="X4" s="148"/>
-      <c r="Y4" s="150"/>
-      <c r="Z4" s="147"/>
-      <c r="AA4" s="148"/>
-      <c r="AB4" s="148"/>
-      <c r="AC4" s="150"/>
-      <c r="AD4" s="147"/>
-      <c r="AE4" s="148"/>
-      <c r="AF4" s="148"/>
-      <c r="AG4" s="150"/>
-      <c r="AH4" s="147"/>
-      <c r="AI4" s="148"/>
-      <c r="AJ4" s="148"/>
-      <c r="AK4" s="150"/>
-      <c r="AL4" s="147"/>
-      <c r="AM4" s="148"/>
-      <c r="AN4" s="148"/>
-      <c r="AO4" s="150"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="145"/>
+      <c r="X4" s="145"/>
+      <c r="Y4" s="146"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="146"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+      <c r="AG4" s="146"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="145"/>
+      <c r="AJ4" s="145"/>
+      <c r="AK4" s="146"/>
+      <c r="AL4" s="151"/>
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="145"/>
+      <c r="AO4" s="146"/>
     </row>
     <row r="5" spans="1:41" ht="13" customHeight="1">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="151" t="s">
+      <c r="C5" s="153"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="152"/>
-      <c r="H5" s="148" t="s">
+      <c r="G5" s="153"/>
+      <c r="H5" s="145" t="s">
         <v>314</v>
       </c>
-      <c r="I5" s="150"/>
-      <c r="J5" s="151" t="s">
+      <c r="I5" s="146"/>
+      <c r="J5" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="152"/>
-      <c r="L5" s="148" t="s">
+      <c r="K5" s="153"/>
+      <c r="L5" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="150"/>
-      <c r="N5" s="151" t="s">
+      <c r="M5" s="146"/>
+      <c r="N5" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="152"/>
-      <c r="P5" s="148" t="s">
+      <c r="O5" s="153"/>
+      <c r="P5" s="145" t="s">
         <v>299</v>
       </c>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="151" t="s">
+      <c r="Q5" s="146"/>
+      <c r="R5" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="152"/>
-      <c r="T5" s="148"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="151" t="s">
+      <c r="S5" s="153"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="152"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="150"/>
-      <c r="Z5" s="151" t="s">
+      <c r="W5" s="153"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="148" t="s">
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="AC5" s="150"/>
-      <c r="AD5" s="151" t="s">
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="152"/>
-      <c r="AF5" s="148" t="s">
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="AG5" s="150"/>
-      <c r="AH5" s="151" t="s">
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="AI5" s="152"/>
-      <c r="AJ5" s="148" t="s">
+      <c r="AI5" s="153"/>
+      <c r="AJ5" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AK5" s="150"/>
-      <c r="AL5" s="151" t="s">
+      <c r="AK5" s="146"/>
+      <c r="AL5" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="AM5" s="152"/>
-      <c r="AN5" s="148" t="s">
+      <c r="AM5" s="153"/>
+      <c r="AN5" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="AO5" s="150"/>
+      <c r="AO5" s="146"/>
     </row>
     <row r="6" spans="1:41" ht="13" customHeight="1" thickBot="1">
-      <c r="B6" s="153"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="154"/>
-      <c r="T6" s="155"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="154"/>
-      <c r="X6" s="155"/>
-      <c r="Y6" s="156"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="152"/>
-      <c r="AB6" s="148"/>
-      <c r="AC6" s="150"/>
-      <c r="AD6" s="151"/>
-      <c r="AE6" s="154"/>
-      <c r="AF6" s="155"/>
-      <c r="AG6" s="156"/>
-      <c r="AH6" s="153"/>
-      <c r="AI6" s="154"/>
-      <c r="AJ6" s="155"/>
-      <c r="AK6" s="156"/>
-      <c r="AL6" s="153"/>
-      <c r="AM6" s="152"/>
-      <c r="AN6" s="148"/>
-      <c r="AO6" s="150"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="153"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="155"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="148"/>
+      <c r="V6" s="154"/>
+      <c r="W6" s="155"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="148"/>
+      <c r="Z6" s="154"/>
+      <c r="AA6" s="153"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="152"/>
+      <c r="AE6" s="155"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="148"/>
+      <c r="AH6" s="154"/>
+      <c r="AI6" s="155"/>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="148"/>
+      <c r="AL6" s="154"/>
+      <c r="AM6" s="153"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="146"/>
     </row>
     <row r="7" spans="1:41" ht="13" customHeight="1" thickTop="1">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="145" t="s">
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="145" t="s">
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="158" t="s">
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159" t="s">
+      <c r="O7" s="158"/>
+      <c r="P7" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="146" t="s">
+      <c r="Q7" s="160"/>
+      <c r="R7" s="150" t="s">
         <v>339</v>
       </c>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="145" t="s">
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="149" t="s">
         <v>326</v>
       </c>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="158" t="s">
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="157" t="s">
         <v>310</v>
       </c>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159" t="s">
+      <c r="AA7" s="158"/>
+      <c r="AB7" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="146" t="s">
+      <c r="AC7" s="160"/>
+      <c r="AD7" s="150" t="s">
         <v>328</v>
       </c>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="146"/>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="145" t="s">
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="150"/>
+      <c r="AG7" s="156"/>
+      <c r="AH7" s="149" t="s">
         <v>329</v>
       </c>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="149"/>
-      <c r="AL7" s="145" t="s">
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="150"/>
+      <c r="AK7" s="156"/>
+      <c r="AL7" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="AM7" s="146"/>
-      <c r="AN7" s="146"/>
-      <c r="AO7" s="149"/>
+      <c r="AM7" s="150"/>
+      <c r="AN7" s="150"/>
+      <c r="AO7" s="156"/>
     </row>
     <row r="8" spans="1:41" ht="13" customHeight="1">
-      <c r="B8" s="147"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="162"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="148"/>
-      <c r="X8" s="148"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="162"/>
-      <c r="AD8" s="148"/>
-      <c r="AE8" s="148"/>
-      <c r="AF8" s="148"/>
-      <c r="AG8" s="150"/>
-      <c r="AH8" s="147"/>
-      <c r="AI8" s="148"/>
-      <c r="AJ8" s="148"/>
-      <c r="AK8" s="150"/>
-      <c r="AL8" s="147"/>
-      <c r="AM8" s="148"/>
-      <c r="AN8" s="148"/>
-      <c r="AO8" s="150"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="146"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="145"/>
+      <c r="Z8" s="159"/>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="161"/>
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="145"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="151"/>
+      <c r="AI8" s="145"/>
+      <c r="AJ8" s="145"/>
+      <c r="AK8" s="146"/>
+      <c r="AL8" s="151"/>
+      <c r="AM8" s="145"/>
+      <c r="AN8" s="145"/>
+      <c r="AO8" s="146"/>
     </row>
     <row r="9" spans="1:41" ht="13" customHeight="1">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="148" t="s">
+      <c r="C9" s="153"/>
+      <c r="D9" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="150"/>
-      <c r="F9" s="151" t="s">
+      <c r="E9" s="146"/>
+      <c r="F9" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="152"/>
-      <c r="H9" s="148" t="s">
+      <c r="G9" s="153"/>
+      <c r="H9" s="145" t="s">
         <v>300</v>
       </c>
-      <c r="I9" s="150"/>
-      <c r="J9" s="151" t="s">
+      <c r="I9" s="146"/>
+      <c r="J9" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="152"/>
-      <c r="L9" s="148" t="s">
+      <c r="K9" s="153"/>
+      <c r="L9" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="148"/>
-      <c r="N9" s="163" t="s">
+      <c r="M9" s="145"/>
+      <c r="N9" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="152"/>
-      <c r="P9" s="148" t="s">
+      <c r="O9" s="153"/>
+      <c r="P9" s="145" t="s">
         <v>324</v>
       </c>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="152" t="s">
+      <c r="Q9" s="161"/>
+      <c r="R9" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="S9" s="152"/>
-      <c r="T9" s="148" t="s">
+      <c r="S9" s="153"/>
+      <c r="T9" s="145" t="s">
         <v>325</v>
       </c>
-      <c r="U9" s="150"/>
-      <c r="V9" s="151" t="s">
+      <c r="U9" s="146"/>
+      <c r="V9" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="152"/>
-      <c r="X9" s="148" t="s">
+      <c r="W9" s="153"/>
+      <c r="X9" s="145" t="s">
         <v>327</v>
       </c>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="163" t="s">
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="148" t="s">
+      <c r="AA9" s="153"/>
+      <c r="AB9" s="145" t="s">
         <v>315</v>
       </c>
-      <c r="AC9" s="162"/>
-      <c r="AD9" s="152" t="s">
+      <c r="AC9" s="161"/>
+      <c r="AD9" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="AE9" s="152"/>
-      <c r="AF9" s="148" t="s">
+      <c r="AE9" s="153"/>
+      <c r="AF9" s="145" t="s">
         <v>313</v>
       </c>
-      <c r="AG9" s="150"/>
-      <c r="AH9" s="151" t="s">
+      <c r="AG9" s="146"/>
+      <c r="AH9" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="AI9" s="152"/>
-      <c r="AJ9" s="148" t="s">
+      <c r="AI9" s="153"/>
+      <c r="AJ9" s="145" t="s">
         <v>330</v>
       </c>
-      <c r="AK9" s="150"/>
-      <c r="AL9" s="151" t="s">
+      <c r="AK9" s="146"/>
+      <c r="AL9" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="AM9" s="152"/>
-      <c r="AN9" s="148" t="s">
+      <c r="AM9" s="153"/>
+      <c r="AN9" s="145" t="s">
         <v>301</v>
       </c>
-      <c r="AO9" s="150"/>
+      <c r="AO9" s="146"/>
     </row>
     <row r="10" spans="1:41" ht="13" customHeight="1" thickBot="1">
-      <c r="B10" s="153"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="155"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="167"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="164"/>
-      <c r="AA10" s="165"/>
-      <c r="AB10" s="166"/>
-      <c r="AC10" s="167"/>
-      <c r="AD10" s="154"/>
-      <c r="AE10" s="154"/>
-      <c r="AF10" s="155"/>
-      <c r="AG10" s="156"/>
-      <c r="AH10" s="153"/>
-      <c r="AI10" s="154"/>
-      <c r="AJ10" s="155"/>
-      <c r="AK10" s="156"/>
-      <c r="AL10" s="153"/>
-      <c r="AM10" s="154"/>
-      <c r="AN10" s="155"/>
-      <c r="AO10" s="156"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="148"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="147"/>
+      <c r="Z10" s="163"/>
+      <c r="AA10" s="164"/>
+      <c r="AB10" s="165"/>
+      <c r="AC10" s="166"/>
+      <c r="AD10" s="155"/>
+      <c r="AE10" s="155"/>
+      <c r="AF10" s="147"/>
+      <c r="AG10" s="148"/>
+      <c r="AH10" s="154"/>
+      <c r="AI10" s="155"/>
+      <c r="AJ10" s="147"/>
+      <c r="AK10" s="148"/>
+      <c r="AL10" s="154"/>
+      <c r="AM10" s="155"/>
+      <c r="AN10" s="147"/>
+      <c r="AO10" s="148"/>
     </row>
     <row r="11" spans="1:41" ht="13" customHeight="1">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146" t="s">
+      <c r="C11" s="150"/>
+      <c r="D11" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="149"/>
-      <c r="F11" s="145" t="s">
+      <c r="E11" s="156"/>
+      <c r="F11" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146" t="s">
+      <c r="G11" s="150"/>
+      <c r="H11" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="149"/>
-      <c r="J11" s="145" t="s">
+      <c r="I11" s="156"/>
+      <c r="J11" s="149" t="s">
         <v>155</v>
       </c>
-      <c r="K11" s="146"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="147" t="s">
+      <c r="K11" s="150"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="151" t="s">
         <v>156</v>
       </c>
-      <c r="O11" s="148"/>
-      <c r="P11" s="146" t="s">
+      <c r="O11" s="145"/>
+      <c r="P11" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" s="149"/>
-      <c r="R11" s="145" t="s">
+      <c r="Q11" s="156"/>
+      <c r="R11" s="149" t="s">
         <v>331</v>
       </c>
-      <c r="S11" s="146"/>
-      <c r="T11" s="146"/>
-      <c r="U11" s="149"/>
-      <c r="V11" s="145" t="s">
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="149" t="s">
         <v>332</v>
       </c>
-      <c r="W11" s="146"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="150"/>
-      <c r="Z11" s="147" t="s">
+      <c r="W11" s="150"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="146"/>
+      <c r="Z11" s="151" t="s">
         <v>334</v>
       </c>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="146" t="s">
+      <c r="AA11" s="145"/>
+      <c r="AB11" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="AC11" s="149"/>
-      <c r="AD11" s="145" t="s">
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="149" t="s">
         <v>335</v>
       </c>
-      <c r="AE11" s="146"/>
-      <c r="AF11" s="146"/>
-      <c r="AG11" s="149"/>
-      <c r="AH11" s="145" t="s">
+      <c r="AE11" s="150"/>
+      <c r="AF11" s="150"/>
+      <c r="AG11" s="156"/>
+      <c r="AH11" s="149" t="s">
         <v>336</v>
       </c>
-      <c r="AI11" s="146"/>
-      <c r="AJ11" s="146"/>
-      <c r="AK11" s="149"/>
-      <c r="AL11" s="145" t="s">
+      <c r="AI11" s="150"/>
+      <c r="AJ11" s="150"/>
+      <c r="AK11" s="156"/>
+      <c r="AL11" s="149" t="s">
         <v>316</v>
       </c>
-      <c r="AM11" s="146"/>
-      <c r="AN11" s="146" t="s">
+      <c r="AM11" s="150"/>
+      <c r="AN11" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="AO11" s="149"/>
+      <c r="AO11" s="156"/>
     </row>
     <row r="12" spans="1:41" ht="13" customHeight="1">
-      <c r="B12" s="147"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="150"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="150"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="150"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="150"/>
-      <c r="AD12" s="147"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="148"/>
-      <c r="AG12" s="150"/>
-      <c r="AH12" s="147"/>
-      <c r="AI12" s="148"/>
-      <c r="AJ12" s="148"/>
-      <c r="AK12" s="150"/>
-      <c r="AL12" s="147"/>
-      <c r="AM12" s="148"/>
-      <c r="AN12" s="148"/>
-      <c r="AO12" s="150"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="146"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="146"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="146"/>
+      <c r="AD12" s="151"/>
+      <c r="AE12" s="145"/>
+      <c r="AF12" s="145"/>
+      <c r="AG12" s="146"/>
+      <c r="AH12" s="151"/>
+      <c r="AI12" s="145"/>
+      <c r="AJ12" s="145"/>
+      <c r="AK12" s="146"/>
+      <c r="AL12" s="151"/>
+      <c r="AM12" s="145"/>
+      <c r="AN12" s="145"/>
+      <c r="AO12" s="146"/>
     </row>
     <row r="13" spans="1:41" ht="13" customHeight="1">
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="151" t="s">
+      <c r="C13" s="153"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="151" t="s">
+      <c r="G13" s="153"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="152"/>
-      <c r="L13" s="148" t="s">
+      <c r="K13" s="153"/>
+      <c r="L13" s="145" t="s">
         <v>318</v>
       </c>
-      <c r="M13" s="150"/>
-      <c r="N13" s="151" t="s">
+      <c r="M13" s="146"/>
+      <c r="N13" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="152"/>
-      <c r="P13" s="148" t="s">
+      <c r="O13" s="153"/>
+      <c r="P13" s="145" t="s">
         <v>302</v>
       </c>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="151" t="s">
+      <c r="Q13" s="146"/>
+      <c r="R13" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="S13" s="152"/>
-      <c r="T13" s="148" t="s">
+      <c r="S13" s="153"/>
+      <c r="T13" s="145" t="s">
         <v>312</v>
       </c>
-      <c r="U13" s="150"/>
-      <c r="V13" s="151" t="s">
+      <c r="U13" s="146"/>
+      <c r="V13" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="W13" s="152"/>
-      <c r="X13" s="148" t="s">
+      <c r="W13" s="153"/>
+      <c r="X13" s="145" t="s">
         <v>333</v>
       </c>
-      <c r="Y13" s="150"/>
-      <c r="Z13" s="151" t="s">
+      <c r="Y13" s="146"/>
+      <c r="Z13" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="AA13" s="152"/>
-      <c r="AB13" s="148" t="s">
+      <c r="AA13" s="153"/>
+      <c r="AB13" s="145" t="s">
         <v>303</v>
       </c>
-      <c r="AC13" s="150"/>
-      <c r="AD13" s="151" t="s">
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="AE13" s="152"/>
-      <c r="AF13" s="148" t="s">
+      <c r="AE13" s="153"/>
+      <c r="AF13" s="145" t="s">
         <v>376</v>
       </c>
-      <c r="AG13" s="150"/>
-      <c r="AH13" s="151" t="s">
+      <c r="AG13" s="146"/>
+      <c r="AH13" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="AI13" s="152"/>
-      <c r="AJ13" s="148" t="s">
+      <c r="AI13" s="153"/>
+      <c r="AJ13" s="145" t="s">
         <v>311</v>
       </c>
-      <c r="AK13" s="150"/>
-      <c r="AL13" s="151" t="s">
+      <c r="AK13" s="146"/>
+      <c r="AL13" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="AM13" s="152"/>
-      <c r="AN13" s="148"/>
-      <c r="AO13" s="150"/>
+      <c r="AM13" s="153"/>
+      <c r="AN13" s="145"/>
+      <c r="AO13" s="146"/>
     </row>
     <row r="14" spans="1:41" ht="13" customHeight="1" thickBot="1">
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="154"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="156"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="154"/>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="156"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="154"/>
-      <c r="AF14" s="155"/>
-      <c r="AG14" s="156"/>
-      <c r="AH14" s="153"/>
-      <c r="AI14" s="154"/>
-      <c r="AJ14" s="155"/>
-      <c r="AK14" s="156"/>
-      <c r="AL14" s="153"/>
-      <c r="AM14" s="154"/>
-      <c r="AN14" s="155"/>
-      <c r="AO14" s="156"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="148"/>
+      <c r="Z14" s="154"/>
+      <c r="AA14" s="155"/>
+      <c r="AB14" s="147"/>
+      <c r="AC14" s="148"/>
+      <c r="AD14" s="154"/>
+      <c r="AE14" s="155"/>
+      <c r="AF14" s="147"/>
+      <c r="AG14" s="148"/>
+      <c r="AH14" s="154"/>
+      <c r="AI14" s="155"/>
+      <c r="AJ14" s="147"/>
+      <c r="AK14" s="148"/>
+      <c r="AL14" s="154"/>
+      <c r="AM14" s="155"/>
+      <c r="AN14" s="147"/>
+      <c r="AO14" s="148"/>
     </row>
     <row r="15" spans="1:41" ht="13" customHeight="1">
-      <c r="T15" s="145"/>
-      <c r="U15" s="146"/>
-      <c r="V15" s="146"/>
-      <c r="W15" s="149"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="150"/>
+      <c r="W15" s="156"/>
     </row>
     <row r="16" spans="1:41" ht="13" customHeight="1">
-      <c r="T16" s="147"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="150"/>
+      <c r="T16" s="151"/>
+      <c r="U16" s="145"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="146"/>
     </row>
     <row r="17" spans="20:47" ht="13" customHeight="1">
-      <c r="T17" s="151" t="s">
+      <c r="T17" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="U17" s="152"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="150"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="146"/>
     </row>
     <row r="18" spans="20:47" ht="13" customHeight="1" thickBot="1">
-      <c r="T18" s="153"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="156"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="155"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="148"/>
     </row>
     <row r="19" spans="20:47" ht="27">
       <c r="AP19" s="1" t="s">
@@ -8559,6 +8566,106 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="124">
+    <mergeCell ref="T15:U16"/>
+    <mergeCell ref="V15:W16"/>
+    <mergeCell ref="T17:U18"/>
+    <mergeCell ref="V17:W18"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="AD5:AE6"/>
+    <mergeCell ref="AF5:AG6"/>
+    <mergeCell ref="AH3:AI4"/>
+    <mergeCell ref="AJ3:AK4"/>
+    <mergeCell ref="V5:W6"/>
+    <mergeCell ref="X5:Y6"/>
+    <mergeCell ref="Z3:AA4"/>
+    <mergeCell ref="AB3:AC4"/>
+    <mergeCell ref="Z5:AA6"/>
+    <mergeCell ref="AB5:AC6"/>
+    <mergeCell ref="V3:W4"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="T5:U6"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="AB13:AC14"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AH9:AI10"/>
+    <mergeCell ref="AJ9:AK10"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="Z9:AA10"/>
+    <mergeCell ref="AB9:AC10"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AD11:AE12"/>
+    <mergeCell ref="AF11:AG12"/>
+    <mergeCell ref="R9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="V9:W10"/>
+    <mergeCell ref="X9:Y10"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="N9:O10"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="AD13:AE14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="AN9:AO10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="AD9:AE10"/>
+    <mergeCell ref="AF9:AG10"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="P13:Q14"/>
+    <mergeCell ref="R11:S12"/>
+    <mergeCell ref="T11:U12"/>
+    <mergeCell ref="R13:S14"/>
+    <mergeCell ref="T13:U14"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="J13:K14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="N11:O12"/>
+    <mergeCell ref="P11:Q12"/>
+    <mergeCell ref="Z13:AA14"/>
     <mergeCell ref="AF13:AG14"/>
     <mergeCell ref="V11:W12"/>
     <mergeCell ref="X11:Y12"/>
@@ -8583,106 +8690,6 @@
     <mergeCell ref="AL11:AM12"/>
     <mergeCell ref="AN11:AO12"/>
     <mergeCell ref="AN5:AO6"/>
-    <mergeCell ref="AD13:AE14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="AN9:AO10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="AD9:AE10"/>
-    <mergeCell ref="AF9:AG10"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="R11:S12"/>
-    <mergeCell ref="T11:U12"/>
-    <mergeCell ref="R13:S14"/>
-    <mergeCell ref="T13:U14"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="J13:K14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="N11:O12"/>
-    <mergeCell ref="P11:Q12"/>
-    <mergeCell ref="Z13:AA14"/>
-    <mergeCell ref="AB13:AC14"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AH9:AI10"/>
-    <mergeCell ref="AJ9:AK10"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="Z9:AA10"/>
-    <mergeCell ref="AB9:AC10"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AD11:AE12"/>
-    <mergeCell ref="AF11:AG12"/>
-    <mergeCell ref="R9:S10"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="V9:W10"/>
-    <mergeCell ref="X9:Y10"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="N9:O10"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="AD5:AE6"/>
-    <mergeCell ref="AF5:AG6"/>
-    <mergeCell ref="AH3:AI4"/>
-    <mergeCell ref="AJ3:AK4"/>
-    <mergeCell ref="V5:W6"/>
-    <mergeCell ref="X5:Y6"/>
-    <mergeCell ref="Z3:AA4"/>
-    <mergeCell ref="AB3:AC4"/>
-    <mergeCell ref="Z5:AA6"/>
-    <mergeCell ref="AB5:AC6"/>
-    <mergeCell ref="V3:W4"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="T5:U6"/>
-    <mergeCell ref="T15:U16"/>
-    <mergeCell ref="V15:W16"/>
-    <mergeCell ref="T17:U18"/>
-    <mergeCell ref="V17:W18"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="T7:U8"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="H3:I4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A15:D18 A3:AO14">
@@ -8859,10 +8866,10 @@
         <v>161</v>
       </c>
       <c r="D3" s="89" t="s">
+        <v>716</v>
+      </c>
+      <c r="E3" s="90" t="s">
         <v>717</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>718</v>
       </c>
       <c r="F3" s="91" t="s">
         <v>437</v>
@@ -8912,7 +8919,7 @@
       <c r="E4" s="97"/>
       <c r="F4" s="98"/>
       <c r="G4" s="99" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H4" s="99"/>
       <c r="I4" s="100"/>
@@ -8960,7 +8967,7 @@
       <c r="J5" s="109"/>
       <c r="K5" s="110"/>
       <c r="L5" s="111" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M5" s="51"/>
       <c r="N5" s="52"/>
@@ -10245,10 +10252,10 @@
       </c>
       <c r="D35" s="112"/>
       <c r="E35" s="113" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F35" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G35" s="114"/>
       <c r="H35" s="114"/>
@@ -10290,14 +10297,14 @@
       </c>
       <c r="D36" s="112"/>
       <c r="E36" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F36" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G36" s="114"/>
       <c r="H36" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I36" s="115"/>
       <c r="J36" s="116"/>
@@ -10339,14 +10346,14 @@
       </c>
       <c r="D37" s="112"/>
       <c r="E37" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F37" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G37" s="114"/>
       <c r="H37" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I37" s="115"/>
       <c r="J37" s="116"/>
@@ -10388,14 +10395,14 @@
       </c>
       <c r="D38" s="112"/>
       <c r="E38" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F38" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G38" s="114"/>
       <c r="H38" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I38" s="115"/>
       <c r="J38" s="116"/>
@@ -10437,14 +10444,14 @@
       </c>
       <c r="D39" s="112"/>
       <c r="E39" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F39" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G39" s="114"/>
       <c r="H39" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I39" s="115"/>
       <c r="J39" s="116"/>
@@ -10488,14 +10495,14 @@
       </c>
       <c r="D40" s="112"/>
       <c r="E40" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F40" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G40" s="114"/>
       <c r="H40" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I40" s="115"/>
       <c r="J40" s="116"/>
@@ -10539,14 +10546,14 @@
       </c>
       <c r="D41" s="112"/>
       <c r="E41" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F41" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G41" s="114"/>
       <c r="H41" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I41" s="115"/>
       <c r="J41" s="116"/>
@@ -10588,14 +10595,14 @@
       </c>
       <c r="D42" s="112"/>
       <c r="E42" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F42" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G42" s="114"/>
       <c r="H42" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I42" s="115"/>
       <c r="J42" s="116"/>
@@ -10637,14 +10644,14 @@
       </c>
       <c r="D43" s="112"/>
       <c r="E43" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F43" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G43" s="114"/>
       <c r="H43" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I43" s="115"/>
       <c r="J43" s="116"/>
@@ -10686,14 +10693,14 @@
       </c>
       <c r="D44" s="112"/>
       <c r="E44" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F44" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G44" s="114"/>
       <c r="H44" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I44" s="115"/>
       <c r="J44" s="116"/>
@@ -10735,14 +10742,14 @@
       </c>
       <c r="D45" s="112"/>
       <c r="E45" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F45" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G45" s="114"/>
       <c r="H45" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I45" s="115"/>
       <c r="J45" s="116"/>
@@ -10784,14 +10791,14 @@
       </c>
       <c r="D46" s="112"/>
       <c r="E46" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F46" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G46" s="114"/>
       <c r="H46" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I46" s="115"/>
       <c r="J46" s="116"/>
@@ -10833,14 +10840,14 @@
       </c>
       <c r="D47" s="112"/>
       <c r="E47" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F47" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G47" s="114"/>
       <c r="H47" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I47" s="115"/>
       <c r="J47" s="116"/>
@@ -10882,14 +10889,14 @@
       </c>
       <c r="D48" s="112"/>
       <c r="E48" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F48" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G48" s="114"/>
       <c r="H48" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I48" s="115"/>
       <c r="J48" s="116"/>
@@ -10931,14 +10938,14 @@
       </c>
       <c r="D49" s="112"/>
       <c r="E49" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F49" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G49" s="114"/>
       <c r="H49" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I49" s="115"/>
       <c r="J49" s="116"/>
@@ -10980,14 +10987,14 @@
       </c>
       <c r="D50" s="112"/>
       <c r="E50" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F50" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G50" s="114"/>
       <c r="H50" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I50" s="115"/>
       <c r="J50" s="116"/>
@@ -11029,14 +11036,14 @@
       </c>
       <c r="D51" s="112"/>
       <c r="E51" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F51" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G51" s="114"/>
       <c r="H51" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I51" s="115"/>
       <c r="J51" s="116"/>
@@ -11078,14 +11085,14 @@
       </c>
       <c r="D52" s="112"/>
       <c r="E52" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F52" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G52" s="114"/>
       <c r="H52" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I52" s="115"/>
       <c r="J52" s="116"/>
@@ -11127,14 +11134,14 @@
       </c>
       <c r="D53" s="112"/>
       <c r="E53" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F53" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G53" s="114"/>
       <c r="H53" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I53" s="115"/>
       <c r="J53" s="116"/>
@@ -11176,14 +11183,14 @@
       </c>
       <c r="D54" s="112"/>
       <c r="E54" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F54" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G54" s="114"/>
       <c r="H54" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I54" s="115"/>
       <c r="J54" s="116"/>
@@ -11225,10 +11232,10 @@
       </c>
       <c r="D55" s="112"/>
       <c r="E55" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F55" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G55" s="114"/>
       <c r="H55" s="114"/>
@@ -11272,10 +11279,10 @@
       </c>
       <c r="D56" s="112"/>
       <c r="E56" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F56" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G56" s="114"/>
       <c r="H56" s="114"/>
@@ -11319,14 +11326,14 @@
       </c>
       <c r="D57" s="112"/>
       <c r="E57" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F57" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G57" s="114"/>
       <c r="H57" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I57" s="115"/>
       <c r="J57" s="116"/>
@@ -11368,14 +11375,14 @@
       </c>
       <c r="D58" s="112"/>
       <c r="E58" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F58" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G58" s="114"/>
       <c r="H58" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I58" s="115"/>
       <c r="J58" s="116"/>
@@ -11417,14 +11424,14 @@
       </c>
       <c r="D59" s="112"/>
       <c r="E59" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F59" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G59" s="114"/>
       <c r="H59" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I59" s="115"/>
       <c r="J59" s="116"/>
@@ -11466,14 +11473,14 @@
       </c>
       <c r="D60" s="112"/>
       <c r="E60" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F60" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G60" s="114"/>
       <c r="H60" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I60" s="115"/>
       <c r="J60" s="116"/>
@@ -11515,14 +11522,14 @@
       </c>
       <c r="D61" s="112"/>
       <c r="E61" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F61" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G61" s="114"/>
       <c r="H61" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I61" s="115"/>
       <c r="J61" s="116"/>
@@ -11566,14 +11573,14 @@
       </c>
       <c r="D62" s="112"/>
       <c r="E62" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F62" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G62" s="114"/>
       <c r="H62" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I62" s="115"/>
       <c r="J62" s="116"/>
@@ -11615,14 +11622,14 @@
       </c>
       <c r="D63" s="112"/>
       <c r="E63" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F63" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G63" s="114"/>
       <c r="H63" s="114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I63" s="115"/>
       <c r="J63" s="116"/>
@@ -11664,10 +11671,10 @@
       </c>
       <c r="D64" s="112"/>
       <c r="E64" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F64" s="95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G64" s="114"/>
       <c r="H64" s="114"/>
@@ -11714,11 +11721,11 @@
         <v>0</v>
       </c>
       <c r="F65" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G65" s="114"/>
       <c r="H65" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I65" s="115"/>
       <c r="J65" s="116"/>
@@ -11763,11 +11770,11 @@
         <v>0</v>
       </c>
       <c r="F66" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G66" s="114"/>
       <c r="H66" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I66" s="115"/>
       <c r="J66" s="116"/>
@@ -11812,11 +11819,11 @@
         <v>0</v>
       </c>
       <c r="F67" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G67" s="114"/>
       <c r="H67" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I67" s="115"/>
       <c r="J67" s="116"/>
@@ -11861,11 +11868,11 @@
         <v>0</v>
       </c>
       <c r="F68" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G68" s="114"/>
       <c r="H68" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I68" s="115"/>
       <c r="J68" s="116"/>
@@ -11910,11 +11917,11 @@
         <v>0</v>
       </c>
       <c r="F69" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G69" s="114"/>
       <c r="H69" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I69" s="115"/>
       <c r="J69" s="116"/>
@@ -11959,11 +11966,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G70" s="114"/>
       <c r="H70" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I70" s="115"/>
       <c r="J70" s="116"/>
@@ -12008,11 +12015,11 @@
         <v>0</v>
       </c>
       <c r="F71" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G71" s="114"/>
       <c r="H71" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I71" s="115"/>
       <c r="J71" s="116"/>
@@ -12057,11 +12064,11 @@
         <v>0</v>
       </c>
       <c r="F72" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G72" s="114"/>
       <c r="H72" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I72" s="115"/>
       <c r="J72" s="116"/>
@@ -12099,14 +12106,14 @@
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="50" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D73" s="112"/>
       <c r="E73" s="113"/>
       <c r="F73" s="95"/>
       <c r="G73" s="114"/>
       <c r="H73" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I73" s="115"/>
       <c r="J73" s="116"/>
@@ -12118,7 +12125,7 @@
       </c>
       <c r="M73" s="55"/>
       <c r="N73" s="56" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="O73" s="77" t="str">
         <f t="shared" si="12"/>
@@ -12151,11 +12158,11 @@
         <v>0</v>
       </c>
       <c r="F74" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G74" s="114"/>
       <c r="H74" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I74" s="115"/>
       <c r="J74" s="116"/>
@@ -12200,11 +12207,11 @@
         <v>0</v>
       </c>
       <c r="F75" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G75" s="114"/>
       <c r="H75" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I75" s="115"/>
       <c r="J75" s="116"/>
@@ -12249,11 +12256,11 @@
         <v>0</v>
       </c>
       <c r="F76" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G76" s="114"/>
       <c r="H76" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I76" s="115"/>
       <c r="J76" s="116"/>
@@ -12298,11 +12305,11 @@
         <v>0</v>
       </c>
       <c r="F77" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G77" s="114"/>
       <c r="H77" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I77" s="115"/>
       <c r="J77" s="116"/>
@@ -12347,11 +12354,11 @@
         <v>0</v>
       </c>
       <c r="F78" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G78" s="114"/>
       <c r="H78" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I78" s="115"/>
       <c r="J78" s="116"/>
@@ -12396,11 +12403,11 @@
         <v>0</v>
       </c>
       <c r="F79" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G79" s="114"/>
       <c r="H79" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I79" s="115"/>
       <c r="J79" s="116"/>
@@ -12445,11 +12452,11 @@
         <v>0</v>
       </c>
       <c r="F80" s="95" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G80" s="114"/>
       <c r="H80" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I80" s="115"/>
       <c r="J80" s="116"/>
@@ -12494,11 +12501,11 @@
         <v>0</v>
       </c>
       <c r="F81" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G81" s="114"/>
       <c r="H81" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I81" s="115"/>
       <c r="J81" s="116"/>
@@ -12543,11 +12550,11 @@
         <v>0</v>
       </c>
       <c r="F82" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G82" s="114"/>
       <c r="H82" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I82" s="115"/>
       <c r="J82" s="116"/>
@@ -12592,11 +12599,11 @@
         <v>0</v>
       </c>
       <c r="F83" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G83" s="114"/>
       <c r="H83" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I83" s="115"/>
       <c r="J83" s="116"/>
@@ -12641,11 +12648,11 @@
         <v>0</v>
       </c>
       <c r="F84" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G84" s="114"/>
       <c r="H84" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I84" s="115"/>
       <c r="J84" s="116"/>
@@ -12690,11 +12697,11 @@
         <v>0</v>
       </c>
       <c r="F85" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G85" s="114"/>
       <c r="H85" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I85" s="115"/>
       <c r="J85" s="116"/>
@@ -12739,11 +12746,11 @@
         <v>0</v>
       </c>
       <c r="F86" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G86" s="114"/>
       <c r="H86" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I86" s="115"/>
       <c r="J86" s="116"/>
@@ -12788,11 +12795,11 @@
         <v>0</v>
       </c>
       <c r="F87" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G87" s="114"/>
       <c r="H87" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I87" s="115"/>
       <c r="J87" s="116"/>
@@ -12837,11 +12844,11 @@
         <v>0</v>
       </c>
       <c r="F88" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G88" s="114"/>
       <c r="H88" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I88" s="115"/>
       <c r="J88" s="116"/>
@@ -12886,11 +12893,11 @@
         <v>0</v>
       </c>
       <c r="F89" s="95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G89" s="114"/>
       <c r="H89" s="114" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I89" s="115"/>
       <c r="J89" s="116"/>
@@ -12935,11 +12942,11 @@
         <v>0</v>
       </c>
       <c r="F90" s="95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G90" s="114"/>
       <c r="H90" s="114" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I90" s="115"/>
       <c r="J90" s="116"/>
@@ -12984,11 +12991,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G91" s="114"/>
       <c r="H91" s="114" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I91" s="115"/>
       <c r="J91" s="116"/>
@@ -13030,14 +13037,14 @@
       </c>
       <c r="D92" s="112"/>
       <c r="E92" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F92" s="95" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G92" s="114"/>
       <c r="H92" s="114" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I92" s="115"/>
       <c r="J92" s="116"/>
@@ -13079,14 +13086,14 @@
       </c>
       <c r="D93" s="112"/>
       <c r="E93" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F93" s="95" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G93" s="114"/>
       <c r="H93" s="114" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I93" s="115"/>
       <c r="J93" s="116"/>
@@ -13128,14 +13135,14 @@
       </c>
       <c r="D94" s="112"/>
       <c r="E94" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F94" s="95" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G94" s="114"/>
       <c r="H94" s="114" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I94" s="115"/>
       <c r="J94" s="116"/>
@@ -13177,14 +13184,14 @@
       </c>
       <c r="D95" s="112"/>
       <c r="E95" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F95" s="95" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G95" s="114"/>
       <c r="H95" s="114" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I95" s="115"/>
       <c r="J95" s="116"/>
@@ -13226,14 +13233,14 @@
       </c>
       <c r="D96" s="112"/>
       <c r="E96" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F96" s="95" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G96" s="114"/>
       <c r="H96" s="114" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I96" s="115"/>
       <c r="J96" s="116"/>
@@ -13276,13 +13283,13 @@
       <c r="D97" s="112"/>
       <c r="E97" s="113"/>
       <c r="F97" s="95" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G97" s="114" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H97" s="114" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I97" s="115"/>
       <c r="J97" s="116"/>
@@ -13324,14 +13331,14 @@
       </c>
       <c r="D98" s="112"/>
       <c r="E98" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F98" s="95" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G98" s="114"/>
       <c r="H98" s="114" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I98" s="115"/>
       <c r="J98" s="116"/>
@@ -13373,14 +13380,14 @@
       </c>
       <c r="D99" s="112"/>
       <c r="E99" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F99" s="95" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G99" s="114"/>
       <c r="H99" s="114" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I99" s="115"/>
       <c r="J99" s="116"/>
@@ -13421,17 +13428,17 @@
         <v>235</v>
       </c>
       <c r="D100" s="112" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E100" s="113"/>
       <c r="F100" s="95" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G100" s="114" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H100" s="114" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I100" s="115"/>
       <c r="J100" s="116" t="s">
@@ -14423,11 +14430,11 @@
       </c>
       <c r="E122" s="113"/>
       <c r="F122" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G122" s="114"/>
       <c r="H122" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I122" s="115"/>
       <c r="J122" s="116" t="s">
@@ -14474,11 +14481,11 @@
       </c>
       <c r="E123" s="113"/>
       <c r="F123" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G123" s="114"/>
       <c r="H123" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I123" s="115"/>
       <c r="J123" s="116" t="s">
@@ -14525,11 +14532,11 @@
       </c>
       <c r="E124" s="113"/>
       <c r="F124" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G124" s="114"/>
       <c r="H124" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I124" s="115"/>
       <c r="J124" s="116" t="s">
@@ -14576,11 +14583,11 @@
       </c>
       <c r="E125" s="113"/>
       <c r="F125" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G125" s="114"/>
       <c r="H125" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I125" s="115"/>
       <c r="J125" s="116" t="s">
@@ -14627,11 +14634,11 @@
       </c>
       <c r="E126" s="113"/>
       <c r="F126" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G126" s="114"/>
       <c r="H126" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I126" s="115"/>
       <c r="J126" s="116" t="s">
@@ -14678,11 +14685,11 @@
       </c>
       <c r="E127" s="113"/>
       <c r="F127" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G127" s="114"/>
       <c r="H127" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I127" s="115"/>
       <c r="J127" s="116" t="s">
@@ -14729,11 +14736,11 @@
       </c>
       <c r="E128" s="113"/>
       <c r="F128" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G128" s="114"/>
       <c r="H128" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I128" s="115"/>
       <c r="J128" s="116" t="s">
@@ -14780,11 +14787,11 @@
       </c>
       <c r="E129" s="113"/>
       <c r="F129" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G129" s="114"/>
       <c r="H129" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I129" s="115"/>
       <c r="J129" s="116" t="s">
@@ -14831,11 +14838,11 @@
       </c>
       <c r="E130" s="113"/>
       <c r="F130" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G130" s="114"/>
       <c r="H130" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I130" s="115"/>
       <c r="J130" s="116" t="s">
@@ -14882,11 +14889,11 @@
       </c>
       <c r="E131" s="113"/>
       <c r="F131" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G131" s="114"/>
       <c r="H131" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I131" s="115"/>
       <c r="J131" s="116" t="s">
@@ -14933,11 +14940,11 @@
       </c>
       <c r="E132" s="113"/>
       <c r="F132" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G132" s="114"/>
       <c r="H132" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I132" s="115"/>
       <c r="J132" s="116" t="s">
@@ -14984,11 +14991,11 @@
       </c>
       <c r="E133" s="113"/>
       <c r="F133" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G133" s="114"/>
       <c r="H133" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I133" s="115"/>
       <c r="J133" s="116" t="s">
@@ -15035,11 +15042,11 @@
       </c>
       <c r="E134" s="113"/>
       <c r="F134" s="95" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G134" s="114"/>
       <c r="H134" s="114" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I134" s="115"/>
       <c r="J134" s="116" t="s">
@@ -15086,11 +15093,11 @@
       </c>
       <c r="E135" s="113"/>
       <c r="F135" s="95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G135" s="114"/>
       <c r="H135" s="114" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I135" s="115"/>
       <c r="J135" s="116" t="s">
@@ -15137,11 +15144,11 @@
       </c>
       <c r="E136" s="113"/>
       <c r="F136" s="95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G136" s="114"/>
       <c r="H136" s="114" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I136" s="115"/>
       <c r="J136" s="116" t="s">
@@ -15188,11 +15195,11 @@
       </c>
       <c r="E137" s="113"/>
       <c r="F137" s="95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G137" s="114"/>
       <c r="H137" s="114" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I137" s="115"/>
       <c r="J137" s="116" t="s">
@@ -15239,11 +15246,11 @@
       </c>
       <c r="E138" s="113"/>
       <c r="F138" s="95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G138" s="114"/>
       <c r="H138" s="114" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I138" s="115"/>
       <c r="J138" s="116" t="s">
@@ -15290,11 +15297,11 @@
       </c>
       <c r="E139" s="113"/>
       <c r="F139" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G139" s="114"/>
       <c r="H139" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I139" s="115"/>
       <c r="J139" s="116" t="s">
@@ -15341,11 +15348,11 @@
       </c>
       <c r="E140" s="113"/>
       <c r="F140" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G140" s="114"/>
       <c r="H140" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I140" s="115"/>
       <c r="J140" s="116" t="s">
@@ -15392,11 +15399,11 @@
       </c>
       <c r="E141" s="113"/>
       <c r="F141" s="95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G141" s="114"/>
       <c r="H141" s="114" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I141" s="115"/>
       <c r="J141" s="116" t="s">
@@ -15443,11 +15450,11 @@
       </c>
       <c r="E142" s="113"/>
       <c r="F142" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G142" s="114"/>
       <c r="H142" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I142" s="115"/>
       <c r="J142" s="116" t="s">
@@ -15494,11 +15501,11 @@
       </c>
       <c r="E143" s="113"/>
       <c r="F143" s="95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G143" s="114"/>
       <c r="H143" s="114" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I143" s="115"/>
       <c r="J143" s="116" t="s">
@@ -15545,11 +15552,11 @@
       </c>
       <c r="E144" s="113"/>
       <c r="F144" s="95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G144" s="114"/>
       <c r="H144" s="114" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I144" s="115"/>
       <c r="J144" s="116" t="s">
@@ -15596,11 +15603,11 @@
       </c>
       <c r="E145" s="113"/>
       <c r="F145" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G145" s="114"/>
       <c r="H145" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I145" s="115"/>
       <c r="J145" s="116" t="s">
@@ -15647,11 +15654,11 @@
       </c>
       <c r="E146" s="113"/>
       <c r="F146" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G146" s="114"/>
       <c r="H146" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I146" s="115"/>
       <c r="J146" s="116" t="s">
@@ -15698,11 +15705,11 @@
       </c>
       <c r="E147" s="113"/>
       <c r="F147" s="95" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G147" s="114"/>
       <c r="H147" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I147" s="115"/>
       <c r="J147" s="116" t="s">
@@ -15749,11 +15756,11 @@
       </c>
       <c r="E148" s="113"/>
       <c r="F148" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G148" s="114"/>
       <c r="H148" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I148" s="115"/>
       <c r="J148" s="116" t="s">
@@ -15800,11 +15807,11 @@
       </c>
       <c r="E149" s="113"/>
       <c r="F149" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G149" s="114"/>
       <c r="H149" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I149" s="115"/>
       <c r="J149" s="116" t="s">
@@ -15851,11 +15858,11 @@
       </c>
       <c r="E150" s="113"/>
       <c r="F150" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G150" s="114"/>
       <c r="H150" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I150" s="115"/>
       <c r="J150" s="116" t="s">
@@ -15902,11 +15909,11 @@
       </c>
       <c r="E151" s="113"/>
       <c r="F151" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G151" s="114"/>
       <c r="H151" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I151" s="115"/>
       <c r="J151" s="116" t="s">
@@ -15953,11 +15960,11 @@
       </c>
       <c r="E152" s="113"/>
       <c r="F152" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G152" s="114"/>
       <c r="H152" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I152" s="115"/>
       <c r="J152" s="116" t="s">
@@ -16004,11 +16011,11 @@
       </c>
       <c r="E153" s="113"/>
       <c r="F153" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G153" s="114"/>
       <c r="H153" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I153" s="115"/>
       <c r="J153" s="116" t="s">
@@ -16055,11 +16062,11 @@
       </c>
       <c r="E154" s="113"/>
       <c r="F154" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G154" s="114"/>
       <c r="H154" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I154" s="115"/>
       <c r="J154" s="116" t="s">
@@ -16106,11 +16113,11 @@
       </c>
       <c r="E155" s="113"/>
       <c r="F155" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G155" s="114"/>
       <c r="H155" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I155" s="115"/>
       <c r="J155" s="116" t="s">
@@ -16157,11 +16164,11 @@
       </c>
       <c r="E156" s="113"/>
       <c r="F156" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G156" s="114"/>
       <c r="H156" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I156" s="115"/>
       <c r="J156" s="116" t="s">
@@ -16208,11 +16215,11 @@
       </c>
       <c r="E157" s="113"/>
       <c r="F157" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G157" s="114"/>
       <c r="H157" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I157" s="115"/>
       <c r="J157" s="116" t="s">
@@ -16259,11 +16266,11 @@
       </c>
       <c r="E158" s="113"/>
       <c r="F158" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G158" s="114"/>
       <c r="H158" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I158" s="115"/>
       <c r="J158" s="116" t="s">
@@ -16310,11 +16317,11 @@
       </c>
       <c r="E159" s="113"/>
       <c r="F159" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G159" s="114"/>
       <c r="H159" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I159" s="115"/>
       <c r="J159" s="116" t="s">
@@ -16361,11 +16368,11 @@
       </c>
       <c r="E160" s="113"/>
       <c r="F160" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G160" s="114"/>
       <c r="H160" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I160" s="115"/>
       <c r="J160" s="116" t="s">
@@ -16412,11 +16419,11 @@
       </c>
       <c r="E161" s="113"/>
       <c r="F161" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G161" s="114"/>
       <c r="H161" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I161" s="115"/>
       <c r="J161" s="116" t="s">
@@ -16463,11 +16470,11 @@
       </c>
       <c r="E162" s="113"/>
       <c r="F162" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G162" s="114"/>
       <c r="H162" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I162" s="115"/>
       <c r="J162" s="116" t="s">
@@ -16514,11 +16521,11 @@
       </c>
       <c r="E163" s="113"/>
       <c r="F163" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G163" s="114"/>
       <c r="H163" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I163" s="115"/>
       <c r="J163" s="116" t="s">
@@ -16565,11 +16572,11 @@
       </c>
       <c r="E164" s="113"/>
       <c r="F164" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G164" s="114"/>
       <c r="H164" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I164" s="115"/>
       <c r="J164" s="116" t="s">
@@ -16616,11 +16623,11 @@
       </c>
       <c r="E165" s="113"/>
       <c r="F165" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G165" s="114"/>
       <c r="H165" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I165" s="115"/>
       <c r="J165" s="116" t="s">
@@ -16667,11 +16674,11 @@
       </c>
       <c r="E166" s="113"/>
       <c r="F166" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G166" s="114"/>
       <c r="H166" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I166" s="115"/>
       <c r="J166" s="116" t="s">
@@ -16718,11 +16725,11 @@
       </c>
       <c r="E167" s="113"/>
       <c r="F167" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G167" s="114"/>
       <c r="H167" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I167" s="115"/>
       <c r="J167" s="116" t="s">
@@ -16769,11 +16776,11 @@
       </c>
       <c r="E168" s="113"/>
       <c r="F168" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G168" s="114"/>
       <c r="H168" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I168" s="115"/>
       <c r="J168" s="116" t="s">
@@ -16820,11 +16827,11 @@
       </c>
       <c r="E169" s="113"/>
       <c r="F169" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G169" s="114"/>
       <c r="H169" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I169" s="115"/>
       <c r="J169" s="116" t="s">
@@ -16871,11 +16878,11 @@
       </c>
       <c r="E170" s="113"/>
       <c r="F170" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G170" s="114"/>
       <c r="H170" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I170" s="115"/>
       <c r="J170" s="116" t="s">
@@ -16922,11 +16929,11 @@
       </c>
       <c r="E171" s="113"/>
       <c r="F171" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G171" s="114"/>
       <c r="H171" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I171" s="115"/>
       <c r="J171" s="116" t="s">
@@ -16973,11 +16980,11 @@
       </c>
       <c r="E172" s="113"/>
       <c r="F172" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G172" s="114"/>
       <c r="H172" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I172" s="115"/>
       <c r="J172" s="116" t="s">
@@ -17024,11 +17031,11 @@
       </c>
       <c r="E173" s="113"/>
       <c r="F173" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G173" s="114"/>
       <c r="H173" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I173" s="115"/>
       <c r="J173" s="116" t="s">
@@ -17075,11 +17082,11 @@
       </c>
       <c r="E174" s="113"/>
       <c r="F174" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G174" s="114"/>
       <c r="H174" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I174" s="115"/>
       <c r="J174" s="116" t="s">
@@ -17125,7 +17132,7 @@
       <c r="E175" s="113"/>
       <c r="F175" s="95"/>
       <c r="G175" s="114" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H175" s="114"/>
       <c r="I175" s="115"/>
@@ -17172,7 +17179,7 @@
       <c r="E176" s="113"/>
       <c r="F176" s="95"/>
       <c r="G176" s="114" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H176" s="114"/>
       <c r="I176" s="115"/>
@@ -17216,15 +17223,15 @@
         <v>403</v>
       </c>
       <c r="D177" s="112" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E177" s="120"/>
       <c r="F177" s="95" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G177" s="121"/>
       <c r="H177" s="121" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I177" s="115"/>
       <c r="J177" s="116"/>
@@ -17269,7 +17276,7 @@
       <c r="F178" s="95"/>
       <c r="G178" s="121"/>
       <c r="H178" s="121" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I178" s="115"/>
       <c r="J178" s="116"/>
@@ -17302,7 +17309,7 @@
       </c>
       <c r="S178" s="58"/>
     </row>
-    <row r="179" spans="1:19" ht="63">
+    <row r="179" spans="1:19" ht="42">
       <c r="A179" s="93">
         <f t="shared" si="15"/>
         <v>196609</v>
@@ -17316,11 +17323,11 @@
       </c>
       <c r="E179" s="120"/>
       <c r="F179" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G179" s="121"/>
       <c r="H179" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I179" s="122"/>
       <c r="J179" s="116" t="s">
@@ -17351,9 +17358,11 @@
         <v>q</v>
       </c>
       <c r="R179" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="S179" s="58"/>
+        <v>746</v>
+      </c>
+      <c r="S179" s="58" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="180" spans="1:19" ht="63">
       <c r="A180" s="93">
@@ -17369,11 +17378,11 @@
       </c>
       <c r="E180" s="120"/>
       <c r="F180" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G180" s="121"/>
       <c r="H180" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I180" s="122"/>
       <c r="J180" s="116" t="s">
@@ -17422,11 +17431,11 @@
       </c>
       <c r="E181" s="120"/>
       <c r="F181" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G181" s="121"/>
       <c r="H181" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I181" s="122"/>
       <c r="J181" s="116" t="s">
@@ -17477,11 +17486,11 @@
       </c>
       <c r="E182" s="120"/>
       <c r="F182" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G182" s="121"/>
       <c r="H182" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I182" s="122"/>
       <c r="J182" s="116" t="s">
@@ -17532,13 +17541,13 @@
       </c>
       <c r="E183" s="120"/>
       <c r="F183" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G183" s="121" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H183" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I183" s="122"/>
       <c r="J183" s="116" t="s">
@@ -17589,11 +17598,11 @@
       </c>
       <c r="E184" s="120"/>
       <c r="F184" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G184" s="121"/>
       <c r="H184" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I184" s="122"/>
       <c r="J184" s="116" t="s">
@@ -17644,11 +17653,11 @@
       </c>
       <c r="E185" s="120"/>
       <c r="F185" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G185" s="121"/>
       <c r="H185" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I185" s="122"/>
       <c r="J185" s="116" t="s">
@@ -17697,11 +17706,11 @@
       </c>
       <c r="E186" s="120"/>
       <c r="F186" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G186" s="121"/>
       <c r="H186" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I186" s="122"/>
       <c r="J186" s="116" t="s">
@@ -17750,11 +17759,11 @@
       </c>
       <c r="E187" s="120"/>
       <c r="F187" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G187" s="121"/>
       <c r="H187" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I187" s="122"/>
       <c r="J187" s="116" t="s">
@@ -17803,13 +17812,13 @@
       </c>
       <c r="E188" s="120"/>
       <c r="F188" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G188" s="121" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H188" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I188" s="122"/>
       <c r="J188" s="116" t="s">
@@ -17860,11 +17869,11 @@
       </c>
       <c r="E189" s="120"/>
       <c r="F189" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G189" s="121"/>
       <c r="H189" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I189" s="122"/>
       <c r="J189" s="116" t="s">
@@ -17895,9 +17904,11 @@
         <v>v</v>
       </c>
       <c r="R189" s="57" t="s">
+        <v>746</v>
+      </c>
+      <c r="S189" s="58" t="s">
         <v>748</v>
       </c>
-      <c r="S189" s="58"/>
     </row>
     <row r="190" spans="1:19" ht="42">
       <c r="A190" s="93">
@@ -17913,11 +17924,11 @@
       </c>
       <c r="E190" s="120"/>
       <c r="F190" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G190" s="121"/>
       <c r="H190" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I190" s="122"/>
       <c r="J190" s="116" t="s">
@@ -17966,11 +17977,11 @@
       </c>
       <c r="E191" s="120"/>
       <c r="F191" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G191" s="121"/>
       <c r="H191" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I191" s="122"/>
       <c r="J191" s="116" t="s">
@@ -17983,7 +17994,7 @@
         <v>339</v>
       </c>
       <c r="M191" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N191" s="56" t="s">
         <v>379</v>
@@ -18007,7 +18018,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="63">
+    <row r="192" spans="1:19" ht="42">
       <c r="A192" s="93">
         <f t="shared" si="15"/>
         <v>16973824</v>
@@ -18021,11 +18032,11 @@
       </c>
       <c r="E192" s="120"/>
       <c r="F192" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G192" s="121"/>
       <c r="H192" s="114" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I192" s="122"/>
       <c r="J192" s="116" t="s">
@@ -18038,7 +18049,7 @@
         <v>75</v>
       </c>
       <c r="M192" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N192" s="56" t="s">
         <v>669</v>
@@ -18056,10 +18067,10 @@
         <v>b</v>
       </c>
       <c r="R192" s="57" t="s">
-        <v>623</v>
+        <v>747</v>
       </c>
       <c r="S192" s="58" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
     </row>
     <row r="193" spans="1:19" ht="42">
@@ -18076,11 +18087,11 @@
       </c>
       <c r="E193" s="120"/>
       <c r="F193" s="95" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G193" s="121"/>
       <c r="H193" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I193" s="122"/>
       <c r="J193" s="116" t="s">
@@ -18129,11 +18140,11 @@
       </c>
       <c r="E194" s="120"/>
       <c r="F194" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G194" s="121"/>
       <c r="H194" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I194" s="122"/>
       <c r="J194" s="116" t="s">
@@ -18146,7 +18157,7 @@
         <v>50</v>
       </c>
       <c r="M194" s="55" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N194" s="56" t="s">
         <v>180</v>
@@ -18164,7 +18175,7 @@
         <v>h</v>
       </c>
       <c r="R194" s="57" t="s">
-        <v>623</v>
+        <v>746</v>
       </c>
       <c r="S194" s="58" t="s">
         <v>634</v>
@@ -18184,11 +18195,11 @@
       </c>
       <c r="E195" s="120"/>
       <c r="F195" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G195" s="121"/>
       <c r="H195" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I195" s="122"/>
       <c r="J195" s="116" t="s">
@@ -18237,11 +18248,11 @@
       </c>
       <c r="E196" s="120"/>
       <c r="F196" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G196" s="121"/>
       <c r="H196" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I196" s="122"/>
       <c r="J196" s="116" t="s">
@@ -18290,11 +18301,11 @@
       </c>
       <c r="E197" s="120"/>
       <c r="F197" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G197" s="121"/>
       <c r="H197" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I197" s="122"/>
       <c r="J197" s="116" t="s">
@@ -18343,11 +18354,11 @@
       </c>
       <c r="E198" s="120"/>
       <c r="F198" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G198" s="121"/>
       <c r="H198" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I198" s="122"/>
       <c r="J198" s="116" t="s">
@@ -18396,11 +18407,11 @@
       </c>
       <c r="E199" s="120"/>
       <c r="F199" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G199" s="121"/>
       <c r="H199" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I199" s="122"/>
       <c r="J199" s="116" t="s">
@@ -18449,11 +18460,11 @@
       </c>
       <c r="E200" s="120"/>
       <c r="F200" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G200" s="121"/>
       <c r="H200" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I200" s="122"/>
       <c r="J200" s="116" t="s">
@@ -18502,11 +18513,11 @@
       </c>
       <c r="E201" s="120"/>
       <c r="F201" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G201" s="121"/>
       <c r="H201" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I201" s="122"/>
       <c r="J201" s="116" t="s">
@@ -18555,11 +18566,11 @@
       </c>
       <c r="E202" s="120"/>
       <c r="F202" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G202" s="121"/>
       <c r="H202" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I202" s="122"/>
       <c r="J202" s="116" t="s">
@@ -18608,11 +18619,11 @@
       </c>
       <c r="E203" s="120"/>
       <c r="F203" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G203" s="121"/>
       <c r="H203" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I203" s="122"/>
       <c r="J203" s="116" t="s">
@@ -18628,7 +18639,7 @@
         <v>647</v>
       </c>
       <c r="N203" s="56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O203" s="77" t="str">
         <f t="shared" si="23"/>
@@ -18643,7 +18654,7 @@
         <v>l</v>
       </c>
       <c r="R203" s="57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="S203" s="58"/>
     </row>
@@ -18661,11 +18672,11 @@
       </c>
       <c r="E204" s="120"/>
       <c r="F204" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G204" s="121"/>
       <c r="H204" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I204" s="122"/>
       <c r="J204" s="116" t="s">
@@ -18681,7 +18692,7 @@
         <v>648</v>
       </c>
       <c r="N204" s="56" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O204" s="77" t="str">
         <f t="shared" si="23"/>
@@ -18696,7 +18707,7 @@
         <v>period</v>
       </c>
       <c r="R204" s="57" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="S204" s="58"/>
     </row>
@@ -18714,11 +18725,11 @@
       </c>
       <c r="E205" s="120"/>
       <c r="F205" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G205" s="121"/>
       <c r="H205" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I205" s="122"/>
       <c r="J205" s="116" t="s">
@@ -18767,11 +18778,11 @@
       </c>
       <c r="E206" s="120"/>
       <c r="F206" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G206" s="121"/>
       <c r="H206" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I206" s="122"/>
       <c r="J206" s="116" t="s">
@@ -18787,7 +18798,7 @@
         <v>650</v>
       </c>
       <c r="N206" s="56" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O206" s="77" t="str">
         <f t="shared" si="23"/>
@@ -18802,7 +18813,7 @@
         <v>semicolon</v>
       </c>
       <c r="R206" s="57" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="S206" s="58"/>
     </row>
@@ -18820,11 +18831,11 @@
       </c>
       <c r="E207" s="120"/>
       <c r="F207" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G207" s="121"/>
       <c r="H207" s="114" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I207" s="122"/>
       <c r="J207" s="116" t="s">
@@ -18840,7 +18851,7 @@
         <v>651</v>
       </c>
       <c r="N207" s="56" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O207" s="77" t="str">
         <f t="shared" si="23"/>
@@ -18855,7 +18866,7 @@
         <v>slash</v>
       </c>
       <c r="R207" s="57" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="S207" s="58"/>
     </row>
@@ -18873,7 +18884,7 @@
       </c>
       <c r="E208" s="120"/>
       <c r="F208" s="95" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G208" s="121"/>
       <c r="H208" s="114"/>
@@ -18891,7 +18902,7 @@
         <v>652</v>
       </c>
       <c r="N208" s="56" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="O208" s="77" t="str">
         <f t="shared" si="23"/>
@@ -18906,7 +18917,7 @@
         <v>q</v>
       </c>
       <c r="R208" s="57" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S208" s="58"/>
     </row>
@@ -18924,11 +18935,11 @@
       </c>
       <c r="E209" s="124"/>
       <c r="F209" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G209" s="126"/>
       <c r="H209" s="127" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I209" s="128"/>
       <c r="J209" s="129" t="s">
@@ -18944,7 +18955,7 @@
         <v>653</v>
       </c>
       <c r="N209" s="60" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O209" s="80" t="str">
         <f t="shared" si="23"/>
@@ -18979,7 +18990,7 @@
       </c>
       <c r="E210" s="124"/>
       <c r="F210" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G210" s="126"/>
       <c r="H210" s="127"/>
@@ -19015,7 +19026,7 @@
         <v>624</v>
       </c>
       <c r="S210" s="62" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="211" spans="1:19" ht="63">
@@ -19032,7 +19043,7 @@
       </c>
       <c r="E211" s="124"/>
       <c r="F211" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G211" s="126"/>
       <c r="H211" s="127"/>
@@ -19085,7 +19096,7 @@
       </c>
       <c r="E212" s="124"/>
       <c r="F212" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G212" s="126"/>
       <c r="H212" s="127"/>
@@ -19138,7 +19149,7 @@
       </c>
       <c r="E213" s="124"/>
       <c r="F213" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G213" s="126"/>
       <c r="H213" s="127"/>
@@ -19156,7 +19167,7 @@
         <v>654</v>
       </c>
       <c r="N213" s="60" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O213" s="80" t="str">
         <f t="shared" si="23"/>
@@ -19174,7 +19185,7 @@
         <v>624</v>
       </c>
       <c r="S213" s="62" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="214" spans="1:19" ht="84">
@@ -19191,11 +19202,11 @@
       </c>
       <c r="E214" s="124"/>
       <c r="F214" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G214" s="126"/>
       <c r="H214" s="127" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I214" s="128"/>
       <c r="J214" s="129" t="s">
@@ -19244,11 +19255,11 @@
       </c>
       <c r="E215" s="124"/>
       <c r="F215" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G215" s="126"/>
       <c r="H215" s="127" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I215" s="128"/>
       <c r="J215" s="129" t="s">
@@ -19297,11 +19308,11 @@
       </c>
       <c r="E216" s="124"/>
       <c r="F216" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G216" s="126"/>
       <c r="H216" s="127" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I216" s="128"/>
       <c r="J216" s="129" t="s">
@@ -19350,11 +19361,11 @@
       </c>
       <c r="E217" s="124"/>
       <c r="F217" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G217" s="126"/>
       <c r="H217" s="127" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I217" s="128"/>
       <c r="J217" s="129" t="s">
@@ -19403,7 +19414,7 @@
       </c>
       <c r="E218" s="124"/>
       <c r="F218" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G218" s="126"/>
       <c r="H218" s="127"/>
@@ -19456,11 +19467,11 @@
       </c>
       <c r="E219" s="124"/>
       <c r="F219" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G219" s="126"/>
       <c r="H219" s="127" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I219" s="128"/>
       <c r="J219" s="129" t="s">
@@ -19509,11 +19520,11 @@
       </c>
       <c r="E220" s="124"/>
       <c r="F220" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G220" s="126"/>
       <c r="H220" s="127" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I220" s="128"/>
       <c r="J220" s="129" t="s">
@@ -19564,11 +19575,11 @@
       </c>
       <c r="E221" s="124"/>
       <c r="F221" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G221" s="126"/>
       <c r="H221" s="127" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I221" s="128"/>
       <c r="J221" s="129" t="s">
@@ -19617,11 +19628,11 @@
       </c>
       <c r="E222" s="124"/>
       <c r="F222" s="125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G222" s="126"/>
       <c r="H222" s="127" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I222" s="128"/>
       <c r="J222" s="129" t="s">
@@ -19637,7 +19648,7 @@
         <v>188</v>
       </c>
       <c r="N222" s="60" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O222" s="80" t="str">
         <f t="shared" si="23"/>
@@ -19655,7 +19666,7 @@
         <v>623</v>
       </c>
       <c r="S222" s="62" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="223" spans="1:19" ht="42">
@@ -19672,11 +19683,11 @@
       </c>
       <c r="E223" s="124"/>
       <c r="F223" s="125" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G223" s="126"/>
       <c r="H223" s="127" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I223" s="128"/>
       <c r="J223" s="129" t="s">
@@ -19725,11 +19736,11 @@
       </c>
       <c r="E224" s="124"/>
       <c r="F224" s="125" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G224" s="126"/>
       <c r="H224" s="127" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I224" s="128"/>
       <c r="J224" s="129" t="s">
@@ -19778,11 +19789,11 @@
       </c>
       <c r="E225" s="124"/>
       <c r="F225" s="125" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G225" s="126"/>
       <c r="H225" s="127" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I225" s="128"/>
       <c r="J225" s="129" t="s">
@@ -19831,11 +19842,11 @@
       </c>
       <c r="E226" s="124"/>
       <c r="F226" s="125" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G226" s="126"/>
       <c r="H226" s="127" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I226" s="128"/>
       <c r="J226" s="129" t="s">
@@ -19884,11 +19895,11 @@
       </c>
       <c r="E227" s="124"/>
       <c r="F227" s="125" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G227" s="126"/>
       <c r="H227" s="127" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I227" s="128"/>
       <c r="J227" s="129" t="s">
@@ -19904,7 +19915,7 @@
         <v>658</v>
       </c>
       <c r="N227" s="60" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O227" s="80" t="str">
         <f t="shared" si="23"/>
@@ -19919,7 +19930,7 @@
         <v>j</v>
       </c>
       <c r="R227" s="61" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="S227" s="62"/>
     </row>
@@ -19937,11 +19948,11 @@
       </c>
       <c r="E228" s="124"/>
       <c r="F228" s="125" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G228" s="126"/>
       <c r="H228" s="127" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I228" s="128"/>
       <c r="J228" s="129" t="s">
@@ -19957,7 +19968,7 @@
         <v>659</v>
       </c>
       <c r="N228" s="60" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O228" s="80" t="str">
         <f t="shared" si="23"/>
@@ -19972,7 +19983,7 @@
         <v>m</v>
       </c>
       <c r="R228" s="61" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S228" s="62"/>
     </row>
@@ -19990,11 +20001,11 @@
       </c>
       <c r="E229" s="124"/>
       <c r="F229" s="125" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G229" s="126"/>
       <c r="H229" s="127" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I229" s="128"/>
       <c r="J229" s="129" t="s">
@@ -20043,11 +20054,11 @@
       </c>
       <c r="E230" s="124"/>
       <c r="F230" s="125" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G230" s="126"/>
       <c r="H230" s="127" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I230" s="128"/>
       <c r="J230" s="129" t="s">
@@ -20063,7 +20074,7 @@
         <v>660</v>
       </c>
       <c r="N230" s="60" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O230" s="80" t="str">
         <f t="shared" si="23"/>
@@ -20078,7 +20089,7 @@
         <v>k</v>
       </c>
       <c r="R230" s="61" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S230" s="62"/>
     </row>
@@ -20096,11 +20107,11 @@
       </c>
       <c r="E231" s="124"/>
       <c r="F231" s="125" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G231" s="126"/>
       <c r="H231" s="127" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I231" s="128"/>
       <c r="J231" s="129" t="s">
@@ -20116,7 +20127,7 @@
         <v>661</v>
       </c>
       <c r="N231" s="60" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O231" s="80" t="str">
         <f t="shared" si="23"/>
@@ -20131,7 +20142,7 @@
         <v>comma</v>
       </c>
       <c r="R231" s="61" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="S231" s="62"/>
     </row>
@@ -20149,11 +20160,11 @@
       </c>
       <c r="E232" s="120"/>
       <c r="F232" s="95" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G232" s="121"/>
       <c r="H232" s="114" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I232" s="122"/>
       <c r="J232" s="116" t="s">
@@ -20169,7 +20180,7 @@
         <v>657</v>
       </c>
       <c r="N232" s="56" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O232" s="77" t="str">
         <f t="shared" si="23"/>
@@ -20184,7 +20195,7 @@
         <v>o</v>
       </c>
       <c r="R232" s="57" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S232" s="58"/>
     </row>
@@ -20202,11 +20213,11 @@
       </c>
       <c r="E233" s="132"/>
       <c r="F233" s="133" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G233" s="134"/>
       <c r="H233" s="107" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I233" s="135"/>
       <c r="J233" s="109" t="s">
@@ -20222,7 +20233,7 @@
         <v>662</v>
       </c>
       <c r="N233" s="52" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O233" s="83" t="str">
         <f t="shared" si="23"/>
@@ -20237,7 +20248,7 @@
         <v>l</v>
       </c>
       <c r="R233" s="64" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="S233" s="54"/>
     </row>
@@ -20255,11 +20266,11 @@
       </c>
       <c r="E234" s="120"/>
       <c r="F234" s="95" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G234" s="121"/>
       <c r="H234" s="114" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I234" s="122"/>
       <c r="J234" s="116" t="s">
@@ -20275,7 +20286,7 @@
         <v>663</v>
       </c>
       <c r="N234" s="56" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O234" s="77" t="str">
         <f t="shared" si="23"/>
@@ -20290,7 +20301,7 @@
         <v>period</v>
       </c>
       <c r="R234" s="57" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S234" s="58"/>
     </row>
@@ -20308,11 +20319,11 @@
       </c>
       <c r="E235" s="120"/>
       <c r="F235" s="95" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G235" s="121"/>
       <c r="H235" s="114" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I235" s="122"/>
       <c r="J235" s="116" t="s">
@@ -20328,7 +20339,7 @@
         <v>664</v>
       </c>
       <c r="N235" s="56" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O235" s="77" t="str">
         <f t="shared" si="23"/>
@@ -20343,7 +20354,7 @@
         <v>p</v>
       </c>
       <c r="R235" s="57" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="S235" s="58"/>
     </row>
@@ -20361,11 +20372,11 @@
       </c>
       <c r="E236" s="124"/>
       <c r="F236" s="125" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G236" s="126"/>
       <c r="H236" s="127" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I236" s="128"/>
       <c r="J236" s="129" t="s">
@@ -20381,7 +20392,7 @@
         <v>665</v>
       </c>
       <c r="N236" s="60" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="O236" s="80" t="str">
         <f t="shared" si="23"/>
@@ -20396,7 +20407,7 @@
         <v>semicolon</v>
       </c>
       <c r="R236" s="61" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="S236" s="62"/>
     </row>
@@ -20414,11 +20425,11 @@
       </c>
       <c r="E237" s="137"/>
       <c r="F237" s="138" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G237" s="139"/>
       <c r="H237" s="140" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I237" s="141"/>
       <c r="J237" s="142" t="s">
@@ -20434,7 +20445,7 @@
         <v>666</v>
       </c>
       <c r="N237" s="68" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O237" s="86" t="str">
         <f t="shared" si="23"/>
@@ -20449,7 +20460,7 @@
         <v>slash</v>
       </c>
       <c r="R237" s="69" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S237" s="70"/>
     </row>

--- a/docs/Naginata_v14_Table.xlsx
+++ b/docs/Naginata_v14_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a8d76f6674d90f9/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a8d76f6674d90f9/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2143" documentId="8_{86BAD8B4-4789-6D45-B836-11274EEA9691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF2F80F-04A5-104C-A466-5FC671FFC0D2}"/>
+  <xr:revisionPtr revIDLastSave="2147" documentId="8_{86BAD8B4-4789-6D45-B836-11274EEA9691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{786E4431-169F-48A6-ABA5-3C1677308D75}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="26580" activeTab="1" xr2:uid="{9939B06F-E4C1-7E40-9667-0FC991A5FA91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9939B06F-E4C1-7E40-9667-0FC991A5FA91}"/>
   </bookViews>
   <sheets>
     <sheet name="キー設定" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="752">
   <si>
     <t>↓ 同じ組み合わせがあると、色が変わる</t>
   </si>
@@ -2571,10 +2571,6 @@
     <t>shifted</t>
   </si>
   <si>
-    <t>shifted</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DR</t>
   </si>
   <si>
@@ -2693,6 +2689,16 @@
   </si>
   <si>
     <t>{"key_code":"left_arrow","modifiers":["command"]},{"key_code":"down_arrow","modifiers":["command"]},{"key_code":"lang1","modifiers":["shift"]},{"key_code":"lang1"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shifted
+&amp;DL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shifted
+&amp;DR</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4152,22 +4158,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4177,6 +4167,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4196,7 +4198,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4237,10 +4247,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4687,18 +4693,18 @@
       <selection activeCell="D5" sqref="D5:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="41" width="2" customWidth="1"/>
-    <col min="42" max="42" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="27">
+    <row r="1" spans="1:41" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>640</v>
       </c>
@@ -4709,731 +4715,731 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="13" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:41" ht="13" customHeight="1">
-      <c r="B3" s="149" t="s">
+    <row r="2" spans="1:41" ht="12.95" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:41" ht="12.95" customHeight="1">
+      <c r="B3" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="149" t="s">
+      <c r="E3" s="149"/>
+      <c r="F3" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="149" t="s">
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="149" t="s">
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="149" t="s">
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150" t="s">
+      <c r="S3" s="146"/>
+      <c r="T3" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="156"/>
-      <c r="V3" s="149" t="s">
+      <c r="U3" s="149"/>
+      <c r="V3" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150" t="s">
+      <c r="W3" s="146"/>
+      <c r="X3" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="149" t="s">
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="149" t="s">
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="149" t="s">
+      <c r="AE3" s="146"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="149" t="s">
+      <c r="AI3" s="146"/>
+      <c r="AJ3" s="146"/>
+      <c r="AK3" s="149"/>
+      <c r="AL3" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="AM3" s="150"/>
-      <c r="AN3" s="150"/>
-      <c r="AO3" s="156"/>
-    </row>
-    <row r="4" spans="1:41" ht="13" customHeight="1">
-      <c r="B4" s="151"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="146"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="145"/>
-      <c r="X4" s="145"/>
-      <c r="Y4" s="146"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="145"/>
-      <c r="AB4" s="145"/>
-      <c r="AC4" s="146"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
-      <c r="AG4" s="146"/>
-      <c r="AH4" s="151"/>
-      <c r="AI4" s="145"/>
-      <c r="AJ4" s="145"/>
-      <c r="AK4" s="146"/>
-      <c r="AL4" s="151"/>
-      <c r="AM4" s="145"/>
-      <c r="AN4" s="145"/>
-      <c r="AO4" s="146"/>
-    </row>
-    <row r="5" spans="1:41" ht="13" customHeight="1">
-      <c r="B5" s="167" t="s">
+      <c r="AM3" s="146"/>
+      <c r="AN3" s="146"/>
+      <c r="AO3" s="149"/>
+    </row>
+    <row r="4" spans="1:41" ht="12.95" customHeight="1">
+      <c r="B4" s="147"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="147"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="147"/>
+      <c r="AA4" s="148"/>
+      <c r="AB4" s="148"/>
+      <c r="AC4" s="150"/>
+      <c r="AD4" s="147"/>
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="148"/>
+      <c r="AG4" s="150"/>
+      <c r="AH4" s="147"/>
+      <c r="AI4" s="148"/>
+      <c r="AJ4" s="148"/>
+      <c r="AK4" s="150"/>
+      <c r="AL4" s="147"/>
+      <c r="AM4" s="148"/>
+      <c r="AN4" s="148"/>
+      <c r="AO4" s="150"/>
+    </row>
+    <row r="5" spans="1:41" ht="12.95" customHeight="1">
+      <c r="B5" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="152" t="s">
+      <c r="C5" s="152"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="153"/>
-      <c r="H5" s="145" t="s">
+      <c r="G5" s="152"/>
+      <c r="H5" s="148" t="s">
         <v>314</v>
       </c>
-      <c r="I5" s="146"/>
-      <c r="J5" s="152" t="s">
+      <c r="I5" s="150"/>
+      <c r="J5" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="153"/>
-      <c r="L5" s="145" t="s">
+      <c r="K5" s="152"/>
+      <c r="L5" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="146"/>
-      <c r="N5" s="152" t="s">
+      <c r="M5" s="150"/>
+      <c r="N5" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="153"/>
-      <c r="P5" s="145" t="s">
+      <c r="O5" s="152"/>
+      <c r="P5" s="148" t="s">
         <v>299</v>
       </c>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="152" t="s">
+      <c r="Q5" s="150"/>
+      <c r="R5" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="153"/>
-      <c r="T5" s="145"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="152" t="s">
+      <c r="S5" s="152"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="153"/>
-      <c r="X5" s="145"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="152" t="s">
+      <c r="W5" s="152"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="145" t="s">
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="152" t="s">
+      <c r="AC5" s="150"/>
+      <c r="AD5" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="145" t="s">
+      <c r="AE5" s="152"/>
+      <c r="AF5" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="152" t="s">
+      <c r="AG5" s="150"/>
+      <c r="AH5" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="AI5" s="153"/>
-      <c r="AJ5" s="145" t="s">
+      <c r="AI5" s="152"/>
+      <c r="AJ5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AK5" s="146"/>
-      <c r="AL5" s="152" t="s">
+      <c r="AK5" s="150"/>
+      <c r="AL5" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="AM5" s="153"/>
-      <c r="AN5" s="145" t="s">
+      <c r="AM5" s="152"/>
+      <c r="AN5" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="AO5" s="146"/>
-    </row>
-    <row r="6" spans="1:41" ht="13" customHeight="1" thickBot="1">
-      <c r="B6" s="154"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="152"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="148"/>
-      <c r="V6" s="154"/>
-      <c r="W6" s="155"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="148"/>
-      <c r="Z6" s="154"/>
-      <c r="AA6" s="153"/>
-      <c r="AB6" s="145"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="152"/>
-      <c r="AE6" s="155"/>
-      <c r="AF6" s="147"/>
-      <c r="AG6" s="148"/>
-      <c r="AH6" s="154"/>
-      <c r="AI6" s="155"/>
-      <c r="AJ6" s="147"/>
-      <c r="AK6" s="148"/>
-      <c r="AL6" s="154"/>
-      <c r="AM6" s="153"/>
-      <c r="AN6" s="145"/>
-      <c r="AO6" s="146"/>
-    </row>
-    <row r="7" spans="1:41" ht="13" customHeight="1" thickTop="1">
-      <c r="B7" s="149" t="s">
+      <c r="AO5" s="150"/>
+    </row>
+    <row r="6" spans="1:41" ht="12.95" customHeight="1" thickBot="1">
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="153"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="148"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="154"/>
+      <c r="T6" s="155"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="153"/>
+      <c r="W6" s="154"/>
+      <c r="X6" s="155"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="153"/>
+      <c r="AA6" s="152"/>
+      <c r="AB6" s="148"/>
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="151"/>
+      <c r="AE6" s="154"/>
+      <c r="AF6" s="155"/>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="153"/>
+      <c r="AI6" s="154"/>
+      <c r="AJ6" s="155"/>
+      <c r="AK6" s="156"/>
+      <c r="AL6" s="153"/>
+      <c r="AM6" s="152"/>
+      <c r="AN6" s="148"/>
+      <c r="AO6" s="150"/>
+    </row>
+    <row r="7" spans="1:41" ht="12.95" customHeight="1" thickTop="1">
+      <c r="B7" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="149" t="s">
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="149" t="s">
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="157" t="s">
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158" t="s">
+      <c r="O7" s="159"/>
+      <c r="P7" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="150" t="s">
+      <c r="Q7" s="161"/>
+      <c r="R7" s="146" t="s">
         <v>339</v>
       </c>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="149" t="s">
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="145" t="s">
         <v>326</v>
       </c>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="157" t="s">
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="158" t="s">
         <v>310</v>
       </c>
-      <c r="AA7" s="158"/>
-      <c r="AB7" s="158" t="s">
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="150" t="s">
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="146" t="s">
         <v>328</v>
       </c>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="150"/>
-      <c r="AG7" s="156"/>
-      <c r="AH7" s="149" t="s">
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="145" t="s">
         <v>329</v>
       </c>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="150"/>
-      <c r="AK7" s="156"/>
-      <c r="AL7" s="149" t="s">
+      <c r="AI7" s="146"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="149"/>
+      <c r="AL7" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="AM7" s="150"/>
-      <c r="AN7" s="150"/>
-      <c r="AO7" s="156"/>
-    </row>
-    <row r="8" spans="1:41" ht="13" customHeight="1">
-      <c r="B8" s="151"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="146"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="145"/>
-      <c r="Z8" s="159"/>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="145"/>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="151"/>
-      <c r="AI8" s="145"/>
-      <c r="AJ8" s="145"/>
-      <c r="AK8" s="146"/>
-      <c r="AL8" s="151"/>
-      <c r="AM8" s="145"/>
-      <c r="AN8" s="145"/>
-      <c r="AO8" s="146"/>
-    </row>
-    <row r="9" spans="1:41" ht="13" customHeight="1">
-      <c r="B9" s="152" t="s">
+      <c r="AM7" s="146"/>
+      <c r="AN7" s="146"/>
+      <c r="AO7" s="149"/>
+    </row>
+    <row r="8" spans="1:41" ht="12.95" customHeight="1">
+      <c r="B8" s="147"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="147"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="160"/>
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="162"/>
+      <c r="AD8" s="148"/>
+      <c r="AE8" s="148"/>
+      <c r="AF8" s="148"/>
+      <c r="AG8" s="150"/>
+      <c r="AH8" s="147"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="148"/>
+      <c r="AK8" s="150"/>
+      <c r="AL8" s="147"/>
+      <c r="AM8" s="148"/>
+      <c r="AN8" s="148"/>
+      <c r="AO8" s="150"/>
+    </row>
+    <row r="9" spans="1:41" ht="12.95" customHeight="1">
+      <c r="B9" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="145" t="s">
+      <c r="C9" s="152"/>
+      <c r="D9" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="152" t="s">
+      <c r="E9" s="150"/>
+      <c r="F9" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="145" t="s">
+      <c r="G9" s="152"/>
+      <c r="H9" s="148" t="s">
         <v>300</v>
       </c>
-      <c r="I9" s="146"/>
-      <c r="J9" s="152" t="s">
+      <c r="I9" s="150"/>
+      <c r="J9" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="153"/>
-      <c r="L9" s="145" t="s">
+      <c r="K9" s="152"/>
+      <c r="L9" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="145"/>
-      <c r="N9" s="162" t="s">
+      <c r="M9" s="148"/>
+      <c r="N9" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="153"/>
-      <c r="P9" s="145" t="s">
+      <c r="O9" s="152"/>
+      <c r="P9" s="148" t="s">
         <v>324</v>
       </c>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="153" t="s">
+      <c r="Q9" s="162"/>
+      <c r="R9" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="S9" s="153"/>
-      <c r="T9" s="145" t="s">
+      <c r="S9" s="152"/>
+      <c r="T9" s="148" t="s">
         <v>325</v>
       </c>
-      <c r="U9" s="146"/>
-      <c r="V9" s="152" t="s">
+      <c r="U9" s="150"/>
+      <c r="V9" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="153"/>
-      <c r="X9" s="145" t="s">
+      <c r="W9" s="152"/>
+      <c r="X9" s="148" t="s">
         <v>327</v>
       </c>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="162" t="s">
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="AA9" s="153"/>
-      <c r="AB9" s="145" t="s">
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="148" t="s">
         <v>315</v>
       </c>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="153" t="s">
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="AE9" s="153"/>
-      <c r="AF9" s="145" t="s">
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="148" t="s">
         <v>313</v>
       </c>
-      <c r="AG9" s="146"/>
-      <c r="AH9" s="152" t="s">
+      <c r="AG9" s="150"/>
+      <c r="AH9" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="AI9" s="153"/>
-      <c r="AJ9" s="145" t="s">
+      <c r="AI9" s="152"/>
+      <c r="AJ9" s="148" t="s">
         <v>330</v>
       </c>
-      <c r="AK9" s="146"/>
-      <c r="AL9" s="152" t="s">
+      <c r="AK9" s="150"/>
+      <c r="AL9" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="AM9" s="153"/>
-      <c r="AN9" s="145" t="s">
+      <c r="AM9" s="152"/>
+      <c r="AN9" s="148" t="s">
         <v>301</v>
       </c>
-      <c r="AO9" s="146"/>
-    </row>
-    <row r="10" spans="1:41" ht="13" customHeight="1" thickBot="1">
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="163"/>
-      <c r="AA10" s="164"/>
-      <c r="AB10" s="165"/>
-      <c r="AC10" s="166"/>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="155"/>
-      <c r="AF10" s="147"/>
-      <c r="AG10" s="148"/>
-      <c r="AH10" s="154"/>
-      <c r="AI10" s="155"/>
-      <c r="AJ10" s="147"/>
-      <c r="AK10" s="148"/>
-      <c r="AL10" s="154"/>
-      <c r="AM10" s="155"/>
-      <c r="AN10" s="147"/>
-      <c r="AO10" s="148"/>
-    </row>
-    <row r="11" spans="1:41" ht="13" customHeight="1">
-      <c r="B11" s="149" t="s">
+      <c r="AO9" s="150"/>
+    </row>
+    <row r="10" spans="1:41" ht="12.95" customHeight="1" thickBot="1">
+      <c r="B10" s="153"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="164"/>
+      <c r="AA10" s="165"/>
+      <c r="AB10" s="166"/>
+      <c r="AC10" s="167"/>
+      <c r="AD10" s="154"/>
+      <c r="AE10" s="154"/>
+      <c r="AF10" s="155"/>
+      <c r="AG10" s="156"/>
+      <c r="AH10" s="153"/>
+      <c r="AI10" s="154"/>
+      <c r="AJ10" s="155"/>
+      <c r="AK10" s="156"/>
+      <c r="AL10" s="153"/>
+      <c r="AM10" s="154"/>
+      <c r="AN10" s="155"/>
+      <c r="AO10" s="156"/>
+    </row>
+    <row r="11" spans="1:41" ht="12.95" customHeight="1">
+      <c r="B11" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150" t="s">
+      <c r="C11" s="146"/>
+      <c r="D11" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="156"/>
-      <c r="F11" s="149" t="s">
+      <c r="E11" s="149"/>
+      <c r="F11" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150" t="s">
+      <c r="G11" s="146"/>
+      <c r="H11" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="156"/>
-      <c r="J11" s="149" t="s">
+      <c r="I11" s="149"/>
+      <c r="J11" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="K11" s="150"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="151" t="s">
+      <c r="K11" s="146"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="O11" s="145"/>
-      <c r="P11" s="150" t="s">
+      <c r="O11" s="148"/>
+      <c r="P11" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="149" t="s">
+      <c r="Q11" s="149"/>
+      <c r="R11" s="145" t="s">
         <v>331</v>
       </c>
-      <c r="S11" s="150"/>
-      <c r="T11" s="150"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="149" t="s">
+      <c r="S11" s="146"/>
+      <c r="T11" s="146"/>
+      <c r="U11" s="149"/>
+      <c r="V11" s="145" t="s">
         <v>332</v>
       </c>
-      <c r="W11" s="150"/>
-      <c r="X11" s="145"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="151" t="s">
+      <c r="W11" s="146"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="150"/>
+      <c r="Z11" s="147" t="s">
         <v>334</v>
       </c>
-      <c r="AA11" s="145"/>
-      <c r="AB11" s="150" t="s">
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="149" t="s">
+      <c r="AC11" s="149"/>
+      <c r="AD11" s="145" t="s">
         <v>335</v>
       </c>
-      <c r="AE11" s="150"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="156"/>
-      <c r="AH11" s="149" t="s">
+      <c r="AE11" s="146"/>
+      <c r="AF11" s="146"/>
+      <c r="AG11" s="149"/>
+      <c r="AH11" s="145" t="s">
         <v>336</v>
       </c>
-      <c r="AI11" s="150"/>
-      <c r="AJ11" s="150"/>
-      <c r="AK11" s="156"/>
-      <c r="AL11" s="149" t="s">
+      <c r="AI11" s="146"/>
+      <c r="AJ11" s="146"/>
+      <c r="AK11" s="149"/>
+      <c r="AL11" s="145" t="s">
         <v>316</v>
       </c>
-      <c r="AM11" s="150"/>
-      <c r="AN11" s="150" t="s">
+      <c r="AM11" s="146"/>
+      <c r="AN11" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="AO11" s="156"/>
-    </row>
-    <row r="12" spans="1:41" ht="13" customHeight="1">
-      <c r="B12" s="151"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="145"/>
-      <c r="T12" s="145"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="151"/>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="145"/>
-      <c r="AB12" s="145"/>
-      <c r="AC12" s="146"/>
-      <c r="AD12" s="151"/>
-      <c r="AE12" s="145"/>
-      <c r="AF12" s="145"/>
-      <c r="AG12" s="146"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="145"/>
-      <c r="AJ12" s="145"/>
-      <c r="AK12" s="146"/>
-      <c r="AL12" s="151"/>
-      <c r="AM12" s="145"/>
-      <c r="AN12" s="145"/>
-      <c r="AO12" s="146"/>
-    </row>
-    <row r="13" spans="1:41" ht="13" customHeight="1">
-      <c r="B13" s="152" t="s">
+      <c r="AO11" s="149"/>
+    </row>
+    <row r="12" spans="1:41" ht="12.95" customHeight="1">
+      <c r="B12" s="147"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="148"/>
+      <c r="AB12" s="148"/>
+      <c r="AC12" s="150"/>
+      <c r="AD12" s="147"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="148"/>
+      <c r="AG12" s="150"/>
+      <c r="AH12" s="147"/>
+      <c r="AI12" s="148"/>
+      <c r="AJ12" s="148"/>
+      <c r="AK12" s="150"/>
+      <c r="AL12" s="147"/>
+      <c r="AM12" s="148"/>
+      <c r="AN12" s="148"/>
+      <c r="AO12" s="150"/>
+    </row>
+    <row r="13" spans="1:41" ht="12.95" customHeight="1">
+      <c r="B13" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="153"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="152" t="s">
+      <c r="C13" s="152"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="153"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="152" t="s">
+      <c r="G13" s="152"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="153"/>
-      <c r="L13" s="145" t="s">
+      <c r="K13" s="152"/>
+      <c r="L13" s="148" t="s">
         <v>318</v>
       </c>
-      <c r="M13" s="146"/>
-      <c r="N13" s="152" t="s">
+      <c r="M13" s="150"/>
+      <c r="N13" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="153"/>
-      <c r="P13" s="145" t="s">
+      <c r="O13" s="152"/>
+      <c r="P13" s="148" t="s">
         <v>302</v>
       </c>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="152" t="s">
+      <c r="Q13" s="150"/>
+      <c r="R13" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="S13" s="153"/>
-      <c r="T13" s="145" t="s">
+      <c r="S13" s="152"/>
+      <c r="T13" s="148" t="s">
         <v>312</v>
       </c>
-      <c r="U13" s="146"/>
-      <c r="V13" s="152" t="s">
+      <c r="U13" s="150"/>
+      <c r="V13" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="W13" s="153"/>
-      <c r="X13" s="145" t="s">
+      <c r="W13" s="152"/>
+      <c r="X13" s="148" t="s">
         <v>333</v>
       </c>
-      <c r="Y13" s="146"/>
-      <c r="Z13" s="152" t="s">
+      <c r="Y13" s="150"/>
+      <c r="Z13" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="AA13" s="153"/>
-      <c r="AB13" s="145" t="s">
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="148" t="s">
         <v>303</v>
       </c>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="152" t="s">
+      <c r="AC13" s="150"/>
+      <c r="AD13" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="AE13" s="153"/>
-      <c r="AF13" s="145" t="s">
+      <c r="AE13" s="152"/>
+      <c r="AF13" s="148" t="s">
         <v>376</v>
       </c>
-      <c r="AG13" s="146"/>
-      <c r="AH13" s="152" t="s">
+      <c r="AG13" s="150"/>
+      <c r="AH13" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="AI13" s="153"/>
-      <c r="AJ13" s="145" t="s">
+      <c r="AI13" s="152"/>
+      <c r="AJ13" s="148" t="s">
         <v>311</v>
       </c>
-      <c r="AK13" s="146"/>
-      <c r="AL13" s="152" t="s">
+      <c r="AK13" s="150"/>
+      <c r="AL13" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="AM13" s="153"/>
-      <c r="AN13" s="145"/>
-      <c r="AO13" s="146"/>
-    </row>
-    <row r="14" spans="1:41" ht="13" customHeight="1" thickBot="1">
-      <c r="B14" s="154"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="147"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="154"/>
-      <c r="AE14" s="155"/>
-      <c r="AF14" s="147"/>
-      <c r="AG14" s="148"/>
-      <c r="AH14" s="154"/>
-      <c r="AI14" s="155"/>
-      <c r="AJ14" s="147"/>
-      <c r="AK14" s="148"/>
-      <c r="AL14" s="154"/>
-      <c r="AM14" s="155"/>
-      <c r="AN14" s="147"/>
-      <c r="AO14" s="148"/>
-    </row>
-    <row r="15" spans="1:41" ht="13" customHeight="1">
-      <c r="T15" s="149"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="156"/>
-    </row>
-    <row r="16" spans="1:41" ht="13" customHeight="1">
-      <c r="T16" s="151"/>
-      <c r="U16" s="145"/>
-      <c r="V16" s="145"/>
-      <c r="W16" s="146"/>
-    </row>
-    <row r="17" spans="20:47" ht="13" customHeight="1">
-      <c r="T17" s="152" t="s">
+      <c r="AM13" s="152"/>
+      <c r="AN13" s="148"/>
+      <c r="AO13" s="150"/>
+    </row>
+    <row r="14" spans="1:41" ht="12.95" customHeight="1" thickBot="1">
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="154"/>
+      <c r="T14" s="155"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="153"/>
+      <c r="AA14" s="154"/>
+      <c r="AB14" s="155"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="153"/>
+      <c r="AE14" s="154"/>
+      <c r="AF14" s="155"/>
+      <c r="AG14" s="156"/>
+      <c r="AH14" s="153"/>
+      <c r="AI14" s="154"/>
+      <c r="AJ14" s="155"/>
+      <c r="AK14" s="156"/>
+      <c r="AL14" s="153"/>
+      <c r="AM14" s="154"/>
+      <c r="AN14" s="155"/>
+      <c r="AO14" s="156"/>
+    </row>
+    <row r="15" spans="1:41" ht="12.95" customHeight="1">
+      <c r="T15" s="145"/>
+      <c r="U15" s="146"/>
+      <c r="V15" s="146"/>
+      <c r="W15" s="149"/>
+    </row>
+    <row r="16" spans="1:41" ht="12.95" customHeight="1">
+      <c r="T16" s="147"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="150"/>
+    </row>
+    <row r="17" spans="20:47" ht="12.95" customHeight="1">
+      <c r="T17" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="U17" s="153"/>
-      <c r="V17" s="145"/>
-      <c r="W17" s="146"/>
-    </row>
-    <row r="18" spans="20:47" ht="13" customHeight="1" thickBot="1">
-      <c r="T18" s="154"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="147"/>
-      <c r="W18" s="148"/>
-    </row>
-    <row r="19" spans="20:47" ht="27">
+      <c r="U17" s="152"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="150"/>
+    </row>
+    <row r="18" spans="20:47" ht="12.95" customHeight="1" thickBot="1">
+      <c r="T18" s="153"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="155"/>
+      <c r="W18" s="156"/>
+    </row>
+    <row r="19" spans="20:47" ht="25.5">
       <c r="AP19" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="20:47" ht="42">
+    <row r="21" spans="20:47" ht="39">
       <c r="AP21" s="28" t="s">
         <v>87</v>
       </c>
@@ -8566,6 +8572,106 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="124">
+    <mergeCell ref="AF13:AG14"/>
+    <mergeCell ref="V11:W12"/>
+    <mergeCell ref="X11:Y12"/>
+    <mergeCell ref="V13:W14"/>
+    <mergeCell ref="X13:Y14"/>
+    <mergeCell ref="Z11:AA12"/>
+    <mergeCell ref="AB11:AC12"/>
+    <mergeCell ref="AN3:AO4"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AL13:AM14"/>
+    <mergeCell ref="AL9:AM10"/>
+    <mergeCell ref="AH5:AI6"/>
+    <mergeCell ref="AJ5:AK6"/>
+    <mergeCell ref="AL3:AM4"/>
+    <mergeCell ref="AL5:AM6"/>
+    <mergeCell ref="AN13:AO14"/>
+    <mergeCell ref="AH11:AI12"/>
+    <mergeCell ref="AJ11:AK12"/>
+    <mergeCell ref="AH13:AI14"/>
+    <mergeCell ref="AJ13:AK14"/>
+    <mergeCell ref="AL11:AM12"/>
+    <mergeCell ref="AN11:AO12"/>
+    <mergeCell ref="AN5:AO6"/>
+    <mergeCell ref="AD13:AE14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="AN9:AO10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="AD9:AE10"/>
+    <mergeCell ref="AF9:AG10"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="P13:Q14"/>
+    <mergeCell ref="R11:S12"/>
+    <mergeCell ref="T11:U12"/>
+    <mergeCell ref="R13:S14"/>
+    <mergeCell ref="T13:U14"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="J13:K14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="N11:O12"/>
+    <mergeCell ref="P11:Q12"/>
+    <mergeCell ref="Z13:AA14"/>
+    <mergeCell ref="AB13:AC14"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AH9:AI10"/>
+    <mergeCell ref="AJ9:AK10"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="Z9:AA10"/>
+    <mergeCell ref="AB9:AC10"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AD11:AE12"/>
+    <mergeCell ref="AF11:AG12"/>
+    <mergeCell ref="R9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="V9:W10"/>
+    <mergeCell ref="X9:Y10"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="N9:O10"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="AD5:AE6"/>
+    <mergeCell ref="AF5:AG6"/>
+    <mergeCell ref="AH3:AI4"/>
+    <mergeCell ref="AJ3:AK4"/>
+    <mergeCell ref="V5:W6"/>
+    <mergeCell ref="X5:Y6"/>
+    <mergeCell ref="Z3:AA4"/>
+    <mergeCell ref="AB3:AC4"/>
+    <mergeCell ref="Z5:AA6"/>
+    <mergeCell ref="AB5:AC6"/>
+    <mergeCell ref="V3:W4"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="T5:U6"/>
     <mergeCell ref="T15:U16"/>
     <mergeCell ref="V15:W16"/>
     <mergeCell ref="T17:U18"/>
@@ -8590,106 +8696,6 @@
     <mergeCell ref="T7:U8"/>
     <mergeCell ref="F3:G4"/>
     <mergeCell ref="H3:I4"/>
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="AD5:AE6"/>
-    <mergeCell ref="AF5:AG6"/>
-    <mergeCell ref="AH3:AI4"/>
-    <mergeCell ref="AJ3:AK4"/>
-    <mergeCell ref="V5:W6"/>
-    <mergeCell ref="X5:Y6"/>
-    <mergeCell ref="Z3:AA4"/>
-    <mergeCell ref="AB3:AC4"/>
-    <mergeCell ref="Z5:AA6"/>
-    <mergeCell ref="AB5:AC6"/>
-    <mergeCell ref="V3:W4"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="T5:U6"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="AB13:AC14"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AH9:AI10"/>
-    <mergeCell ref="AJ9:AK10"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="Z9:AA10"/>
-    <mergeCell ref="AB9:AC10"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AD11:AE12"/>
-    <mergeCell ref="AF11:AG12"/>
-    <mergeCell ref="R9:S10"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="V9:W10"/>
-    <mergeCell ref="X9:Y10"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="N9:O10"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="AD13:AE14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="AN9:AO10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="AD9:AE10"/>
-    <mergeCell ref="AF9:AG10"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="R11:S12"/>
-    <mergeCell ref="T11:U12"/>
-    <mergeCell ref="R13:S14"/>
-    <mergeCell ref="T13:U14"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="J13:K14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="N11:O12"/>
-    <mergeCell ref="P11:Q12"/>
-    <mergeCell ref="Z13:AA14"/>
-    <mergeCell ref="AF13:AG14"/>
-    <mergeCell ref="V11:W12"/>
-    <mergeCell ref="X11:Y12"/>
-    <mergeCell ref="V13:W14"/>
-    <mergeCell ref="X13:Y14"/>
-    <mergeCell ref="Z11:AA12"/>
-    <mergeCell ref="AB11:AC12"/>
-    <mergeCell ref="AN3:AO4"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AL13:AM14"/>
-    <mergeCell ref="AL9:AM10"/>
-    <mergeCell ref="AH5:AI6"/>
-    <mergeCell ref="AJ5:AK6"/>
-    <mergeCell ref="AL3:AM4"/>
-    <mergeCell ref="AL5:AM6"/>
-    <mergeCell ref="AN13:AO14"/>
-    <mergeCell ref="AH11:AI12"/>
-    <mergeCell ref="AJ11:AK12"/>
-    <mergeCell ref="AH13:AI14"/>
-    <mergeCell ref="AJ13:AK14"/>
-    <mergeCell ref="AL11:AM12"/>
-    <mergeCell ref="AN11:AO12"/>
-    <mergeCell ref="AN5:AO6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A15:D18 A3:AO14">
@@ -8746,25 +8752,25 @@
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="17" width="6.42578125" customWidth="1"/>
-    <col min="18" max="18" width="41.28515625" customWidth="1"/>
-    <col min="19" max="19" width="82.85546875" customWidth="1"/>
+    <col min="4" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="17" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="41.33203125" customWidth="1"/>
+    <col min="19" max="19" width="82.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" ht="27">
+    <row r="1" spans="1:97" ht="25.5">
       <c r="B1" s="3"/>
       <c r="C1" s="1" t="s">
         <v>157</v>
@@ -8857,7 +8863,7 @@
       <c r="CR2" ph="1"/>
       <c r="CS2" ph="1"/>
     </row>
-    <row r="3" spans="1:97" ht="63">
+    <row r="3" spans="1:97" ht="58.5">
       <c r="A3" s="38" t="s">
         <v>160</v>
       </c>
@@ -8906,7 +8912,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:97" ht="21">
+    <row r="4" spans="1:97">
       <c r="A4" s="92">
         <f t="shared" ref="A4" si="0">_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(J4,仮想キートップ,ビット)),_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(K4,仮想キートップ,ビット))),_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(L4,仮想キートップ,ビット)))</f>
         <v>1073741824</v>
@@ -8947,7 +8953,7 @@
       <c r="R4" s="48"/>
       <c r="S4" s="49"/>
     </row>
-    <row r="5" spans="1:97" ht="21">
+    <row r="5" spans="1:97">
       <c r="A5" s="93">
         <f t="shared" ref="A5:A68" si="4">_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(J5,仮想キートップ,ビット)),_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(K5,仮想キートップ,ビット))),_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(L5,仮想キートップ,ビット)))</f>
         <v>1</v>
@@ -8967,7 +8973,7 @@
       <c r="J5" s="109"/>
       <c r="K5" s="110"/>
       <c r="L5" s="111" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M5" s="51"/>
       <c r="N5" s="52"/>
@@ -8988,7 +8994,7 @@
       </c>
       <c r="S5" s="54"/>
     </row>
-    <row r="6" spans="1:97" ht="21">
+    <row r="6" spans="1:97">
       <c r="A6" s="93">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -9031,7 +9037,7 @@
       </c>
       <c r="S6" s="58"/>
     </row>
-    <row r="7" spans="1:97" ht="21">
+    <row r="7" spans="1:97">
       <c r="A7" s="93">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -9074,7 +9080,7 @@
       </c>
       <c r="S7" s="58"/>
     </row>
-    <row r="8" spans="1:97" ht="21">
+    <row r="8" spans="1:97">
       <c r="A8" s="93">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9117,7 +9123,7 @@
       </c>
       <c r="S8" s="58"/>
     </row>
-    <row r="9" spans="1:97" ht="21">
+    <row r="9" spans="1:97">
       <c r="A9" s="93">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -9162,7 +9168,7 @@
       </c>
       <c r="S9" s="58"/>
     </row>
-    <row r="10" spans="1:97" ht="21">
+    <row r="10" spans="1:97">
       <c r="A10" s="93">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -9207,7 +9213,7 @@
       </c>
       <c r="S10" s="58"/>
     </row>
-    <row r="11" spans="1:97" ht="21">
+    <row r="11" spans="1:97">
       <c r="A11" s="93">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -9252,7 +9258,7 @@
       </c>
       <c r="S11" s="58"/>
     </row>
-    <row r="12" spans="1:97" ht="21">
+    <row r="12" spans="1:97">
       <c r="A12" s="93">
         <f t="shared" si="4"/>
         <v>128</v>
@@ -9295,7 +9301,7 @@
       </c>
       <c r="S12" s="58"/>
     </row>
-    <row r="13" spans="1:97" ht="21">
+    <row r="13" spans="1:97">
       <c r="A13" s="93">
         <f t="shared" si="4"/>
         <v>256</v>
@@ -9338,7 +9344,7 @@
       </c>
       <c r="S13" s="58"/>
     </row>
-    <row r="14" spans="1:97" ht="21">
+    <row r="14" spans="1:97">
       <c r="A14" s="93">
         <f t="shared" si="4"/>
         <v>512</v>
@@ -9381,7 +9387,7 @@
       </c>
       <c r="S14" s="58"/>
     </row>
-    <row r="15" spans="1:97" ht="21">
+    <row r="15" spans="1:97">
       <c r="A15" s="93">
         <f t="shared" si="4"/>
         <v>1024</v>
@@ -9424,7 +9430,7 @@
       </c>
       <c r="S15" s="58"/>
     </row>
-    <row r="16" spans="1:97" ht="21">
+    <row r="16" spans="1:97">
       <c r="A16" s="93">
         <f t="shared" si="4"/>
         <v>2048</v>
@@ -9467,7 +9473,7 @@
       </c>
       <c r="S16" s="58"/>
     </row>
-    <row r="17" spans="1:19" ht="21">
+    <row r="17" spans="1:19">
       <c r="A17" s="93">
         <f t="shared" si="4"/>
         <v>4096</v>
@@ -9510,7 +9516,7 @@
       </c>
       <c r="S17" s="58"/>
     </row>
-    <row r="18" spans="1:19" ht="21">
+    <row r="18" spans="1:19">
       <c r="A18" s="93">
         <f t="shared" si="4"/>
         <v>8192</v>
@@ -9553,7 +9559,7 @@
       </c>
       <c r="S18" s="58"/>
     </row>
-    <row r="19" spans="1:19" ht="42">
+    <row r="19" spans="1:19" ht="39">
       <c r="A19" s="93">
         <f t="shared" si="4"/>
         <v>16384</v>
@@ -9596,7 +9602,7 @@
       </c>
       <c r="S19" s="58"/>
     </row>
-    <row r="20" spans="1:19" ht="21">
+    <row r="20" spans="1:19">
       <c r="A20" s="93">
         <f t="shared" si="4"/>
         <v>32768</v>
@@ -9639,7 +9645,7 @@
       </c>
       <c r="S20" s="58"/>
     </row>
-    <row r="21" spans="1:19" ht="21">
+    <row r="21" spans="1:19">
       <c r="A21" s="93">
         <f t="shared" si="4"/>
         <v>65536</v>
@@ -9682,7 +9688,7 @@
       </c>
       <c r="S21" s="58"/>
     </row>
-    <row r="22" spans="1:19" ht="21">
+    <row r="22" spans="1:19">
       <c r="A22" s="93">
         <f t="shared" si="4"/>
         <v>131072</v>
@@ -9725,7 +9731,7 @@
       </c>
       <c r="S22" s="58"/>
     </row>
-    <row r="23" spans="1:19" ht="21">
+    <row r="23" spans="1:19">
       <c r="A23" s="93">
         <f t="shared" si="4"/>
         <v>262144</v>
@@ -9768,7 +9774,7 @@
       </c>
       <c r="S23" s="58"/>
     </row>
-    <row r="24" spans="1:19" ht="21">
+    <row r="24" spans="1:19">
       <c r="A24" s="93">
         <f t="shared" si="4"/>
         <v>524288</v>
@@ -9811,7 +9817,7 @@
       </c>
       <c r="S24" s="58"/>
     </row>
-    <row r="25" spans="1:19" ht="21">
+    <row r="25" spans="1:19">
       <c r="A25" s="93">
         <f t="shared" si="4"/>
         <v>1048576</v>
@@ -9854,7 +9860,7 @@
       </c>
       <c r="S25" s="58"/>
     </row>
-    <row r="26" spans="1:19" ht="21">
+    <row r="26" spans="1:19">
       <c r="A26" s="93">
         <f t="shared" si="4"/>
         <v>2097152</v>
@@ -9897,7 +9903,7 @@
       </c>
       <c r="S26" s="58"/>
     </row>
-    <row r="27" spans="1:19" ht="21">
+    <row r="27" spans="1:19">
       <c r="A27" s="93">
         <f t="shared" si="4"/>
         <v>4194304</v>
@@ -9940,7 +9946,7 @@
       </c>
       <c r="S27" s="58"/>
     </row>
-    <row r="28" spans="1:19" ht="21">
+    <row r="28" spans="1:19">
       <c r="A28" s="93">
         <f t="shared" si="4"/>
         <v>8388608</v>
@@ -9983,7 +9989,7 @@
       </c>
       <c r="S28" s="58"/>
     </row>
-    <row r="29" spans="1:19" ht="21">
+    <row r="29" spans="1:19">
       <c r="A29" s="93">
         <f t="shared" si="4"/>
         <v>16777216</v>
@@ -10026,7 +10032,7 @@
       </c>
       <c r="S29" s="58"/>
     </row>
-    <row r="30" spans="1:19" ht="21">
+    <row r="30" spans="1:19">
       <c r="A30" s="93">
         <f t="shared" si="4"/>
         <v>33554432</v>
@@ -10069,7 +10075,7 @@
       </c>
       <c r="S30" s="58"/>
     </row>
-    <row r="31" spans="1:19" ht="21">
+    <row r="31" spans="1:19">
       <c r="A31" s="93">
         <f t="shared" si="4"/>
         <v>67108864</v>
@@ -10112,7 +10118,7 @@
       </c>
       <c r="S31" s="58"/>
     </row>
-    <row r="32" spans="1:19" ht="21">
+    <row r="32" spans="1:19">
       <c r="A32" s="93">
         <f t="shared" si="4"/>
         <v>134217728</v>
@@ -10155,7 +10161,7 @@
       </c>
       <c r="S32" s="58"/>
     </row>
-    <row r="33" spans="1:19" ht="21">
+    <row r="33" spans="1:19">
       <c r="A33" s="93">
         <f t="shared" si="4"/>
         <v>268435456</v>
@@ -10198,7 +10204,7 @@
       </c>
       <c r="S33" s="58"/>
     </row>
-    <row r="34" spans="1:19" ht="21">
+    <row r="34" spans="1:19">
       <c r="A34" s="93">
         <f t="shared" si="4"/>
         <v>536870912</v>
@@ -10241,7 +10247,7 @@
       </c>
       <c r="S34" s="58"/>
     </row>
-    <row r="35" spans="1:19" ht="21">
+    <row r="35" spans="1:19" ht="39">
       <c r="A35" s="93">
         <f t="shared" si="4"/>
         <v>1073741825</v>
@@ -10255,7 +10261,7 @@
         <v>710</v>
       </c>
       <c r="F35" s="95" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="G35" s="114"/>
       <c r="H35" s="114"/>
@@ -10286,7 +10292,7 @@
       </c>
       <c r="S35" s="58"/>
     </row>
-    <row r="36" spans="1:19" ht="21">
+    <row r="36" spans="1:19">
       <c r="A36" s="93">
         <f t="shared" si="4"/>
         <v>1073741826</v>
@@ -10335,7 +10341,7 @@
       </c>
       <c r="S36" s="58"/>
     </row>
-    <row r="37" spans="1:19" ht="21">
+    <row r="37" spans="1:19">
       <c r="A37" s="93">
         <f t="shared" si="4"/>
         <v>1073741828</v>
@@ -10384,7 +10390,7 @@
       </c>
       <c r="S37" s="58"/>
     </row>
-    <row r="38" spans="1:19" ht="21">
+    <row r="38" spans="1:19">
       <c r="A38" s="93">
         <f t="shared" si="4"/>
         <v>1073741832</v>
@@ -10433,7 +10439,7 @@
       </c>
       <c r="S38" s="58"/>
     </row>
-    <row r="39" spans="1:19" ht="21">
+    <row r="39" spans="1:19">
       <c r="A39" s="93">
         <f t="shared" si="4"/>
         <v>1073741840</v>
@@ -10484,7 +10490,7 @@
       </c>
       <c r="S39" s="58"/>
     </row>
-    <row r="40" spans="1:19" ht="21">
+    <row r="40" spans="1:19">
       <c r="A40" s="93">
         <f t="shared" si="4"/>
         <v>1073741856</v>
@@ -10535,7 +10541,7 @@
       </c>
       <c r="S40" s="58"/>
     </row>
-    <row r="41" spans="1:19" ht="21">
+    <row r="41" spans="1:19">
       <c r="A41" s="93">
         <f t="shared" si="4"/>
         <v>1073741888</v>
@@ -10584,7 +10590,7 @@
       </c>
       <c r="S41" s="58"/>
     </row>
-    <row r="42" spans="1:19" ht="21">
+    <row r="42" spans="1:19">
       <c r="A42" s="93">
         <f t="shared" si="4"/>
         <v>1073741952</v>
@@ -10633,7 +10639,7 @@
       </c>
       <c r="S42" s="58"/>
     </row>
-    <row r="43" spans="1:19" ht="21">
+    <row r="43" spans="1:19">
       <c r="A43" s="93">
         <f t="shared" si="4"/>
         <v>1073742080</v>
@@ -10682,7 +10688,7 @@
       </c>
       <c r="S43" s="58"/>
     </row>
-    <row r="44" spans="1:19" ht="21">
+    <row r="44" spans="1:19">
       <c r="A44" s="93">
         <f t="shared" si="4"/>
         <v>1073742336</v>
@@ -10731,7 +10737,7 @@
       </c>
       <c r="S44" s="58"/>
     </row>
-    <row r="45" spans="1:19" ht="21">
+    <row r="45" spans="1:19">
       <c r="A45" s="93">
         <f t="shared" si="4"/>
         <v>1073742848</v>
@@ -10780,7 +10786,7 @@
       </c>
       <c r="S45" s="58"/>
     </row>
-    <row r="46" spans="1:19" ht="21">
+    <row r="46" spans="1:19">
       <c r="A46" s="93">
         <f t="shared" si="4"/>
         <v>1073743872</v>
@@ -10829,7 +10835,7 @@
       </c>
       <c r="S46" s="58"/>
     </row>
-    <row r="47" spans="1:19" ht="21">
+    <row r="47" spans="1:19">
       <c r="A47" s="93">
         <f t="shared" si="4"/>
         <v>1073745920</v>
@@ -10878,7 +10884,7 @@
       </c>
       <c r="S47" s="58"/>
     </row>
-    <row r="48" spans="1:19" ht="21">
+    <row r="48" spans="1:19" ht="39">
       <c r="A48" s="93">
         <f t="shared" si="4"/>
         <v>1073750016</v>
@@ -10892,7 +10898,7 @@
         <v>709</v>
       </c>
       <c r="F48" s="95" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="G48" s="114"/>
       <c r="H48" s="114" t="s">
@@ -10927,7 +10933,7 @@
       </c>
       <c r="S48" s="58"/>
     </row>
-    <row r="49" spans="1:19" ht="21">
+    <row r="49" spans="1:19">
       <c r="A49" s="93">
         <f t="shared" si="4"/>
         <v>1073758208</v>
@@ -10976,7 +10982,7 @@
       </c>
       <c r="S49" s="58"/>
     </row>
-    <row r="50" spans="1:19" ht="21">
+    <row r="50" spans="1:19">
       <c r="A50" s="93">
         <f t="shared" si="4"/>
         <v>1073774592</v>
@@ -11025,7 +11031,7 @@
       </c>
       <c r="S50" s="58"/>
     </row>
-    <row r="51" spans="1:19" ht="21">
+    <row r="51" spans="1:19" ht="39">
       <c r="A51" s="93">
         <f t="shared" si="4"/>
         <v>1073807360</v>
@@ -11039,7 +11045,7 @@
         <v>709</v>
       </c>
       <c r="F51" s="95" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="G51" s="114"/>
       <c r="H51" s="114" t="s">
@@ -11074,7 +11080,7 @@
       </c>
       <c r="S51" s="58"/>
     </row>
-    <row r="52" spans="1:19" ht="21">
+    <row r="52" spans="1:19">
       <c r="A52" s="93">
         <f t="shared" si="4"/>
         <v>1073872896</v>
@@ -11123,7 +11129,7 @@
       </c>
       <c r="S52" s="58"/>
     </row>
-    <row r="53" spans="1:19" ht="21">
+    <row r="53" spans="1:19">
       <c r="A53" s="93">
         <f t="shared" si="4"/>
         <v>1074003968</v>
@@ -11172,7 +11178,7 @@
       </c>
       <c r="S53" s="58"/>
     </row>
-    <row r="54" spans="1:19" ht="21">
+    <row r="54" spans="1:19">
       <c r="A54" s="93">
         <f t="shared" si="4"/>
         <v>1074266112</v>
@@ -11221,7 +11227,7 @@
       </c>
       <c r="S54" s="58"/>
     </row>
-    <row r="55" spans="1:19" ht="21">
+    <row r="55" spans="1:19">
       <c r="A55" s="93">
         <f t="shared" si="4"/>
         <v>1074790400</v>
@@ -11268,7 +11274,7 @@
       </c>
       <c r="S55" s="58"/>
     </row>
-    <row r="56" spans="1:19" ht="21">
+    <row r="56" spans="1:19">
       <c r="A56" s="93">
         <f t="shared" si="4"/>
         <v>1075838976</v>
@@ -11315,7 +11321,7 @@
       </c>
       <c r="S56" s="58"/>
     </row>
-    <row r="57" spans="1:19" ht="21">
+    <row r="57" spans="1:19">
       <c r="A57" s="93">
         <f t="shared" si="4"/>
         <v>1077936128</v>
@@ -11364,7 +11370,7 @@
       </c>
       <c r="S57" s="58"/>
     </row>
-    <row r="58" spans="1:19" ht="21">
+    <row r="58" spans="1:19">
       <c r="A58" s="93">
         <f t="shared" si="4"/>
         <v>1082130432</v>
@@ -11413,7 +11419,7 @@
       </c>
       <c r="S58" s="58"/>
     </row>
-    <row r="59" spans="1:19" ht="21">
+    <row r="59" spans="1:19">
       <c r="A59" s="93">
         <f t="shared" si="4"/>
         <v>1090519040</v>
@@ -11462,7 +11468,7 @@
       </c>
       <c r="S59" s="58"/>
     </row>
-    <row r="60" spans="1:19" ht="21">
+    <row r="60" spans="1:19">
       <c r="A60" s="93">
         <f t="shared" si="4"/>
         <v>1107296256</v>
@@ -11511,7 +11517,7 @@
       </c>
       <c r="S60" s="58"/>
     </row>
-    <row r="61" spans="1:19" ht="42">
+    <row r="61" spans="1:19" ht="39">
       <c r="A61" s="93">
         <f t="shared" si="4"/>
         <v>1140850688</v>
@@ -11562,7 +11568,7 @@
       </c>
       <c r="S61" s="58"/>
     </row>
-    <row r="62" spans="1:19" ht="21">
+    <row r="62" spans="1:19">
       <c r="A62" s="93">
         <f t="shared" si="4"/>
         <v>1207959552</v>
@@ -11611,7 +11617,7 @@
       </c>
       <c r="S62" s="58"/>
     </row>
-    <row r="63" spans="1:19" ht="21">
+    <row r="63" spans="1:19">
       <c r="A63" s="93">
         <f t="shared" si="4"/>
         <v>1342177280</v>
@@ -11660,7 +11666,7 @@
       </c>
       <c r="S63" s="58"/>
     </row>
-    <row r="64" spans="1:19" ht="21">
+    <row r="64" spans="1:19">
       <c r="A64" s="93">
         <f t="shared" si="4"/>
         <v>1610612736</v>
@@ -11707,7 +11713,7 @@
       </c>
       <c r="S64" s="58"/>
     </row>
-    <row r="65" spans="1:19" ht="21">
+    <row r="65" spans="1:19">
       <c r="A65" s="93">
         <f t="shared" si="4"/>
         <v>8256</v>
@@ -11721,11 +11727,11 @@
         <v>0</v>
       </c>
       <c r="F65" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G65" s="114"/>
       <c r="H65" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I65" s="115"/>
       <c r="J65" s="116"/>
@@ -11756,7 +11762,7 @@
       </c>
       <c r="S65" s="58"/>
     </row>
-    <row r="66" spans="1:19" ht="21">
+    <row r="66" spans="1:19">
       <c r="A66" s="93">
         <f t="shared" si="4"/>
         <v>8448</v>
@@ -11770,11 +11776,11 @@
         <v>0</v>
       </c>
       <c r="F66" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G66" s="114"/>
       <c r="H66" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I66" s="115"/>
       <c r="J66" s="116"/>
@@ -11805,7 +11811,7 @@
       </c>
       <c r="S66" s="58"/>
     </row>
-    <row r="67" spans="1:19" ht="21">
+    <row r="67" spans="1:19">
       <c r="A67" s="93">
         <f t="shared" si="4"/>
         <v>40960</v>
@@ -11819,11 +11825,11 @@
         <v>0</v>
       </c>
       <c r="F67" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G67" s="114"/>
       <c r="H67" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I67" s="115"/>
       <c r="J67" s="116"/>
@@ -11854,7 +11860,7 @@
       </c>
       <c r="S67" s="58"/>
     </row>
-    <row r="68" spans="1:19" ht="21">
+    <row r="68" spans="1:19">
       <c r="A68" s="93">
         <f t="shared" si="4"/>
         <v>532480</v>
@@ -11868,11 +11874,11 @@
         <v>0</v>
       </c>
       <c r="F68" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G68" s="114"/>
       <c r="H68" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I68" s="115"/>
       <c r="J68" s="116"/>
@@ -11903,7 +11909,7 @@
       </c>
       <c r="S68" s="58"/>
     </row>
-    <row r="69" spans="1:19" ht="21">
+    <row r="69" spans="1:19">
       <c r="A69" s="93">
         <f t="shared" ref="A69:A133" si="8">_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(J69,仮想キートップ,ビット)),_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(K69,仮想キートップ,ビット))),_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(L69,仮想キートップ,ビット)))</f>
         <v>33562624</v>
@@ -11917,11 +11923,11 @@
         <v>0</v>
       </c>
       <c r="F69" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G69" s="114"/>
       <c r="H69" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I69" s="115"/>
       <c r="J69" s="116"/>
@@ -11952,7 +11958,7 @@
       </c>
       <c r="S69" s="58"/>
     </row>
-    <row r="70" spans="1:19" ht="21">
+    <row r="70" spans="1:19">
       <c r="A70" s="93">
         <f t="shared" si="8"/>
         <v>268443648</v>
@@ -11966,11 +11972,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G70" s="114"/>
       <c r="H70" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I70" s="115"/>
       <c r="J70" s="116"/>
@@ -12001,7 +12007,7 @@
       </c>
       <c r="S70" s="58"/>
     </row>
-    <row r="71" spans="1:19" ht="21">
+    <row r="71" spans="1:19">
       <c r="A71" s="93">
         <f t="shared" si="8"/>
         <v>270336</v>
@@ -12015,11 +12021,11 @@
         <v>0</v>
       </c>
       <c r="F71" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G71" s="114"/>
       <c r="H71" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I71" s="115"/>
       <c r="J71" s="116"/>
@@ -12050,7 +12056,7 @@
       </c>
       <c r="S71" s="58"/>
     </row>
-    <row r="72" spans="1:19" ht="21">
+    <row r="72" spans="1:19">
       <c r="A72" s="93">
         <f t="shared" si="8"/>
         <v>8704</v>
@@ -12064,11 +12070,11 @@
         <v>0</v>
       </c>
       <c r="F72" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G72" s="114"/>
       <c r="H72" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I72" s="115"/>
       <c r="J72" s="116"/>
@@ -12099,21 +12105,21 @@
       </c>
       <c r="S72" s="58"/>
     </row>
-    <row r="73" spans="1:19" ht="21">
+    <row r="73" spans="1:19">
       <c r="A73" s="93">
         <f t="shared" si="8"/>
         <v>73728</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="50" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D73" s="112"/>
       <c r="E73" s="113"/>
       <c r="F73" s="95"/>
       <c r="G73" s="114"/>
       <c r="H73" s="114" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I73" s="115"/>
       <c r="J73" s="116"/>
@@ -12125,7 +12131,7 @@
       </c>
       <c r="M73" s="55"/>
       <c r="N73" s="56" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O73" s="77" t="str">
         <f t="shared" si="12"/>
@@ -12144,7 +12150,7 @@
       </c>
       <c r="S73" s="58"/>
     </row>
-    <row r="74" spans="1:19" ht="21">
+    <row r="74" spans="1:19">
       <c r="A74" s="93">
         <f t="shared" si="8"/>
         <v>67584</v>
@@ -12158,11 +12164,11 @@
         <v>0</v>
       </c>
       <c r="F74" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G74" s="114"/>
       <c r="H74" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I74" s="115"/>
       <c r="J74" s="116"/>
@@ -12193,7 +12199,7 @@
       </c>
       <c r="S74" s="58"/>
     </row>
-    <row r="75" spans="1:19" ht="21">
+    <row r="75" spans="1:19">
       <c r="A75" s="93">
         <f t="shared" si="8"/>
         <v>65540</v>
@@ -12207,11 +12213,11 @@
         <v>0</v>
       </c>
       <c r="F75" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G75" s="114"/>
       <c r="H75" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I75" s="115"/>
       <c r="J75" s="116"/>
@@ -12242,7 +12248,7 @@
       </c>
       <c r="S75" s="58"/>
     </row>
-    <row r="76" spans="1:19" ht="21">
+    <row r="76" spans="1:19">
       <c r="A76" s="93">
         <f t="shared" si="8"/>
         <v>65544</v>
@@ -12256,11 +12262,11 @@
         <v>0</v>
       </c>
       <c r="F76" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G76" s="114"/>
       <c r="H76" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I76" s="115"/>
       <c r="J76" s="116"/>
@@ -12291,7 +12297,7 @@
       </c>
       <c r="S76" s="58"/>
     </row>
-    <row r="77" spans="1:19" ht="21">
+    <row r="77" spans="1:19">
       <c r="A77" s="93">
         <f t="shared" si="8"/>
         <v>66560</v>
@@ -12305,11 +12311,11 @@
         <v>0</v>
       </c>
       <c r="F77" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G77" s="114"/>
       <c r="H77" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I77" s="115"/>
       <c r="J77" s="116"/>
@@ -12340,7 +12346,7 @@
       </c>
       <c r="S77" s="58"/>
     </row>
-    <row r="78" spans="1:19" ht="21">
+    <row r="78" spans="1:19">
       <c r="A78" s="93">
         <f t="shared" si="8"/>
         <v>65538</v>
@@ -12354,11 +12360,11 @@
         <v>0</v>
       </c>
       <c r="F78" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G78" s="114"/>
       <c r="H78" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I78" s="115"/>
       <c r="J78" s="116"/>
@@ -12389,7 +12395,7 @@
       </c>
       <c r="S78" s="58"/>
     </row>
-    <row r="79" spans="1:19" ht="21">
+    <row r="79" spans="1:19">
       <c r="A79" s="93">
         <f t="shared" si="8"/>
         <v>69632</v>
@@ -12403,11 +12409,11 @@
         <v>0</v>
       </c>
       <c r="F79" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G79" s="114"/>
       <c r="H79" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I79" s="115"/>
       <c r="J79" s="116"/>
@@ -12438,7 +12444,7 @@
       </c>
       <c r="S79" s="58"/>
     </row>
-    <row r="80" spans="1:19" ht="21">
+    <row r="80" spans="1:19">
       <c r="A80" s="93">
         <f t="shared" si="8"/>
         <v>73728</v>
@@ -12452,11 +12458,11 @@
         <v>0</v>
       </c>
       <c r="F80" s="95" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G80" s="114"/>
       <c r="H80" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I80" s="115"/>
       <c r="J80" s="116"/>
@@ -12487,7 +12493,7 @@
       </c>
       <c r="S80" s="58"/>
     </row>
-    <row r="81" spans="1:19" ht="21">
+    <row r="81" spans="1:19">
       <c r="A81" s="93">
         <f t="shared" si="8"/>
         <v>81920</v>
@@ -12501,11 +12507,11 @@
         <v>0</v>
       </c>
       <c r="F81" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G81" s="114"/>
       <c r="H81" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I81" s="115"/>
       <c r="J81" s="116"/>
@@ -12536,7 +12542,7 @@
       </c>
       <c r="S81" s="58"/>
     </row>
-    <row r="82" spans="1:19" ht="21">
+    <row r="82" spans="1:19">
       <c r="A82" s="93">
         <f t="shared" si="8"/>
         <v>1114112</v>
@@ -12550,11 +12556,11 @@
         <v>0</v>
       </c>
       <c r="F82" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G82" s="114"/>
       <c r="H82" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I82" s="115"/>
       <c r="J82" s="116"/>
@@ -12585,7 +12591,7 @@
       </c>
       <c r="S82" s="58"/>
     </row>
-    <row r="83" spans="1:19" ht="21">
+    <row r="83" spans="1:19">
       <c r="A83" s="93">
         <f t="shared" si="8"/>
         <v>2162688</v>
@@ -12599,11 +12605,11 @@
         <v>0</v>
       </c>
       <c r="F83" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G83" s="114"/>
       <c r="H83" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I83" s="115"/>
       <c r="J83" s="116"/>
@@ -12634,7 +12640,7 @@
       </c>
       <c r="S83" s="58"/>
     </row>
-    <row r="84" spans="1:19" ht="21">
+    <row r="84" spans="1:19">
       <c r="A84" s="93">
         <f t="shared" si="8"/>
         <v>4259840</v>
@@ -12648,11 +12654,11 @@
         <v>0</v>
       </c>
       <c r="F84" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G84" s="114"/>
       <c r="H84" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I84" s="115"/>
       <c r="J84" s="116"/>
@@ -12683,7 +12689,7 @@
       </c>
       <c r="S84" s="58"/>
     </row>
-    <row r="85" spans="1:19" ht="21">
+    <row r="85" spans="1:19">
       <c r="A85" s="93">
         <f t="shared" si="8"/>
         <v>8454144</v>
@@ -12697,11 +12703,11 @@
         <v>0</v>
       </c>
       <c r="F85" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G85" s="114"/>
       <c r="H85" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I85" s="115"/>
       <c r="J85" s="116"/>
@@ -12732,7 +12738,7 @@
       </c>
       <c r="S85" s="58"/>
     </row>
-    <row r="86" spans="1:19" ht="21">
+    <row r="86" spans="1:19">
       <c r="A86" s="93">
         <f t="shared" si="8"/>
         <v>16842752</v>
@@ -12746,11 +12752,11 @@
         <v>0</v>
       </c>
       <c r="F86" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G86" s="114"/>
       <c r="H86" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I86" s="115"/>
       <c r="J86" s="116"/>
@@ -12781,7 +12787,7 @@
       </c>
       <c r="S86" s="58"/>
     </row>
-    <row r="87" spans="1:19" ht="21">
+    <row r="87" spans="1:19">
       <c r="A87" s="93">
         <f t="shared" si="8"/>
         <v>276824064</v>
@@ -12795,11 +12801,11 @@
         <v>0</v>
       </c>
       <c r="F87" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G87" s="114"/>
       <c r="H87" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I87" s="115"/>
       <c r="J87" s="116"/>
@@ -12830,7 +12836,7 @@
       </c>
       <c r="S87" s="58"/>
     </row>
-    <row r="88" spans="1:19" ht="21">
+    <row r="88" spans="1:19">
       <c r="A88" s="93">
         <f t="shared" si="8"/>
         <v>8389120</v>
@@ -12844,11 +12850,11 @@
         <v>0</v>
       </c>
       <c r="F88" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G88" s="114"/>
       <c r="H88" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I88" s="115"/>
       <c r="J88" s="116"/>
@@ -12879,7 +12885,7 @@
       </c>
       <c r="S88" s="58"/>
     </row>
-    <row r="89" spans="1:19" ht="21">
+    <row r="89" spans="1:19">
       <c r="A89" s="93">
         <f t="shared" si="8"/>
         <v>68157440</v>
@@ -12893,11 +12899,11 @@
         <v>0</v>
       </c>
       <c r="F89" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G89" s="114"/>
       <c r="H89" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I89" s="115"/>
       <c r="J89" s="116"/>
@@ -12928,7 +12934,7 @@
       </c>
       <c r="S89" s="58"/>
     </row>
-    <row r="90" spans="1:19" ht="21">
+    <row r="90" spans="1:19">
       <c r="A90" s="93">
         <f t="shared" si="8"/>
         <v>69206016</v>
@@ -12942,11 +12948,11 @@
         <v>0</v>
       </c>
       <c r="F90" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G90" s="114"/>
       <c r="H90" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I90" s="115"/>
       <c r="J90" s="116"/>
@@ -12977,7 +12983,7 @@
       </c>
       <c r="S90" s="58"/>
     </row>
-    <row r="91" spans="1:19" ht="21">
+    <row r="91" spans="1:19">
       <c r="A91" s="93">
         <f t="shared" si="8"/>
         <v>71303168</v>
@@ -12991,11 +12997,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G91" s="114"/>
       <c r="H91" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I91" s="115"/>
       <c r="J91" s="116"/>
@@ -13026,7 +13032,7 @@
       </c>
       <c r="S91" s="58"/>
     </row>
-    <row r="92" spans="1:19" ht="42">
+    <row r="92" spans="1:19" ht="39">
       <c r="A92" s="93">
         <f t="shared" si="8"/>
         <v>32769</v>
@@ -13040,11 +13046,11 @@
         <v>709</v>
       </c>
       <c r="F92" s="95" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G92" s="114"/>
       <c r="H92" s="114" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I92" s="115"/>
       <c r="J92" s="116"/>
@@ -13075,7 +13081,7 @@
       </c>
       <c r="S92" s="58"/>
     </row>
-    <row r="93" spans="1:19" ht="42">
+    <row r="93" spans="1:19" ht="39">
       <c r="A93" s="93">
         <f t="shared" si="8"/>
         <v>513</v>
@@ -13089,11 +13095,11 @@
         <v>709</v>
       </c>
       <c r="F93" s="95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G93" s="114"/>
       <c r="H93" s="114" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I93" s="115"/>
       <c r="J93" s="116"/>
@@ -13124,7 +13130,7 @@
       </c>
       <c r="S93" s="58"/>
     </row>
-    <row r="94" spans="1:19" ht="21">
+    <row r="94" spans="1:19">
       <c r="A94" s="93">
         <f t="shared" si="8"/>
         <v>129</v>
@@ -13138,11 +13144,11 @@
         <v>709</v>
       </c>
       <c r="F94" s="95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G94" s="114"/>
       <c r="H94" s="114" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I94" s="115"/>
       <c r="J94" s="116"/>
@@ -13173,7 +13179,7 @@
       </c>
       <c r="S94" s="58"/>
     </row>
-    <row r="95" spans="1:19" ht="21">
+    <row r="95" spans="1:19">
       <c r="A95" s="93">
         <f t="shared" si="8"/>
         <v>65537</v>
@@ -13187,11 +13193,11 @@
         <v>709</v>
       </c>
       <c r="F95" s="95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G95" s="114"/>
       <c r="H95" s="114" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I95" s="115"/>
       <c r="J95" s="116"/>
@@ -13222,7 +13228,7 @@
       </c>
       <c r="S95" s="58"/>
     </row>
-    <row r="96" spans="1:19" ht="21">
+    <row r="96" spans="1:19">
       <c r="A96" s="93">
         <f t="shared" si="8"/>
         <v>131073</v>
@@ -13236,11 +13242,11 @@
         <v>709</v>
       </c>
       <c r="F96" s="95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G96" s="114"/>
       <c r="H96" s="114" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I96" s="115"/>
       <c r="J96" s="116"/>
@@ -13271,7 +13277,7 @@
       </c>
       <c r="S96" s="58"/>
     </row>
-    <row r="97" spans="1:19" ht="21">
+    <row r="97" spans="1:19">
       <c r="A97" s="93">
         <f t="shared" si="8"/>
         <v>262145</v>
@@ -13283,13 +13289,13 @@
       <c r="D97" s="112"/>
       <c r="E97" s="113"/>
       <c r="F97" s="95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G97" s="114" t="s">
         <v>712</v>
       </c>
       <c r="H97" s="114" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I97" s="115"/>
       <c r="J97" s="116"/>
@@ -13320,7 +13326,7 @@
       </c>
       <c r="S97" s="58"/>
     </row>
-    <row r="98" spans="1:19" ht="21">
+    <row r="98" spans="1:19">
       <c r="A98" s="93">
         <f t="shared" si="8"/>
         <v>257</v>
@@ -13334,11 +13340,11 @@
         <v>709</v>
       </c>
       <c r="F98" s="95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G98" s="114"/>
       <c r="H98" s="114" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I98" s="115"/>
       <c r="J98" s="116"/>
@@ -13369,7 +13375,7 @@
       </c>
       <c r="S98" s="58"/>
     </row>
-    <row r="99" spans="1:19" ht="21">
+    <row r="99" spans="1:19">
       <c r="A99" s="93">
         <f t="shared" si="8"/>
         <v>33554433</v>
@@ -13383,11 +13389,11 @@
         <v>709</v>
       </c>
       <c r="F99" s="95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G99" s="114"/>
       <c r="H99" s="114" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I99" s="115"/>
       <c r="J99" s="116"/>
@@ -13418,7 +13424,7 @@
       </c>
       <c r="S99" s="58"/>
     </row>
-    <row r="100" spans="1:19" ht="42">
+    <row r="100" spans="1:19" ht="39">
       <c r="A100" s="93">
         <f t="shared" si="8"/>
         <v>1074003969</v>
@@ -13432,13 +13438,13 @@
       </c>
       <c r="E100" s="113"/>
       <c r="F100" s="95" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G100" s="114" t="s">
         <v>711</v>
       </c>
       <c r="H100" s="114" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I100" s="115"/>
       <c r="J100" s="116" t="s">
@@ -13471,7 +13477,7 @@
       </c>
       <c r="S100" s="58"/>
     </row>
-    <row r="101" spans="1:19" ht="42">
+    <row r="101" spans="1:19" ht="39">
       <c r="A101" s="93">
         <f t="shared" si="8"/>
         <v>16809984</v>
@@ -13516,7 +13522,7 @@
       </c>
       <c r="S101" s="58"/>
     </row>
-    <row r="102" spans="1:19" ht="42">
+    <row r="102" spans="1:19" ht="39">
       <c r="A102" s="93">
         <f t="shared" si="8"/>
         <v>16777728</v>
@@ -13561,7 +13567,7 @@
       </c>
       <c r="S102" s="58"/>
     </row>
-    <row r="103" spans="1:19" ht="42">
+    <row r="103" spans="1:19" ht="39">
       <c r="A103" s="93">
         <f t="shared" si="8"/>
         <v>16777344</v>
@@ -13606,7 +13612,7 @@
       </c>
       <c r="S103" s="58"/>
     </row>
-    <row r="104" spans="1:19" ht="42">
+    <row r="104" spans="1:19" ht="39">
       <c r="A104" s="93">
         <f t="shared" si="8"/>
         <v>32772</v>
@@ -13651,7 +13657,7 @@
       </c>
       <c r="S104" s="58"/>
     </row>
-    <row r="105" spans="1:19" ht="42">
+    <row r="105" spans="1:19" ht="39">
       <c r="A105" s="93">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -13696,7 +13702,7 @@
       </c>
       <c r="S105" s="58"/>
     </row>
-    <row r="106" spans="1:19" ht="42">
+    <row r="106" spans="1:19" ht="39">
       <c r="A106" s="93">
         <f t="shared" si="8"/>
         <v>132</v>
@@ -13741,7 +13747,7 @@
       </c>
       <c r="S106" s="58"/>
     </row>
-    <row r="107" spans="1:19" ht="42">
+    <row r="107" spans="1:19" ht="39">
       <c r="A107" s="93">
         <f t="shared" si="8"/>
         <v>32776</v>
@@ -13786,7 +13792,7 @@
       </c>
       <c r="S107" s="58"/>
     </row>
-    <row r="108" spans="1:19" ht="42">
+    <row r="108" spans="1:19" ht="39">
       <c r="A108" s="93">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -13831,7 +13837,7 @@
       </c>
       <c r="S108" s="58"/>
     </row>
-    <row r="109" spans="1:19" ht="42">
+    <row r="109" spans="1:19" ht="39">
       <c r="A109" s="93">
         <f t="shared" si="8"/>
         <v>136</v>
@@ -13876,7 +13882,7 @@
       </c>
       <c r="S109" s="58"/>
     </row>
-    <row r="110" spans="1:19" ht="42">
+    <row r="110" spans="1:19" ht="39">
       <c r="A110" s="93">
         <f t="shared" si="8"/>
         <v>32770</v>
@@ -13921,7 +13927,7 @@
       </c>
       <c r="S110" s="58"/>
     </row>
-    <row r="111" spans="1:19" ht="42">
+    <row r="111" spans="1:19" ht="39">
       <c r="A111" s="93">
         <f t="shared" si="8"/>
         <v>514</v>
@@ -13966,7 +13972,7 @@
       </c>
       <c r="S111" s="58"/>
     </row>
-    <row r="112" spans="1:19" ht="42">
+    <row r="112" spans="1:19" ht="39">
       <c r="A112" s="93">
         <f t="shared" si="8"/>
         <v>130</v>
@@ -14011,7 +14017,7 @@
       </c>
       <c r="S112" s="58"/>
     </row>
-    <row r="113" spans="1:19" ht="42">
+    <row r="113" spans="1:19" ht="39">
       <c r="A113" s="93">
         <f t="shared" si="8"/>
         <v>36864</v>
@@ -14056,7 +14062,7 @@
       </c>
       <c r="S113" s="58"/>
     </row>
-    <row r="114" spans="1:19" ht="42">
+    <row r="114" spans="1:19" ht="39">
       <c r="A114" s="93">
         <f t="shared" si="8"/>
         <v>4608</v>
@@ -14101,7 +14107,7 @@
       </c>
       <c r="S114" s="58"/>
     </row>
-    <row r="115" spans="1:19" ht="42">
+    <row r="115" spans="1:19" ht="39">
       <c r="A115" s="93">
         <f t="shared" si="8"/>
         <v>4224</v>
@@ -14146,7 +14152,7 @@
       </c>
       <c r="S115" s="58"/>
     </row>
-    <row r="116" spans="1:19" ht="42">
+    <row r="116" spans="1:19" ht="39">
       <c r="A116" s="93">
         <f t="shared" si="8"/>
         <v>49152</v>
@@ -14191,7 +14197,7 @@
       </c>
       <c r="S116" s="58"/>
     </row>
-    <row r="117" spans="1:19" ht="42">
+    <row r="117" spans="1:19" ht="39">
       <c r="A117" s="93">
         <f t="shared" si="8"/>
         <v>16896</v>
@@ -14236,7 +14242,7 @@
       </c>
       <c r="S117" s="58"/>
     </row>
-    <row r="118" spans="1:19" ht="42">
+    <row r="118" spans="1:19" ht="39">
       <c r="A118" s="93">
         <f t="shared" si="8"/>
         <v>16512</v>
@@ -14281,7 +14287,7 @@
       </c>
       <c r="S118" s="58"/>
     </row>
-    <row r="119" spans="1:19" ht="42">
+    <row r="119" spans="1:19" ht="39">
       <c r="A119" s="93">
         <f t="shared" si="8"/>
         <v>2129920</v>
@@ -14326,7 +14332,7 @@
       </c>
       <c r="S119" s="58"/>
     </row>
-    <row r="120" spans="1:19" ht="42">
+    <row r="120" spans="1:19" ht="39">
       <c r="A120" s="93">
         <f t="shared" si="8"/>
         <v>2097664</v>
@@ -14371,7 +14377,7 @@
       </c>
       <c r="S120" s="58"/>
     </row>
-    <row r="121" spans="1:19" ht="42">
+    <row r="121" spans="1:19" ht="39">
       <c r="A121" s="93">
         <f t="shared" si="8"/>
         <v>2097280</v>
@@ -14416,7 +14422,7 @@
       </c>
       <c r="S121" s="58"/>
     </row>
-    <row r="122" spans="1:19" ht="21">
+    <row r="122" spans="1:19">
       <c r="A122" s="93">
         <f t="shared" si="8"/>
         <v>98312</v>
@@ -14430,11 +14436,11 @@
       </c>
       <c r="E122" s="113"/>
       <c r="F122" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G122" s="114"/>
       <c r="H122" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I122" s="115"/>
       <c r="J122" s="116" t="s">
@@ -14467,7 +14473,7 @@
       </c>
       <c r="S122" s="58"/>
     </row>
-    <row r="123" spans="1:19" ht="21">
+    <row r="123" spans="1:19">
       <c r="A123" s="93">
         <f t="shared" si="8"/>
         <v>66056</v>
@@ -14481,11 +14487,11 @@
       </c>
       <c r="E123" s="113"/>
       <c r="F123" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G123" s="114"/>
       <c r="H123" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I123" s="115"/>
       <c r="J123" s="116" t="s">
@@ -14518,7 +14524,7 @@
       </c>
       <c r="S123" s="58"/>
     </row>
-    <row r="124" spans="1:19" ht="21">
+    <row r="124" spans="1:19">
       <c r="A124" s="93">
         <f t="shared" si="8"/>
         <v>65672</v>
@@ -14532,11 +14538,11 @@
       </c>
       <c r="E124" s="113"/>
       <c r="F124" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G124" s="114"/>
       <c r="H124" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I124" s="115"/>
       <c r="J124" s="116" t="s">
@@ -14569,7 +14575,7 @@
       </c>
       <c r="S124" s="58"/>
     </row>
-    <row r="125" spans="1:19" ht="42">
+    <row r="125" spans="1:19" ht="39">
       <c r="A125" s="93">
         <f t="shared" si="8"/>
         <v>98306</v>
@@ -14583,11 +14589,11 @@
       </c>
       <c r="E125" s="113"/>
       <c r="F125" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G125" s="114"/>
       <c r="H125" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I125" s="115"/>
       <c r="J125" s="116" t="s">
@@ -14620,7 +14626,7 @@
       </c>
       <c r="S125" s="58"/>
     </row>
-    <row r="126" spans="1:19" ht="42">
+    <row r="126" spans="1:19" ht="39">
       <c r="A126" s="93">
         <f t="shared" si="8"/>
         <v>66050</v>
@@ -14634,11 +14640,11 @@
       </c>
       <c r="E126" s="113"/>
       <c r="F126" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G126" s="114"/>
       <c r="H126" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I126" s="115"/>
       <c r="J126" s="116" t="s">
@@ -14671,7 +14677,7 @@
       </c>
       <c r="S126" s="58"/>
     </row>
-    <row r="127" spans="1:19" ht="42">
+    <row r="127" spans="1:19" ht="39">
       <c r="A127" s="93">
         <f t="shared" si="8"/>
         <v>65666</v>
@@ -14685,11 +14691,11 @@
       </c>
       <c r="E127" s="113"/>
       <c r="F127" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G127" s="114"/>
       <c r="H127" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I127" s="115"/>
       <c r="J127" s="116" t="s">
@@ -14722,7 +14728,7 @@
       </c>
       <c r="S127" s="58"/>
     </row>
-    <row r="128" spans="1:19" ht="42">
+    <row r="128" spans="1:19" ht="39">
       <c r="A128" s="93">
         <f t="shared" si="8"/>
         <v>114688</v>
@@ -14736,11 +14742,11 @@
       </c>
       <c r="E128" s="113"/>
       <c r="F128" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G128" s="114"/>
       <c r="H128" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I128" s="115"/>
       <c r="J128" s="116" t="s">
@@ -14773,7 +14779,7 @@
       </c>
       <c r="S128" s="58"/>
     </row>
-    <row r="129" spans="1:19" ht="42">
+    <row r="129" spans="1:19" ht="39">
       <c r="A129" s="93">
         <f t="shared" si="8"/>
         <v>82432</v>
@@ -14787,11 +14793,11 @@
       </c>
       <c r="E129" s="113"/>
       <c r="F129" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G129" s="114"/>
       <c r="H129" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I129" s="115"/>
       <c r="J129" s="116" t="s">
@@ -14824,7 +14830,7 @@
       </c>
       <c r="S129" s="58"/>
     </row>
-    <row r="130" spans="1:19" ht="42">
+    <row r="130" spans="1:19" ht="39">
       <c r="A130" s="93">
         <f t="shared" si="8"/>
         <v>82048</v>
@@ -14838,11 +14844,11 @@
       </c>
       <c r="E130" s="113"/>
       <c r="F130" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G130" s="114"/>
       <c r="H130" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I130" s="115"/>
       <c r="J130" s="116" t="s">
@@ -14875,7 +14881,7 @@
       </c>
       <c r="S130" s="58"/>
     </row>
-    <row r="131" spans="1:19" ht="42">
+    <row r="131" spans="1:19" ht="39">
       <c r="A131" s="93">
         <f t="shared" si="8"/>
         <v>2195456</v>
@@ -14889,11 +14895,11 @@
       </c>
       <c r="E131" s="113"/>
       <c r="F131" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G131" s="114"/>
       <c r="H131" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I131" s="115"/>
       <c r="J131" s="116" t="s">
@@ -14926,7 +14932,7 @@
       </c>
       <c r="S131" s="58"/>
     </row>
-    <row r="132" spans="1:19" ht="42">
+    <row r="132" spans="1:19" ht="39">
       <c r="A132" s="93">
         <f t="shared" si="8"/>
         <v>2163200</v>
@@ -14940,11 +14946,11 @@
       </c>
       <c r="E132" s="113"/>
       <c r="F132" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G132" s="114"/>
       <c r="H132" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I132" s="115"/>
       <c r="J132" s="116" t="s">
@@ -14977,7 +14983,7 @@
       </c>
       <c r="S132" s="58"/>
     </row>
-    <row r="133" spans="1:19" ht="42">
+    <row r="133" spans="1:19" ht="39">
       <c r="A133" s="93">
         <f t="shared" si="8"/>
         <v>2162816</v>
@@ -14991,11 +14997,11 @@
       </c>
       <c r="E133" s="113"/>
       <c r="F133" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G133" s="114"/>
       <c r="H133" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I133" s="115"/>
       <c r="J133" s="116" t="s">
@@ -15028,7 +15034,7 @@
       </c>
       <c r="S133" s="58"/>
     </row>
-    <row r="134" spans="1:19" ht="42">
+    <row r="134" spans="1:19" ht="39">
       <c r="A134" s="93">
         <f t="shared" ref="A134:A198" si="15">_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(J134,仮想キートップ,ビット)),_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(K134,仮想キートップ,ビット))),_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(L134,仮想キートップ,ビット)))</f>
         <v>69238784</v>
@@ -15042,11 +15048,11 @@
       </c>
       <c r="E134" s="113"/>
       <c r="F134" s="95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G134" s="114"/>
       <c r="H134" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I134" s="115"/>
       <c r="J134" s="116" t="s">
@@ -15079,7 +15085,7 @@
       </c>
       <c r="S134" s="58"/>
     </row>
-    <row r="135" spans="1:19" ht="42">
+    <row r="135" spans="1:19" ht="39">
       <c r="A135" s="93">
         <f t="shared" si="15"/>
         <v>69206528</v>
@@ -15093,11 +15099,11 @@
       </c>
       <c r="E135" s="113"/>
       <c r="F135" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G135" s="114"/>
       <c r="H135" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I135" s="115"/>
       <c r="J135" s="116" t="s">
@@ -15130,7 +15136,7 @@
       </c>
       <c r="S135" s="58"/>
     </row>
-    <row r="136" spans="1:19" ht="42">
+    <row r="136" spans="1:19" ht="39">
       <c r="A136" s="93">
         <f t="shared" si="15"/>
         <v>69206144</v>
@@ -15144,11 +15150,11 @@
       </c>
       <c r="E136" s="113"/>
       <c r="F136" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G136" s="114"/>
       <c r="H136" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I136" s="115"/>
       <c r="J136" s="116" t="s">
@@ -15181,7 +15187,7 @@
       </c>
       <c r="S136" s="58"/>
     </row>
-    <row r="137" spans="1:19" ht="42">
+    <row r="137" spans="1:19" ht="39">
       <c r="A137" s="93">
         <f t="shared" si="15"/>
         <v>67239940</v>
@@ -15195,11 +15201,11 @@
       </c>
       <c r="E137" s="113"/>
       <c r="F137" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G137" s="114"/>
       <c r="H137" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I137" s="115"/>
       <c r="J137" s="116" t="s">
@@ -15232,7 +15238,7 @@
       </c>
       <c r="S137" s="58"/>
     </row>
-    <row r="138" spans="1:19" ht="42">
+    <row r="138" spans="1:19" ht="39">
       <c r="A138" s="93">
         <f t="shared" si="15"/>
         <v>67109380</v>
@@ -15246,11 +15252,11 @@
       </c>
       <c r="E138" s="113"/>
       <c r="F138" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G138" s="114"/>
       <c r="H138" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I138" s="115"/>
       <c r="J138" s="116" t="s">
@@ -15283,7 +15289,7 @@
       </c>
       <c r="S138" s="58"/>
     </row>
-    <row r="139" spans="1:19" ht="42">
+    <row r="139" spans="1:19" ht="39">
       <c r="A139" s="93">
         <f t="shared" si="15"/>
         <v>196612</v>
@@ -15297,11 +15303,11 @@
       </c>
       <c r="E139" s="113"/>
       <c r="F139" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G139" s="114"/>
       <c r="H139" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I139" s="115"/>
       <c r="J139" s="116" t="s">
@@ -15334,7 +15340,7 @@
       </c>
       <c r="S139" s="58"/>
     </row>
-    <row r="140" spans="1:19" ht="42">
+    <row r="140" spans="1:19" ht="39">
       <c r="A140" s="93">
         <f t="shared" si="15"/>
         <v>66052</v>
@@ -15348,11 +15354,11 @@
       </c>
       <c r="E140" s="113"/>
       <c r="F140" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G140" s="114"/>
       <c r="H140" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I140" s="115"/>
       <c r="J140" s="116" t="s">
@@ -15385,7 +15391,7 @@
       </c>
       <c r="S140" s="58"/>
     </row>
-    <row r="141" spans="1:19" ht="42">
+    <row r="141" spans="1:19" ht="39">
       <c r="A141" s="93">
         <f t="shared" si="15"/>
         <v>67375104</v>
@@ -15399,11 +15405,11 @@
       </c>
       <c r="E141" s="113"/>
       <c r="F141" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G141" s="114"/>
       <c r="H141" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I141" s="115"/>
       <c r="J141" s="116" t="s">
@@ -15436,7 +15442,7 @@
       </c>
       <c r="S141" s="58"/>
     </row>
-    <row r="142" spans="1:19" ht="42">
+    <row r="142" spans="1:19" ht="39">
       <c r="A142" s="93">
         <f t="shared" si="15"/>
         <v>331776</v>
@@ -15450,11 +15456,11 @@
       </c>
       <c r="E142" s="113"/>
       <c r="F142" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G142" s="114"/>
       <c r="H142" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I142" s="115"/>
       <c r="J142" s="116" t="s">
@@ -15487,7 +15493,7 @@
       </c>
       <c r="S142" s="58"/>
     </row>
-    <row r="143" spans="1:19" ht="42">
+    <row r="143" spans="1:19" ht="39">
       <c r="A143" s="93">
         <f t="shared" si="15"/>
         <v>67109128</v>
@@ -15501,11 +15507,11 @@
       </c>
       <c r="E143" s="113"/>
       <c r="F143" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G143" s="114"/>
       <c r="H143" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I143" s="115"/>
       <c r="J143" s="116" t="s">
@@ -15538,7 +15544,7 @@
       </c>
       <c r="S143" s="58"/>
     </row>
-    <row r="144" spans="1:19" ht="42">
+    <row r="144" spans="1:19" ht="39">
       <c r="A144" s="93">
         <f t="shared" si="15"/>
         <v>67125504</v>
@@ -15552,11 +15558,11 @@
       </c>
       <c r="E144" s="113"/>
       <c r="F144" s="95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G144" s="114"/>
       <c r="H144" s="114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I144" s="115"/>
       <c r="J144" s="116" t="s">
@@ -15589,7 +15595,7 @@
       </c>
       <c r="S144" s="58"/>
     </row>
-    <row r="145" spans="1:19" ht="21">
+    <row r="145" spans="1:19">
       <c r="A145" s="93">
         <f t="shared" si="15"/>
         <v>65800</v>
@@ -15603,11 +15609,11 @@
       </c>
       <c r="E145" s="113"/>
       <c r="F145" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G145" s="114"/>
       <c r="H145" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I145" s="115"/>
       <c r="J145" s="116" t="s">
@@ -15640,7 +15646,7 @@
       </c>
       <c r="S145" s="58"/>
     </row>
-    <row r="146" spans="1:19" ht="42">
+    <row r="146" spans="1:19" ht="39">
       <c r="A146" s="93">
         <f t="shared" si="15"/>
         <v>82176</v>
@@ -15654,11 +15660,11 @@
       </c>
       <c r="E146" s="113"/>
       <c r="F146" s="95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G146" s="114"/>
       <c r="H146" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I146" s="115"/>
       <c r="J146" s="116" t="s">
@@ -15691,7 +15697,7 @@
       </c>
       <c r="S146" s="58"/>
     </row>
-    <row r="147" spans="1:19" ht="21">
+    <row r="147" spans="1:19">
       <c r="A147" s="93">
         <f t="shared" si="15"/>
         <v>276889600</v>
@@ -15705,11 +15711,11 @@
       </c>
       <c r="E147" s="113"/>
       <c r="F147" s="95" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G147" s="114"/>
       <c r="H147" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I147" s="115"/>
       <c r="J147" s="116" t="s">
@@ -15742,7 +15748,7 @@
       </c>
       <c r="S147" s="58"/>
     </row>
-    <row r="148" spans="1:19" ht="21">
+    <row r="148" spans="1:19">
       <c r="A148" s="93">
         <f t="shared" si="15"/>
         <v>276955136</v>
@@ -15756,11 +15762,11 @@
       </c>
       <c r="E148" s="113"/>
       <c r="F148" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G148" s="114"/>
       <c r="H148" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I148" s="115"/>
       <c r="J148" s="116" t="s">
@@ -15793,7 +15799,7 @@
       </c>
       <c r="S148" s="58"/>
     </row>
-    <row r="149" spans="1:19" ht="21">
+    <row r="149" spans="1:19">
       <c r="A149" s="93">
         <f t="shared" si="15"/>
         <v>276824320</v>
@@ -15807,11 +15813,11 @@
       </c>
       <c r="E149" s="113"/>
       <c r="F149" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G149" s="114"/>
       <c r="H149" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I149" s="115"/>
       <c r="J149" s="116" t="s">
@@ -15844,7 +15850,7 @@
       </c>
       <c r="S149" s="58"/>
     </row>
-    <row r="150" spans="1:19" ht="21">
+    <row r="150" spans="1:19">
       <c r="A150" s="93">
         <f t="shared" si="15"/>
         <v>310378496</v>
@@ -15858,11 +15864,11 @@
       </c>
       <c r="E150" s="113"/>
       <c r="F150" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G150" s="114"/>
       <c r="H150" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I150" s="115"/>
       <c r="J150" s="116" t="s">
@@ -15895,7 +15901,7 @@
       </c>
       <c r="S150" s="58"/>
     </row>
-    <row r="151" spans="1:19" ht="42">
+    <row r="151" spans="1:19" ht="39">
       <c r="A151" s="93">
         <f t="shared" si="15"/>
         <v>276824576</v>
@@ -15909,11 +15915,11 @@
       </c>
       <c r="E151" s="113"/>
       <c r="F151" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G151" s="114"/>
       <c r="H151" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I151" s="115"/>
       <c r="J151" s="116" t="s">
@@ -15946,7 +15952,7 @@
       </c>
       <c r="S151" s="58"/>
     </row>
-    <row r="152" spans="1:19" ht="21">
+    <row r="152" spans="1:19">
       <c r="A152" s="93">
         <f t="shared" si="15"/>
         <v>335872</v>
@@ -15960,11 +15966,11 @@
       </c>
       <c r="E152" s="113"/>
       <c r="F152" s="95" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G152" s="114"/>
       <c r="H152" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I152" s="115"/>
       <c r="J152" s="116" t="s">
@@ -15997,7 +16003,7 @@
       </c>
       <c r="S152" s="58"/>
     </row>
-    <row r="153" spans="1:19" ht="21">
+    <row r="153" spans="1:19">
       <c r="A153" s="93">
         <f t="shared" si="15"/>
         <v>401408</v>
@@ -16011,11 +16017,11 @@
       </c>
       <c r="E153" s="113"/>
       <c r="F153" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G153" s="114"/>
       <c r="H153" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I153" s="115"/>
       <c r="J153" s="116" t="s">
@@ -16048,7 +16054,7 @@
       </c>
       <c r="S153" s="58"/>
     </row>
-    <row r="154" spans="1:19" ht="21">
+    <row r="154" spans="1:19">
       <c r="A154" s="93">
         <f t="shared" si="15"/>
         <v>270592</v>
@@ -16062,11 +16068,11 @@
       </c>
       <c r="E154" s="113"/>
       <c r="F154" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G154" s="114"/>
       <c r="H154" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I154" s="115"/>
       <c r="J154" s="116" t="s">
@@ -16099,7 +16105,7 @@
       </c>
       <c r="S154" s="58"/>
     </row>
-    <row r="155" spans="1:19" ht="21">
+    <row r="155" spans="1:19">
       <c r="A155" s="93">
         <f t="shared" si="15"/>
         <v>33824768</v>
@@ -16113,11 +16119,11 @@
       </c>
       <c r="E155" s="113"/>
       <c r="F155" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G155" s="114"/>
       <c r="H155" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I155" s="115"/>
       <c r="J155" s="116" t="s">
@@ -16150,7 +16156,7 @@
       </c>
       <c r="S155" s="58"/>
     </row>
-    <row r="156" spans="1:19" ht="42">
+    <row r="156" spans="1:19" ht="39">
       <c r="A156" s="93">
         <f t="shared" si="15"/>
         <v>270848</v>
@@ -16164,11 +16170,11 @@
       </c>
       <c r="E156" s="113"/>
       <c r="F156" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G156" s="114"/>
       <c r="H156" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I156" s="115"/>
       <c r="J156" s="116" t="s">
@@ -16201,7 +16207,7 @@
       </c>
       <c r="S156" s="58"/>
     </row>
-    <row r="157" spans="1:19" ht="21">
+    <row r="157" spans="1:19">
       <c r="A157" s="93">
         <f t="shared" si="15"/>
         <v>8781824</v>
@@ -16215,11 +16221,11 @@
       </c>
       <c r="E157" s="113"/>
       <c r="F157" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G157" s="114"/>
       <c r="H157" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I157" s="115"/>
       <c r="J157" s="116" t="s">
@@ -16252,7 +16258,7 @@
       </c>
       <c r="S157" s="58"/>
     </row>
-    <row r="158" spans="1:19" ht="21">
+    <row r="158" spans="1:19">
       <c r="A158" s="93">
         <f t="shared" si="15"/>
         <v>8651008</v>
@@ -16266,11 +16272,11 @@
       </c>
       <c r="E158" s="113"/>
       <c r="F158" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G158" s="114"/>
       <c r="H158" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I158" s="115"/>
       <c r="J158" s="116" t="s">
@@ -16303,7 +16309,7 @@
       </c>
       <c r="S158" s="58"/>
     </row>
-    <row r="159" spans="1:19" ht="42">
+    <row r="159" spans="1:19" ht="39">
       <c r="A159" s="93">
         <f t="shared" si="15"/>
         <v>42205184</v>
@@ -16317,11 +16323,11 @@
       </c>
       <c r="E159" s="113"/>
       <c r="F159" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G159" s="114"/>
       <c r="H159" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I159" s="115"/>
       <c r="J159" s="116" t="s">
@@ -16354,7 +16360,7 @@
       </c>
       <c r="S159" s="58"/>
     </row>
-    <row r="160" spans="1:19" ht="21">
+    <row r="160" spans="1:19">
       <c r="A160" s="93">
         <f t="shared" si="15"/>
         <v>8519936</v>
@@ -16368,11 +16374,11 @@
       </c>
       <c r="E160" s="113"/>
       <c r="F160" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G160" s="114"/>
       <c r="H160" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I160" s="115"/>
       <c r="J160" s="116" t="s">
@@ -16405,7 +16411,7 @@
       </c>
       <c r="S160" s="58"/>
     </row>
-    <row r="161" spans="1:19" ht="21">
+    <row r="161" spans="1:19">
       <c r="A161" s="93">
         <f t="shared" si="15"/>
         <v>8486912</v>
@@ -16419,11 +16425,11 @@
       </c>
       <c r="E161" s="113"/>
       <c r="F161" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G161" s="114"/>
       <c r="H161" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I161" s="115"/>
       <c r="J161" s="116" t="s">
@@ -16456,7 +16462,7 @@
       </c>
       <c r="S161" s="58"/>
     </row>
-    <row r="162" spans="1:19" ht="21">
+    <row r="162" spans="1:19">
       <c r="A162" s="93">
         <f t="shared" si="15"/>
         <v>8552448</v>
@@ -16470,11 +16476,11 @@
       </c>
       <c r="E162" s="113"/>
       <c r="F162" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G162" s="114"/>
       <c r="H162" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I162" s="115"/>
       <c r="J162" s="116" t="s">
@@ -16507,7 +16513,7 @@
       </c>
       <c r="S162" s="58"/>
     </row>
-    <row r="163" spans="1:19" ht="21">
+    <row r="163" spans="1:19">
       <c r="A163" s="93">
         <f t="shared" si="15"/>
         <v>8421632</v>
@@ -16521,11 +16527,11 @@
       </c>
       <c r="E163" s="113"/>
       <c r="F163" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G163" s="114"/>
       <c r="H163" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I163" s="115"/>
       <c r="J163" s="116" t="s">
@@ -16558,7 +16564,7 @@
       </c>
       <c r="S163" s="58"/>
     </row>
-    <row r="164" spans="1:19" ht="21">
+    <row r="164" spans="1:19">
       <c r="A164" s="93">
         <f t="shared" si="15"/>
         <v>41975808</v>
@@ -16572,11 +16578,11 @@
       </c>
       <c r="E164" s="113"/>
       <c r="F164" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G164" s="114"/>
       <c r="H164" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I164" s="115"/>
       <c r="J164" s="116" t="s">
@@ -16609,7 +16615,7 @@
       </c>
       <c r="S164" s="58"/>
     </row>
-    <row r="165" spans="1:19" ht="42">
+    <row r="165" spans="1:19" ht="58.5">
       <c r="A165" s="93">
         <f t="shared" si="15"/>
         <v>8683520</v>
@@ -16623,11 +16629,11 @@
       </c>
       <c r="E165" s="113"/>
       <c r="F165" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G165" s="114"/>
       <c r="H165" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I165" s="115"/>
       <c r="J165" s="116" t="s">
@@ -16660,7 +16666,7 @@
       </c>
       <c r="S165" s="58"/>
     </row>
-    <row r="166" spans="1:19" ht="42">
+    <row r="166" spans="1:19" ht="39">
       <c r="A166" s="93">
         <f t="shared" si="15"/>
         <v>106496</v>
@@ -16674,11 +16680,11 @@
       </c>
       <c r="E166" s="113"/>
       <c r="F166" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G166" s="114"/>
       <c r="H166" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I166" s="115"/>
       <c r="J166" s="116" t="s">
@@ -16711,7 +16717,7 @@
       </c>
       <c r="S166" s="58"/>
     </row>
-    <row r="167" spans="1:19" ht="42">
+    <row r="167" spans="1:19" ht="39">
       <c r="A167" s="93">
         <f t="shared" si="15"/>
         <v>172032</v>
@@ -16725,11 +16731,11 @@
       </c>
       <c r="E167" s="113"/>
       <c r="F167" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G167" s="114"/>
       <c r="H167" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I167" s="115"/>
       <c r="J167" s="116" t="s">
@@ -16762,7 +16768,7 @@
       </c>
       <c r="S167" s="58"/>
     </row>
-    <row r="168" spans="1:19" ht="42">
+    <row r="168" spans="1:19" ht="39">
       <c r="A168" s="93">
         <f t="shared" si="15"/>
         <v>41216</v>
@@ -16776,11 +16782,11 @@
       </c>
       <c r="E168" s="113"/>
       <c r="F168" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G168" s="114"/>
       <c r="H168" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I168" s="115"/>
       <c r="J168" s="116" t="s">
@@ -16813,7 +16819,7 @@
       </c>
       <c r="S168" s="58"/>
     </row>
-    <row r="169" spans="1:19" ht="42">
+    <row r="169" spans="1:19" ht="39">
       <c r="A169" s="93">
         <f t="shared" si="15"/>
         <v>33595392</v>
@@ -16827,11 +16833,11 @@
       </c>
       <c r="E169" s="113"/>
       <c r="F169" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G169" s="114"/>
       <c r="H169" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I169" s="115"/>
       <c r="J169" s="116" t="s">
@@ -16864,7 +16870,7 @@
       </c>
       <c r="S169" s="58"/>
     </row>
-    <row r="170" spans="1:19" ht="42">
+    <row r="170" spans="1:19" ht="58.5">
       <c r="A170" s="93">
         <f t="shared" si="15"/>
         <v>303104</v>
@@ -16878,11 +16884,11 @@
       </c>
       <c r="E170" s="113"/>
       <c r="F170" s="95" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G170" s="114"/>
       <c r="H170" s="114" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I170" s="115"/>
       <c r="J170" s="116" t="s">
@@ -16915,7 +16921,7 @@
       </c>
       <c r="S170" s="58"/>
     </row>
-    <row r="171" spans="1:19" ht="42">
+    <row r="171" spans="1:19" ht="39">
       <c r="A171" s="93">
         <f t="shared" si="15"/>
         <v>8978432</v>
@@ -16929,11 +16935,11 @@
       </c>
       <c r="E171" s="113"/>
       <c r="F171" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G171" s="114"/>
       <c r="H171" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I171" s="115"/>
       <c r="J171" s="116" t="s">
@@ -16966,7 +16972,7 @@
       </c>
       <c r="S171" s="58"/>
     </row>
-    <row r="172" spans="1:19" ht="42">
+    <row r="172" spans="1:19" ht="39">
       <c r="A172" s="93">
         <f t="shared" si="15"/>
         <v>9043968</v>
@@ -16980,11 +16986,11 @@
       </c>
       <c r="E172" s="113"/>
       <c r="F172" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G172" s="114"/>
       <c r="H172" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I172" s="115"/>
       <c r="J172" s="116" t="s">
@@ -17017,7 +17023,7 @@
       </c>
       <c r="S172" s="58"/>
     </row>
-    <row r="173" spans="1:19" ht="42">
+    <row r="173" spans="1:19" ht="39">
       <c r="A173" s="93">
         <f t="shared" si="15"/>
         <v>8913152</v>
@@ -17031,11 +17037,11 @@
       </c>
       <c r="E173" s="113"/>
       <c r="F173" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G173" s="114"/>
       <c r="H173" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I173" s="115"/>
       <c r="J173" s="116" t="s">
@@ -17068,7 +17074,7 @@
       </c>
       <c r="S173" s="58"/>
     </row>
-    <row r="174" spans="1:19" ht="42">
+    <row r="174" spans="1:19" ht="39">
       <c r="A174" s="93">
         <f t="shared" si="15"/>
         <v>42467328</v>
@@ -17082,11 +17088,11 @@
       </c>
       <c r="E174" s="113"/>
       <c r="F174" s="95" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G174" s="114"/>
       <c r="H174" s="114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I174" s="115"/>
       <c r="J174" s="116" t="s">
@@ -17119,7 +17125,7 @@
       </c>
       <c r="S174" s="58"/>
     </row>
-    <row r="175" spans="1:19" ht="21">
+    <row r="175" spans="1:19">
       <c r="A175" s="93">
         <f t="shared" si="15"/>
         <v>98304</v>
@@ -17166,7 +17172,7 @@
       </c>
       <c r="S175" s="58"/>
     </row>
-    <row r="176" spans="1:19" ht="21">
+    <row r="176" spans="1:19">
       <c r="A176" s="93">
         <f t="shared" si="15"/>
         <v>24576</v>
@@ -17213,7 +17219,7 @@
       </c>
       <c r="S176" s="58"/>
     </row>
-    <row r="177" spans="1:19" ht="21">
+    <row r="177" spans="1:19">
       <c r="A177" s="93">
         <f t="shared" si="15"/>
         <v>75497472</v>
@@ -17227,11 +17233,11 @@
       </c>
       <c r="E177" s="120"/>
       <c r="F177" s="95" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G177" s="121"/>
       <c r="H177" s="121" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I177" s="115"/>
       <c r="J177" s="116"/>
@@ -17264,7 +17270,7 @@
       </c>
       <c r="S177" s="58"/>
     </row>
-    <row r="178" spans="1:19" ht="21">
+    <row r="178" spans="1:19">
       <c r="A178" s="93">
         <f t="shared" si="15"/>
         <v>75497472</v>
@@ -17276,7 +17282,7 @@
       <c r="F178" s="95"/>
       <c r="G178" s="121"/>
       <c r="H178" s="121" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I178" s="115"/>
       <c r="J178" s="116"/>
@@ -17309,7 +17315,7 @@
       </c>
       <c r="S178" s="58"/>
     </row>
-    <row r="179" spans="1:19" ht="42">
+    <row r="179" spans="1:19" ht="39">
       <c r="A179" s="93">
         <f t="shared" si="15"/>
         <v>196609</v>
@@ -17323,11 +17329,11 @@
       </c>
       <c r="E179" s="120"/>
       <c r="F179" s="95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G179" s="121"/>
       <c r="H179" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I179" s="122"/>
       <c r="J179" s="116" t="s">
@@ -17358,13 +17364,13 @@
         <v>q</v>
       </c>
       <c r="R179" s="57" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="S179" s="58" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" ht="63">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" ht="58.5">
       <c r="A180" s="93">
         <f t="shared" si="15"/>
         <v>197632</v>
@@ -17378,11 +17384,11 @@
       </c>
       <c r="E180" s="120"/>
       <c r="F180" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G180" s="121"/>
       <c r="H180" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I180" s="122"/>
       <c r="J180" s="116" t="s">
@@ -17417,7 +17423,7 @@
       </c>
       <c r="S180" s="58"/>
     </row>
-    <row r="181" spans="1:19" ht="84">
+    <row r="181" spans="1:19" ht="78">
       <c r="A181" s="93">
         <f t="shared" si="15"/>
         <v>1245184</v>
@@ -17431,11 +17437,11 @@
       </c>
       <c r="E181" s="120"/>
       <c r="F181" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G181" s="121"/>
       <c r="H181" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I181" s="122"/>
       <c r="J181" s="116" t="s">
@@ -17472,7 +17478,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="105">
+    <row r="182" spans="1:19" ht="97.5">
       <c r="A182" s="93">
         <f t="shared" si="15"/>
         <v>196610</v>
@@ -17486,11 +17492,11 @@
       </c>
       <c r="E182" s="120"/>
       <c r="F182" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G182" s="121"/>
       <c r="H182" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I182" s="122"/>
       <c r="J182" s="116" t="s">
@@ -17527,7 +17533,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="84">
+    <row r="183" spans="1:19" ht="97.5">
       <c r="A183" s="93">
         <f t="shared" si="15"/>
         <v>198656</v>
@@ -17541,13 +17547,13 @@
       </c>
       <c r="E183" s="120"/>
       <c r="F183" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G183" s="121" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H183" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I183" s="122"/>
       <c r="J183" s="116" t="s">
@@ -17584,7 +17590,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="105">
+    <row r="184" spans="1:19" ht="97.5">
       <c r="A184" s="93">
         <f t="shared" si="15"/>
         <v>2293760</v>
@@ -17598,11 +17604,11 @@
       </c>
       <c r="E184" s="120"/>
       <c r="F184" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G184" s="121"/>
       <c r="H184" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I184" s="122"/>
       <c r="J184" s="116" t="s">
@@ -17639,7 +17645,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="42">
+    <row r="185" spans="1:19" ht="39">
       <c r="A185" s="93">
         <f t="shared" si="15"/>
         <v>200704</v>
@@ -17653,11 +17659,11 @@
       </c>
       <c r="E185" s="120"/>
       <c r="F185" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G185" s="121"/>
       <c r="H185" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I185" s="122"/>
       <c r="J185" s="116" t="s">
@@ -17692,7 +17698,7 @@
       </c>
       <c r="S185" s="58"/>
     </row>
-    <row r="186" spans="1:19" ht="42">
+    <row r="186" spans="1:19" ht="39">
       <c r="A186" s="93">
         <f t="shared" si="15"/>
         <v>4390912</v>
@@ -17706,11 +17712,11 @@
       </c>
       <c r="E186" s="120"/>
       <c r="F186" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G186" s="121"/>
       <c r="H186" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I186" s="122"/>
       <c r="J186" s="116" t="s">
@@ -17745,7 +17751,7 @@
       </c>
       <c r="S186" s="58"/>
     </row>
-    <row r="187" spans="1:19" ht="42">
+    <row r="187" spans="1:19" ht="39">
       <c r="A187" s="93">
         <f t="shared" si="15"/>
         <v>196616</v>
@@ -17759,11 +17765,11 @@
       </c>
       <c r="E187" s="120"/>
       <c r="F187" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G187" s="121"/>
       <c r="H187" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I187" s="122"/>
       <c r="J187" s="116" t="s">
@@ -17798,7 +17804,7 @@
       </c>
       <c r="S187" s="58"/>
     </row>
-    <row r="188" spans="1:19" ht="105">
+    <row r="188" spans="1:19" ht="97.5">
       <c r="A188" s="93">
         <f t="shared" si="15"/>
         <v>204800</v>
@@ -17812,13 +17818,13 @@
       </c>
       <c r="E188" s="120"/>
       <c r="F188" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G188" s="121" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H188" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I188" s="122"/>
       <c r="J188" s="116" t="s">
@@ -17855,7 +17861,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="42">
+    <row r="189" spans="1:19" ht="39">
       <c r="A189" s="93">
         <f t="shared" si="15"/>
         <v>8585216</v>
@@ -17869,11 +17875,11 @@
       </c>
       <c r="E189" s="120"/>
       <c r="F189" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G189" s="121"/>
       <c r="H189" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I189" s="122"/>
       <c r="J189" s="116" t="s">
@@ -17904,13 +17910,13 @@
         <v>v</v>
       </c>
       <c r="R189" s="57" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="S189" s="58" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" ht="42">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" ht="39">
       <c r="A190" s="93">
         <f t="shared" si="15"/>
         <v>196624</v>
@@ -17924,11 +17930,11 @@
       </c>
       <c r="E190" s="120"/>
       <c r="F190" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G190" s="121"/>
       <c r="H190" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I190" s="122"/>
       <c r="J190" s="116" t="s">
@@ -17963,7 +17969,7 @@
       </c>
       <c r="S190" s="58"/>
     </row>
-    <row r="191" spans="1:19" ht="105">
+    <row r="191" spans="1:19" ht="97.5">
       <c r="A191" s="93">
         <f t="shared" si="15"/>
         <v>212992</v>
@@ -17977,11 +17983,11 @@
       </c>
       <c r="E191" s="120"/>
       <c r="F191" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G191" s="121"/>
       <c r="H191" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I191" s="122"/>
       <c r="J191" s="116" t="s">
@@ -18018,7 +18024,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="42">
+    <row r="192" spans="1:19" ht="39">
       <c r="A192" s="93">
         <f t="shared" si="15"/>
         <v>16973824</v>
@@ -18032,11 +18038,11 @@
       </c>
       <c r="E192" s="120"/>
       <c r="F192" s="95" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G192" s="121"/>
       <c r="H192" s="114" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I192" s="122"/>
       <c r="J192" s="116" t="s">
@@ -18067,13 +18073,13 @@
         <v>b</v>
       </c>
       <c r="R192" s="57" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="S192" s="58" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" ht="42">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="39">
       <c r="A193" s="93">
         <f t="shared" si="15"/>
         <v>12320</v>
@@ -18087,11 +18093,11 @@
       </c>
       <c r="E193" s="120"/>
       <c r="F193" s="95" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G193" s="121"/>
       <c r="H193" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I193" s="122"/>
       <c r="J193" s="116" t="s">
@@ -18126,7 +18132,7 @@
       </c>
       <c r="S193" s="58"/>
     </row>
-    <row r="194" spans="1:19" ht="42">
+    <row r="194" spans="1:19" ht="39">
       <c r="A194" s="93">
         <f t="shared" si="15"/>
         <v>45056</v>
@@ -18140,11 +18146,11 @@
       </c>
       <c r="E194" s="120"/>
       <c r="F194" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G194" s="121"/>
       <c r="H194" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I194" s="122"/>
       <c r="J194" s="116" t="s">
@@ -18175,13 +18181,13 @@
         <v>h</v>
       </c>
       <c r="R194" s="57" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="S194" s="58" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="42">
+    <row r="195" spans="1:19" ht="39">
       <c r="A195" s="93">
         <f t="shared" si="15"/>
         <v>33566720</v>
@@ -18195,11 +18201,11 @@
       </c>
       <c r="E195" s="120"/>
       <c r="F195" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G195" s="121"/>
       <c r="H195" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I195" s="122"/>
       <c r="J195" s="116" t="s">
@@ -18234,7 +18240,7 @@
       </c>
       <c r="S195" s="58"/>
     </row>
-    <row r="196" spans="1:19" ht="42">
+    <row r="196" spans="1:19" ht="39">
       <c r="A196" s="93">
         <f t="shared" si="15"/>
         <v>12352</v>
@@ -18248,11 +18254,11 @@
       </c>
       <c r="E196" s="120"/>
       <c r="F196" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G196" s="121"/>
       <c r="H196" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I196" s="122"/>
       <c r="J196" s="116" t="s">
@@ -18287,7 +18293,7 @@
       </c>
       <c r="S196" s="58"/>
     </row>
-    <row r="197" spans="1:19" ht="21">
+    <row r="197" spans="1:19">
       <c r="A197" s="93">
         <f t="shared" si="15"/>
         <v>77824</v>
@@ -18301,11 +18307,11 @@
       </c>
       <c r="E197" s="120"/>
       <c r="F197" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G197" s="121"/>
       <c r="H197" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I197" s="122"/>
       <c r="J197" s="116" t="s">
@@ -18340,7 +18346,7 @@
       </c>
       <c r="S197" s="58"/>
     </row>
-    <row r="198" spans="1:19" ht="21">
+    <row r="198" spans="1:19">
       <c r="A198" s="93">
         <f t="shared" si="15"/>
         <v>67121152</v>
@@ -18354,11 +18360,11 @@
       </c>
       <c r="E198" s="120"/>
       <c r="F198" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G198" s="121"/>
       <c r="H198" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I198" s="122"/>
       <c r="J198" s="116" t="s">
@@ -18393,7 +18399,7 @@
       </c>
       <c r="S198" s="58"/>
     </row>
-    <row r="199" spans="1:19" ht="42">
+    <row r="199" spans="1:19" ht="39">
       <c r="A199" s="93">
         <f t="shared" ref="A199:A237" si="22">_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(J199,仮想キートップ,ビット)),_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(K199,仮想キートップ,ビット))),_xlfn.BITLSHIFT(1,_xlfn.XLOOKUP(L199,仮想キートップ,ビット)))</f>
         <v>12416</v>
@@ -18407,11 +18413,11 @@
       </c>
       <c r="E199" s="120"/>
       <c r="F199" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G199" s="121"/>
       <c r="H199" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I199" s="122"/>
       <c r="J199" s="116" t="s">
@@ -18446,7 +18452,7 @@
       </c>
       <c r="S199" s="58"/>
     </row>
-    <row r="200" spans="1:19" ht="21">
+    <row r="200" spans="1:19">
       <c r="A200" s="93">
         <f t="shared" si="22"/>
         <v>143360</v>
@@ -18460,11 +18466,11 @@
       </c>
       <c r="E200" s="120"/>
       <c r="F200" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G200" s="121"/>
       <c r="H200" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I200" s="122"/>
       <c r="J200" s="116" t="s">
@@ -18499,7 +18505,7 @@
       </c>
       <c r="S200" s="58"/>
     </row>
-    <row r="201" spans="1:19" ht="21">
+    <row r="201" spans="1:19">
       <c r="A201" s="93">
         <f t="shared" si="22"/>
         <v>134230016</v>
@@ -18513,11 +18519,11 @@
       </c>
       <c r="E201" s="120"/>
       <c r="F201" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G201" s="121"/>
       <c r="H201" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I201" s="122"/>
       <c r="J201" s="116" t="s">
@@ -18552,7 +18558,7 @@
       </c>
       <c r="S201" s="58"/>
     </row>
-    <row r="202" spans="1:19" ht="21">
+    <row r="202" spans="1:19">
       <c r="A202" s="93">
         <f t="shared" si="22"/>
         <v>12544</v>
@@ -18566,11 +18572,11 @@
       </c>
       <c r="E202" s="120"/>
       <c r="F202" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G202" s="121"/>
       <c r="H202" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I202" s="122"/>
       <c r="J202" s="116" t="s">
@@ -18605,7 +18611,7 @@
       </c>
       <c r="S202" s="58"/>
     </row>
-    <row r="203" spans="1:19" ht="147">
+    <row r="203" spans="1:19" ht="136.5">
       <c r="A203" s="93">
         <f t="shared" si="22"/>
         <v>274432</v>
@@ -18619,11 +18625,11 @@
       </c>
       <c r="E203" s="120"/>
       <c r="F203" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G203" s="121"/>
       <c r="H203" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I203" s="122"/>
       <c r="J203" s="116" t="s">
@@ -18658,7 +18664,7 @@
       </c>
       <c r="S203" s="58"/>
     </row>
-    <row r="204" spans="1:19" ht="147">
+    <row r="204" spans="1:19" ht="136.5">
       <c r="A204" s="93">
         <f t="shared" si="22"/>
         <v>268447744</v>
@@ -18672,11 +18678,11 @@
       </c>
       <c r="E204" s="120"/>
       <c r="F204" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G204" s="121"/>
       <c r="H204" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I204" s="122"/>
       <c r="J204" s="116" t="s">
@@ -18711,7 +18717,7 @@
       </c>
       <c r="S204" s="58"/>
     </row>
-    <row r="205" spans="1:19" ht="63">
+    <row r="205" spans="1:19" ht="58.5">
       <c r="A205" s="93">
         <f t="shared" si="22"/>
         <v>12800</v>
@@ -18725,11 +18731,11 @@
       </c>
       <c r="E205" s="120"/>
       <c r="F205" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G205" s="121"/>
       <c r="H205" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I205" s="122"/>
       <c r="J205" s="116" t="s">
@@ -18764,7 +18770,7 @@
       </c>
       <c r="S205" s="58"/>
     </row>
-    <row r="206" spans="1:19" ht="84">
+    <row r="206" spans="1:19" ht="97.5">
       <c r="A206" s="93">
         <f t="shared" si="22"/>
         <v>536576</v>
@@ -18778,11 +18784,11 @@
       </c>
       <c r="E206" s="120"/>
       <c r="F206" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G206" s="121"/>
       <c r="H206" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I206" s="122"/>
       <c r="J206" s="116" t="s">
@@ -18817,7 +18823,7 @@
       </c>
       <c r="S206" s="58"/>
     </row>
-    <row r="207" spans="1:19" ht="84">
+    <row r="207" spans="1:19" ht="97.5">
       <c r="A207" s="93">
         <f t="shared" si="22"/>
         <v>536883200</v>
@@ -18831,11 +18837,11 @@
       </c>
       <c r="E207" s="120"/>
       <c r="F207" s="95" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G207" s="121"/>
       <c r="H207" s="114" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I207" s="122"/>
       <c r="J207" s="116" t="s">
@@ -18870,7 +18876,7 @@
       </c>
       <c r="S207" s="58"/>
     </row>
-    <row r="208" spans="1:19" ht="84">
+    <row r="208" spans="1:19" ht="78">
       <c r="A208" s="93">
         <f t="shared" si="22"/>
         <v>201326593</v>
@@ -18884,7 +18890,7 @@
       </c>
       <c r="E208" s="120"/>
       <c r="F208" s="95" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G208" s="121"/>
       <c r="H208" s="114"/>
@@ -18921,7 +18927,7 @@
       </c>
       <c r="S208" s="58"/>
     </row>
-    <row r="209" spans="1:19" ht="105">
+    <row r="209" spans="1:19" ht="97.5">
       <c r="A209" s="93">
         <f t="shared" si="22"/>
         <v>201327616</v>
@@ -18935,11 +18941,11 @@
       </c>
       <c r="E209" s="124"/>
       <c r="F209" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G209" s="126"/>
       <c r="H209" s="127" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I209" s="128"/>
       <c r="J209" s="129" t="s">
@@ -18976,7 +18982,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="168">
+    <row r="210" spans="1:19" ht="175.5">
       <c r="A210" s="93">
         <f t="shared" si="22"/>
         <v>202375168</v>
@@ -18990,7 +18996,7 @@
       </c>
       <c r="E210" s="124"/>
       <c r="F210" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G210" s="126"/>
       <c r="H210" s="127"/>
@@ -19029,7 +19035,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="63">
+    <row r="211" spans="1:19" ht="58.5">
       <c r="A211" s="93">
         <f t="shared" si="22"/>
         <v>201326594</v>
@@ -19043,7 +19049,7 @@
       </c>
       <c r="E211" s="124"/>
       <c r="F211" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G211" s="126"/>
       <c r="H211" s="127"/>
@@ -19082,7 +19088,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="126">
+    <row r="212" spans="1:19" ht="136.5">
       <c r="A212" s="93">
         <f t="shared" si="22"/>
         <v>201328640</v>
@@ -19096,7 +19102,7 @@
       </c>
       <c r="E212" s="124"/>
       <c r="F212" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G212" s="126"/>
       <c r="H212" s="127"/>
@@ -19135,7 +19141,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="126">
+    <row r="213" spans="1:19" ht="136.5">
       <c r="A213" s="93">
         <f t="shared" si="22"/>
         <v>203423744</v>
@@ -19149,7 +19155,7 @@
       </c>
       <c r="E213" s="124"/>
       <c r="F213" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G213" s="126"/>
       <c r="H213" s="127"/>
@@ -19188,7 +19194,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="84">
+    <row r="214" spans="1:19" ht="97.5">
       <c r="A214" s="93">
         <f t="shared" si="22"/>
         <v>201326596</v>
@@ -19202,11 +19208,11 @@
       </c>
       <c r="E214" s="124"/>
       <c r="F214" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G214" s="126"/>
       <c r="H214" s="127" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I214" s="128"/>
       <c r="J214" s="129" t="s">
@@ -19241,7 +19247,7 @@
       </c>
       <c r="S214" s="62"/>
     </row>
-    <row r="215" spans="1:19" ht="42">
+    <row r="215" spans="1:19" ht="39">
       <c r="A215" s="93">
         <f t="shared" si="22"/>
         <v>201330688</v>
@@ -19255,11 +19261,11 @@
       </c>
       <c r="E215" s="124"/>
       <c r="F215" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G215" s="126"/>
       <c r="H215" s="127" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I215" s="128"/>
       <c r="J215" s="129" t="s">
@@ -19294,7 +19300,7 @@
       </c>
       <c r="S215" s="62"/>
     </row>
-    <row r="216" spans="1:19" ht="105">
+    <row r="216" spans="1:19" ht="97.5">
       <c r="A216" s="93">
         <f t="shared" si="22"/>
         <v>205520896</v>
@@ -19308,11 +19314,11 @@
       </c>
       <c r="E216" s="124"/>
       <c r="F216" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G216" s="126"/>
       <c r="H216" s="127" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I216" s="128"/>
       <c r="J216" s="129" t="s">
@@ -19347,7 +19353,7 @@
       </c>
       <c r="S216" s="62"/>
     </row>
-    <row r="217" spans="1:19" ht="63">
+    <row r="217" spans="1:19" ht="78">
       <c r="A217" s="93">
         <f t="shared" si="22"/>
         <v>201326600</v>
@@ -19361,11 +19367,11 @@
       </c>
       <c r="E217" s="124"/>
       <c r="F217" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G217" s="126"/>
       <c r="H217" s="127" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I217" s="128"/>
       <c r="J217" s="129" t="s">
@@ -19400,7 +19406,7 @@
       </c>
       <c r="S217" s="62"/>
     </row>
-    <row r="218" spans="1:19" ht="126">
+    <row r="218" spans="1:19" ht="136.5">
       <c r="A218" s="93">
         <f t="shared" si="22"/>
         <v>201334784</v>
@@ -19414,7 +19420,7 @@
       </c>
       <c r="E218" s="124"/>
       <c r="F218" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G218" s="126"/>
       <c r="H218" s="127"/>
@@ -19453,7 +19459,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="84">
+    <row r="219" spans="1:19" ht="78">
       <c r="A219" s="93">
         <f t="shared" si="22"/>
         <v>209715200</v>
@@ -19467,11 +19473,11 @@
       </c>
       <c r="E219" s="124"/>
       <c r="F219" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G219" s="126"/>
       <c r="H219" s="127" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I219" s="128"/>
       <c r="J219" s="129" t="s">
@@ -19506,7 +19512,7 @@
       </c>
       <c r="S219" s="62"/>
     </row>
-    <row r="220" spans="1:19" ht="63">
+    <row r="220" spans="1:19" ht="58.5">
       <c r="A220" s="93">
         <f t="shared" si="22"/>
         <v>201326608</v>
@@ -19520,11 +19526,11 @@
       </c>
       <c r="E220" s="124"/>
       <c r="F220" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G220" s="126"/>
       <c r="H220" s="127" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I220" s="128"/>
       <c r="J220" s="129" t="s">
@@ -19561,7 +19567,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="42">
+    <row r="221" spans="1:19" ht="39">
       <c r="A221" s="93">
         <f t="shared" si="22"/>
         <v>201342976</v>
@@ -19575,11 +19581,11 @@
       </c>
       <c r="E221" s="124"/>
       <c r="F221" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G221" s="126"/>
       <c r="H221" s="127" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I221" s="128"/>
       <c r="J221" s="129" t="s">
@@ -19614,7 +19620,7 @@
       </c>
       <c r="S221" s="62"/>
     </row>
-    <row r="222" spans="1:19" ht="409.6">
+    <row r="222" spans="1:19" ht="390">
       <c r="A222" s="93">
         <f t="shared" si="22"/>
         <v>218103808</v>
@@ -19628,11 +19634,11 @@
       </c>
       <c r="E222" s="124"/>
       <c r="F222" s="125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G222" s="126"/>
       <c r="H222" s="127" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I222" s="128"/>
       <c r="J222" s="129" t="s">
@@ -19669,7 +19675,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="42">
+    <row r="223" spans="1:19" ht="39">
       <c r="A223" s="93">
         <f t="shared" si="22"/>
         <v>12582944</v>
@@ -19683,11 +19689,11 @@
       </c>
       <c r="E223" s="124"/>
       <c r="F223" s="125" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G223" s="126"/>
       <c r="H223" s="127" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I223" s="128"/>
       <c r="J223" s="129" t="s">
@@ -19722,7 +19728,7 @@
       </c>
       <c r="S223" s="62"/>
     </row>
-    <row r="224" spans="1:19" ht="42">
+    <row r="224" spans="1:19" ht="39">
       <c r="A224" s="93">
         <f t="shared" si="22"/>
         <v>12615680</v>
@@ -19736,11 +19742,11 @@
       </c>
       <c r="E224" s="124"/>
       <c r="F224" s="125" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G224" s="126"/>
       <c r="H224" s="127" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I224" s="128"/>
       <c r="J224" s="129" t="s">
@@ -19775,7 +19781,7 @@
       </c>
       <c r="S224" s="62"/>
     </row>
-    <row r="225" spans="1:19" ht="42">
+    <row r="225" spans="1:19" ht="39">
       <c r="A225" s="93">
         <f t="shared" si="22"/>
         <v>46137344</v>
@@ -19789,11 +19795,11 @@
       </c>
       <c r="E225" s="124"/>
       <c r="F225" s="125" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G225" s="126"/>
       <c r="H225" s="127" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I225" s="128"/>
       <c r="J225" s="129" t="s">
@@ -19828,7 +19834,7 @@
       </c>
       <c r="S225" s="62"/>
     </row>
-    <row r="226" spans="1:19" ht="42">
+    <row r="226" spans="1:19" ht="39">
       <c r="A226" s="93">
         <f t="shared" si="22"/>
         <v>12582976</v>
@@ -19842,11 +19848,11 @@
       </c>
       <c r="E226" s="124"/>
       <c r="F226" s="125" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G226" s="126"/>
       <c r="H226" s="127" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I226" s="128"/>
       <c r="J226" s="129" t="s">
@@ -19881,7 +19887,7 @@
       </c>
       <c r="S226" s="62"/>
     </row>
-    <row r="227" spans="1:19" ht="84">
+    <row r="227" spans="1:19" ht="97.5">
       <c r="A227" s="93">
         <f t="shared" si="22"/>
         <v>12648448</v>
@@ -19895,11 +19901,11 @@
       </c>
       <c r="E227" s="124"/>
       <c r="F227" s="125" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G227" s="126"/>
       <c r="H227" s="127" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I227" s="128"/>
       <c r="J227" s="129" t="s">
@@ -19934,7 +19940,7 @@
       </c>
       <c r="S227" s="62"/>
     </row>
-    <row r="228" spans="1:19" ht="84">
+    <row r="228" spans="1:19" ht="97.5">
       <c r="A228" s="93">
         <f t="shared" si="22"/>
         <v>79691776</v>
@@ -19948,11 +19954,11 @@
       </c>
       <c r="E228" s="124"/>
       <c r="F228" s="125" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G228" s="126"/>
       <c r="H228" s="127" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I228" s="128"/>
       <c r="J228" s="129" t="s">
@@ -19987,7 +19993,7 @@
       </c>
       <c r="S228" s="62"/>
     </row>
-    <row r="229" spans="1:19" ht="42">
+    <row r="229" spans="1:19" ht="39">
       <c r="A229" s="93">
         <f t="shared" si="22"/>
         <v>12583040</v>
@@ -20001,11 +20007,11 @@
       </c>
       <c r="E229" s="124"/>
       <c r="F229" s="125" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G229" s="126"/>
       <c r="H229" s="127" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I229" s="128"/>
       <c r="J229" s="129" t="s">
@@ -20040,7 +20046,7 @@
       </c>
       <c r="S229" s="62"/>
     </row>
-    <row r="230" spans="1:19" ht="105">
+    <row r="230" spans="1:19" ht="97.5">
       <c r="A230" s="93">
         <f t="shared" si="22"/>
         <v>12713984</v>
@@ -20054,11 +20060,11 @@
       </c>
       <c r="E230" s="124"/>
       <c r="F230" s="125" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G230" s="126"/>
       <c r="H230" s="127" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I230" s="128"/>
       <c r="J230" s="129" t="s">
@@ -20093,7 +20099,7 @@
       </c>
       <c r="S230" s="62"/>
     </row>
-    <row r="231" spans="1:19" ht="105">
+    <row r="231" spans="1:19" ht="97.5">
       <c r="A231" s="93">
         <f t="shared" si="22"/>
         <v>146800640</v>
@@ -20107,11 +20113,11 @@
       </c>
       <c r="E231" s="124"/>
       <c r="F231" s="125" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G231" s="126"/>
       <c r="H231" s="127" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I231" s="128"/>
       <c r="J231" s="129" t="s">
@@ -20146,7 +20152,7 @@
       </c>
       <c r="S231" s="62"/>
     </row>
-    <row r="232" spans="1:19" ht="42">
+    <row r="232" spans="1:19" ht="39">
       <c r="A232" s="93">
         <f t="shared" si="22"/>
         <v>12583168</v>
@@ -20160,11 +20166,11 @@
       </c>
       <c r="E232" s="120"/>
       <c r="F232" s="95" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G232" s="121"/>
       <c r="H232" s="114" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I232" s="122"/>
       <c r="J232" s="116" t="s">
@@ -20199,7 +20205,7 @@
       </c>
       <c r="S232" s="58"/>
     </row>
-    <row r="233" spans="1:19" ht="399">
+    <row r="233" spans="1:19" ht="390">
       <c r="A233" s="93">
         <f t="shared" si="22"/>
         <v>12845056</v>
@@ -20213,11 +20219,11 @@
       </c>
       <c r="E233" s="132"/>
       <c r="F233" s="133" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G233" s="134"/>
       <c r="H233" s="107" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I233" s="135"/>
       <c r="J233" s="109" t="s">
@@ -20252,7 +20258,7 @@
       </c>
       <c r="S233" s="54"/>
     </row>
-    <row r="234" spans="1:19" ht="399">
+    <row r="234" spans="1:19" ht="390">
       <c r="A234" s="93">
         <f t="shared" si="22"/>
         <v>281018368</v>
@@ -20266,11 +20272,11 @@
       </c>
       <c r="E234" s="120"/>
       <c r="F234" s="95" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G234" s="121"/>
       <c r="H234" s="114" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I234" s="122"/>
       <c r="J234" s="116" t="s">
@@ -20305,7 +20311,7 @@
       </c>
       <c r="S234" s="58"/>
     </row>
-    <row r="235" spans="1:19" ht="42">
+    <row r="235" spans="1:19" ht="39">
       <c r="A235" s="93">
         <f t="shared" si="22"/>
         <v>12583424</v>
@@ -20319,11 +20325,11 @@
       </c>
       <c r="E235" s="120"/>
       <c r="F235" s="95" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G235" s="121"/>
       <c r="H235" s="114" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I235" s="122"/>
       <c r="J235" s="116" t="s">
@@ -20358,7 +20364,7 @@
       </c>
       <c r="S235" s="58"/>
     </row>
-    <row r="236" spans="1:19" ht="42">
+    <row r="236" spans="1:19" ht="39">
       <c r="A236" s="93">
         <f t="shared" si="22"/>
         <v>13107200</v>
@@ -20372,11 +20378,11 @@
       </c>
       <c r="E236" s="124"/>
       <c r="F236" s="125" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G236" s="126"/>
       <c r="H236" s="127" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I236" s="128"/>
       <c r="J236" s="129" t="s">
@@ -20411,7 +20417,7 @@
       </c>
       <c r="S236" s="62"/>
     </row>
-    <row r="237" spans="1:19" ht="42">
+    <row r="237" spans="1:19" ht="39">
       <c r="A237" s="94">
         <f t="shared" si="22"/>
         <v>549453824</v>
@@ -20425,11 +20431,11 @@
       </c>
       <c r="E237" s="137"/>
       <c r="F237" s="138" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G237" s="139"/>
       <c r="H237" s="140" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I237" s="141"/>
       <c r="J237" s="142" t="s">
